--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -25,6 +25,24 @@
     <t>Biorefinery</t>
   </si>
   <si>
+    <t>Biofuel displacement</t>
+  </si>
+  <si>
+    <t>Ethanol displacement</t>
+  </si>
+  <si>
+    <t>Biodiesel displacement</t>
+  </si>
+  <si>
+    <t>Biofuel allocation</t>
+  </si>
+  <si>
+    <t>Ethanol allocation</t>
+  </si>
+  <si>
+    <t>Biodiesel allocation</t>
+  </si>
+  <si>
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
@@ -67,6 +85,15 @@
     <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
+    <t>GWP [kg*CO2*eq / GGE]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (ethanol*gal)]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>oilsorghum</t>
   </si>
   <si>
+    <t>Stream-sugarcane</t>
+  </si>
+  <si>
     <t>Oil retention [%]</t>
   </si>
   <si>
@@ -172,16 +202,16 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Cane  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Cane  FFA content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA content [% oil]</t>
+    <t>Cane PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Cane FFA content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum FFA content [% oil]</t>
   </si>
   <si>
     <t>Cane oil content [dry wt. %]</t>
@@ -190,7 +220,10 @@
     <t>Relative sorghum oil content [dry wt. %]</t>
   </si>
   <si>
-    <t>TAG to  FFA conversion [% oil]</t>
+    <t>TAG to FFA conversion [% oil]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2-eq/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,910 +607,1347 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>-0.02283372081734883</v>
+        <v>-0.0901050105010501</v>
       </c>
       <c r="E4">
-        <v>0.005065917322636692</v>
+        <v>0.04007200720072007</v>
       </c>
       <c r="F4">
-        <v>-0.006262260508086777</v>
+        <v>-0.09560737552151434</v>
       </c>
       <c r="G4">
-        <v>0.029815573217219</v>
+        <v>0.1617464747401484</v>
       </c>
       <c r="H4">
-        <v>0.01933412122136485</v>
+        <v>-0.02683468346834683</v>
       </c>
       <c r="I4">
-        <v>0.01824716780188671</v>
+        <v>-0.03924392439243924</v>
       </c>
       <c r="J4">
-        <v>-0.01139160406824049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>-0.05773777377737773</v>
+      </c>
+      <c r="Q4">
+        <v>0.05878187818781878</v>
+      </c>
+      <c r="R4">
+        <v>0.05878187818781878</v>
+      </c>
+      <c r="T4">
+        <v>0.1652685268526852</v>
+      </c>
+      <c r="U4">
+        <v>0.1652685268526852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.007603186768127469</v>
+        <v>-0.1076627662766276</v>
       </c>
       <c r="E5">
-        <v>-0.02325371363414854</v>
+        <v>0.1154155415541554</v>
       </c>
       <c r="F5">
-        <v>-0.009567651337148531</v>
+        <v>-0.2075850983380323</v>
       </c>
       <c r="G5">
-        <v>-0.01816572551387912</v>
+        <v>-0.09298919077533066</v>
       </c>
       <c r="H5">
-        <v>0.02080588345623533</v>
+        <v>-0.1090909090909091</v>
       </c>
       <c r="I5">
-        <v>0.02099920672796826</v>
+        <v>-0.1012421242124212</v>
       </c>
       <c r="J5">
-        <v>-0.00567849431340883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-0.0679027902790279</v>
+      </c>
+      <c r="Q5">
+        <v>-0.1118631863186318</v>
+      </c>
+      <c r="R5">
+        <v>-0.1118631863186318</v>
+      </c>
+      <c r="T5">
+        <v>-0.1479507950795079</v>
+      </c>
+      <c r="U5">
+        <v>-0.1479507950795079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.1886881974355279</v>
+        <v>0.1647404740474047</v>
       </c>
       <c r="E6">
-        <v>0.0007331277413251096</v>
+        <v>-0.02918691869186919</v>
       </c>
       <c r="F6">
-        <v>0.004638660766535404</v>
+        <v>0.01054725307972843</v>
       </c>
       <c r="G6">
-        <v>0.0895941583601899</v>
+        <v>0.03332338152453169</v>
       </c>
       <c r="H6">
-        <v>0.9616351463694057</v>
+        <v>0.9612001200120009</v>
       </c>
       <c r="I6">
-        <v>0.9586914095476562</v>
+        <v>0.956111611161116</v>
       </c>
       <c r="J6">
-        <v>-0.2735833933093718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>-0.1942034203420342</v>
+      </c>
+      <c r="Q6">
+        <v>0.3379657965796579</v>
+      </c>
+      <c r="R6">
+        <v>0.3379657965796579</v>
+      </c>
+      <c r="T6">
+        <v>0.2025922592259226</v>
+      </c>
+      <c r="U6">
+        <v>0.2025922592259226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.9144252322570091</v>
+        <v>0.9226162616261625</v>
       </c>
       <c r="E7">
-        <v>-0.01529522201980888</v>
+        <v>-0.04092409240924093</v>
       </c>
       <c r="F7">
-        <v>-0.02204151875313858</v>
+        <v>0.0122146032671825</v>
       </c>
       <c r="G7">
-        <v>-0.000368654045389199</v>
+        <v>-0.02353441271869668</v>
       </c>
       <c r="H7">
-        <v>-0.003125067869002714</v>
+        <v>-0.04438043804380437</v>
       </c>
       <c r="I7">
-        <v>0.002488744899549796</v>
+        <v>0.009672967296729673</v>
       </c>
       <c r="J7">
-        <v>0.005691889145959412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>-0.04846084608460845</v>
+      </c>
+      <c r="Q7">
+        <v>0.03164716471647164</v>
+      </c>
+      <c r="R7">
+        <v>0.03164716471647164</v>
+      </c>
+      <c r="T7">
+        <v>0.02029402940294029</v>
+      </c>
+      <c r="U7">
+        <v>0.02029402940294029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.02128504875540195</v>
+        <v>-0.1028502850285028</v>
       </c>
       <c r="E8">
-        <v>0.005849220041968802</v>
+        <v>-0.05298529852985297</v>
       </c>
       <c r="F8">
-        <v>-0.005909664785936511</v>
+        <v>0.03320805790012699</v>
       </c>
       <c r="G8">
-        <v>0.0005072372665996262</v>
+        <v>0.00620529226512391</v>
       </c>
       <c r="H8">
-        <v>0.01372651926906077</v>
+        <v>0.07812781278127812</v>
       </c>
       <c r="I8">
-        <v>0.01808265845130633</v>
+        <v>0.1098109810981098</v>
       </c>
       <c r="J8">
-        <v>-0.009421553811263547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.003132313231323132</v>
+      </c>
+      <c r="Q8">
+        <v>0.08918091809180917</v>
+      </c>
+      <c r="R8">
+        <v>0.08918091809180917</v>
+      </c>
+      <c r="T8">
+        <v>0.06781878187818781</v>
+      </c>
+      <c r="U8">
+        <v>0.06781878187818781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-0.01686635241865409</v>
+        <v>0.04452445244524452</v>
       </c>
       <c r="E9">
-        <v>-0.004946453189858127</v>
+        <v>0.1111431143114311</v>
       </c>
       <c r="F9">
-        <v>-0.02295926748774409</v>
+        <v>0.02074714153707059</v>
       </c>
       <c r="G9">
-        <v>0.02082800720863868</v>
+        <v>-0.1029224687036104</v>
       </c>
       <c r="H9">
-        <v>-0.02058239035929561</v>
+        <v>-0.09694569456945692</v>
       </c>
       <c r="I9">
-        <v>-0.0166405299776212</v>
+        <v>-0.07396339633963396</v>
       </c>
       <c r="J9">
-        <v>0.0001673511428788013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.09152115211521152</v>
+      </c>
+      <c r="Q9">
+        <v>-0.1853945394539454</v>
+      </c>
+      <c r="R9">
+        <v>-0.1853945394539454</v>
+      </c>
+      <c r="T9">
+        <v>-0.1829942994299429</v>
+      </c>
+      <c r="U9">
+        <v>-0.1829942994299429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0.01036013139040525</v>
+        <v>0.06822682268226822</v>
       </c>
       <c r="E10">
-        <v>-0.01694887814995513</v>
+        <v>-0.1171557155715571</v>
       </c>
       <c r="F10">
-        <v>0.0190852583956697</v>
+        <v>0.1009125806634137</v>
       </c>
       <c r="G10">
-        <v>-0.009303594160460981</v>
+        <v>-0.08798647453057962</v>
       </c>
       <c r="H10">
-        <v>0.01491573957262958</v>
+        <v>0.1151275127512751</v>
       </c>
       <c r="I10">
-        <v>0.01400161121606445</v>
+        <v>0.09706570657065706</v>
       </c>
       <c r="J10">
-        <v>-0.0005254663895987704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>-0.05718571857185718</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009840984098409839</v>
+      </c>
+      <c r="R10">
+        <v>0.0009840984098409839</v>
+      </c>
+      <c r="T10">
+        <v>-0.0288028802880288</v>
+      </c>
+      <c r="U10">
+        <v>-0.0288028802880288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.1715337150213486</v>
+        <v>0.116039603960396</v>
       </c>
       <c r="E11">
-        <v>0.01358830345553214</v>
+        <v>0.1392739273927392</v>
       </c>
       <c r="F11">
-        <v>0.009871357534524625</v>
+        <v>-0.04248585117804381</v>
       </c>
       <c r="G11">
-        <v>0.01082581082758703</v>
+        <v>-0.009987393849196525</v>
       </c>
       <c r="H11">
-        <v>0.004421167952846717</v>
+        <v>-0.05429342934293429</v>
       </c>
       <c r="I11">
-        <v>0.283372950726918</v>
+        <v>0.2375037503750375</v>
       </c>
       <c r="J11">
-        <v>0.008669219156339584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.1815541554155415</v>
+      </c>
+      <c r="Q11">
+        <v>-0.04651665166516652</v>
+      </c>
+      <c r="R11">
+        <v>-0.04651665166516652</v>
+      </c>
+      <c r="T11">
+        <v>-0.04566456645664566</v>
+      </c>
+      <c r="U11">
+        <v>-0.04566456645664566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>-0.2388859039234361</v>
+        <v>-0.1995919591959196</v>
       </c>
       <c r="E12">
-        <v>0.01601078608043144</v>
+        <v>-0.06997899789978997</v>
       </c>
       <c r="F12">
-        <v>0.01489354275419699</v>
+        <v>0.169608671530603</v>
       </c>
       <c r="G12">
-        <v>0.01883324501001958</v>
+        <v>0.03236132070823341</v>
       </c>
       <c r="H12">
-        <v>0.01639758795190352</v>
+        <v>0.02184218421842184</v>
       </c>
       <c r="I12">
-        <v>0.01842309193692368</v>
+        <v>0.04852085208520851</v>
       </c>
       <c r="J12">
-        <v>-0.006226775151945366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-0.02343834383438344</v>
+      </c>
+      <c r="Q12">
+        <v>-0.1386618661866186</v>
+      </c>
+      <c r="R12">
+        <v>-0.1386618661866186</v>
+      </c>
+      <c r="T12">
+        <v>-0.002448244824482448</v>
+      </c>
+      <c r="U12">
+        <v>-0.002448244824482448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.0200064125122565</v>
+        <v>0.1083348334833483</v>
       </c>
       <c r="E13">
-        <v>-0.02382977596119103</v>
+        <v>-0.0896009600960096</v>
       </c>
       <c r="F13">
-        <v>-0.002878811245982867</v>
+        <v>0.2262164735387502</v>
       </c>
       <c r="G13">
-        <v>-0.007881725054030524</v>
+        <v>-0.1632617205258182</v>
       </c>
       <c r="H13">
-        <v>-0.004128496485139859</v>
+        <v>0.03393939393939394</v>
       </c>
       <c r="I13">
-        <v>-0.004888350915534036</v>
+        <v>0.008148814881488147</v>
       </c>
       <c r="J13">
-        <v>0.0063706987418612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-0.006048604860486049</v>
+      </c>
+      <c r="Q13">
+        <v>-0.1428502850285028</v>
+      </c>
+      <c r="R13">
+        <v>-0.1428502850285028</v>
+      </c>
+      <c r="T13">
+        <v>-0.2036363636363636</v>
+      </c>
+      <c r="U13">
+        <v>-0.2036363636363636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>-0.002572260678890427</v>
+        <v>0.001308130813081308</v>
       </c>
       <c r="E14">
-        <v>-0.005346286485851459</v>
+        <v>0.07521152115211521</v>
       </c>
       <c r="F14">
-        <v>-0.01001226638335021</v>
+        <v>-0.07647705840864165</v>
       </c>
       <c r="G14">
-        <v>0.01313287194718998</v>
+        <v>0.01595217091024586</v>
       </c>
       <c r="H14">
-        <v>-0.002019762320790492</v>
+        <v>0.138001800180018</v>
       </c>
       <c r="I14">
-        <v>-0.009953175374127014</v>
+        <v>0.1162676267626763</v>
       </c>
       <c r="J14">
-        <v>-0.0331158186411926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>-0.06372637263726372</v>
+      </c>
+      <c r="Q14">
+        <v>0.176993699369937</v>
+      </c>
+      <c r="R14">
+        <v>0.176993699369937</v>
+      </c>
+      <c r="T14">
+        <v>0.08080408040804078</v>
+      </c>
+      <c r="U14">
+        <v>0.08080408040804078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-0.01434580646183226</v>
+        <v>0.04385238523852385</v>
       </c>
       <c r="E15">
-        <v>0.008832526721301068</v>
+        <v>0.1221962196219622</v>
       </c>
       <c r="F15">
-        <v>0.0001921613860881344</v>
+        <v>-0.2086461393664122</v>
       </c>
       <c r="G15">
-        <v>0.01524839371894652</v>
+        <v>0.1396130630851861</v>
       </c>
       <c r="H15">
-        <v>-0.01686157065846283</v>
+        <v>-0.1063066306630663</v>
       </c>
       <c r="I15">
-        <v>-0.007891357275654291</v>
+        <v>-0.04128412841284127</v>
       </c>
       <c r="J15">
-        <v>0.01236160754811152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>-0.05000900090009001</v>
+      </c>
+      <c r="Q15">
+        <v>-0.2284788478847884</v>
+      </c>
+      <c r="R15">
+        <v>-0.2284788478847884</v>
+      </c>
+      <c r="T15">
+        <v>-0.04529252925292529</v>
+      </c>
+      <c r="U15">
+        <v>-0.04529252925292529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>-0.05627082685883306</v>
+        <v>0.04328832883288328</v>
       </c>
       <c r="E16">
-        <v>0.013654700130188</v>
+        <v>-0.09160516051605158</v>
       </c>
       <c r="F16">
-        <v>0.01229005653408488</v>
+        <v>0.07143711352383728</v>
       </c>
       <c r="G16">
-        <v>0.005675569526619034</v>
+        <v>0.003986539507535999</v>
       </c>
       <c r="H16">
-        <v>0.006698173803926952</v>
+        <v>0.215961596159616</v>
       </c>
       <c r="I16">
-        <v>0.008303432108137283</v>
+        <v>0.2248784878487848</v>
       </c>
       <c r="J16">
-        <v>0.002237858971984955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.06258625862586258</v>
+      </c>
+      <c r="Q16">
+        <v>0.08872487248724871</v>
+      </c>
+      <c r="R16">
+        <v>0.08872487248724871</v>
+      </c>
+      <c r="T16">
+        <v>0.08867686768676866</v>
+      </c>
+      <c r="U16">
+        <v>0.08867686768676866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.001289074227562969</v>
+        <v>0.1644404440444044</v>
       </c>
       <c r="E17">
-        <v>-0.00458121877524875</v>
+        <v>-0.06315031503150315</v>
       </c>
       <c r="F17">
-        <v>0.01318370625994075</v>
+        <v>0.05029208160112424</v>
       </c>
       <c r="G17">
-        <v>-0.01760767637673513</v>
+        <v>-0.1403406215775117</v>
       </c>
       <c r="H17">
-        <v>0.009296428595857142</v>
+        <v>0.1245604560456045</v>
       </c>
       <c r="I17">
-        <v>0.005896042603841703</v>
+        <v>0.09747374737473745</v>
       </c>
       <c r="J17">
-        <v>-0.02390193448646511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-0.02472247224722472</v>
+      </c>
+      <c r="Q17">
+        <v>0.0246024602460246</v>
+      </c>
+      <c r="R17">
+        <v>0.0246024602460246</v>
+      </c>
+      <c r="T17">
+        <v>-0.06706270627062705</v>
+      </c>
+      <c r="U17">
+        <v>-0.06706270627062705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>-0.04492750893310034</v>
+        <v>-0.2145094509450945</v>
       </c>
       <c r="E18">
-        <v>-0.006340276573611062</v>
+        <v>0.09203720372037202</v>
       </c>
       <c r="F18">
-        <v>-0.004984542479193415</v>
+        <v>0.02302080088359888</v>
       </c>
       <c r="G18">
-        <v>-0.007954747433736342</v>
+        <v>-0.007828769892627258</v>
       </c>
       <c r="H18">
-        <v>0.1902669914186796</v>
+        <v>0.2108730873087308</v>
       </c>
       <c r="I18">
-        <v>-0.0002331010653240426</v>
+        <v>0.01243324332433243</v>
       </c>
       <c r="J18">
-        <v>0.03090320431024531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-0.08265226522652264</v>
+      </c>
+      <c r="Q18">
+        <v>-0.08680468046804679</v>
+      </c>
+      <c r="R18">
+        <v>-0.08680468046804679</v>
+      </c>
+      <c r="T18">
+        <v>-0.08267626762676265</v>
+      </c>
+      <c r="U18">
+        <v>-0.08267626762676265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.03044689331387573</v>
+        <v>-0.03635163516351635</v>
       </c>
       <c r="E19">
-        <v>0.3571017130360684</v>
+        <v>0.3906150615061506</v>
       </c>
       <c r="F19">
-        <v>-0.05116861486363893</v>
+        <v>-0.1038809692547145</v>
       </c>
       <c r="G19">
-        <v>0.118677254888616</v>
+        <v>0.1218630410244828</v>
       </c>
       <c r="H19">
-        <v>0.01155476868619074</v>
+        <v>-0.005508550855085508</v>
       </c>
       <c r="I19">
-        <v>0.002854861554194462</v>
+        <v>0.01947794779477947</v>
       </c>
       <c r="J19">
-        <v>0.003581154099199757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-0.05188118811881187</v>
+      </c>
+      <c r="Q19">
+        <v>0.04069606960696068</v>
+      </c>
+      <c r="R19">
+        <v>0.04069606960696068</v>
+      </c>
+      <c r="T19">
+        <v>0.08963696369636963</v>
+      </c>
+      <c r="U19">
+        <v>0.08963696369636963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>-0.01276281113451244</v>
+        <v>0.005292529252925292</v>
       </c>
       <c r="E20">
-        <v>0.01450455677218227</v>
+        <v>0.09476147614761475</v>
       </c>
       <c r="F20">
-        <v>-0.005050801179259876</v>
+        <v>-0.09102847822642267</v>
       </c>
       <c r="G20">
-        <v>0.007606996712695206</v>
+        <v>0.1098553194610599</v>
       </c>
       <c r="H20">
-        <v>-0.01020801957632078</v>
+        <v>0.06483048304830481</v>
       </c>
       <c r="I20">
-        <v>-0.002026378833055153</v>
+        <v>0.07039903990399039</v>
       </c>
       <c r="J20">
-        <v>0.0005211800374225842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-0.08627662766276625</v>
+      </c>
+      <c r="Q20">
+        <v>0.06185418541854185</v>
+      </c>
+      <c r="R20">
+        <v>0.06185418541854185</v>
+      </c>
+      <c r="T20">
+        <v>0.1044824482448245</v>
+      </c>
+      <c r="U20">
+        <v>0.1044824482448245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>0.008379448847177952</v>
+        <v>-0.09792979297929794</v>
       </c>
       <c r="E21">
-        <v>0.4155888853595553</v>
+        <v>0.343090309030903</v>
       </c>
       <c r="F21">
-        <v>-0.06483657500455793</v>
+        <v>-0.09090847953868922</v>
       </c>
       <c r="G21">
-        <v>0.1685872997165739</v>
+        <v>0.2327465629829615</v>
       </c>
       <c r="H21">
-        <v>0.00946509378660375</v>
+        <v>0.1426822682268227</v>
       </c>
       <c r="I21">
-        <v>0.003556671886266875</v>
+        <v>0.1648244824482448</v>
       </c>
       <c r="J21">
-        <v>0.05465869295069091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.04846084608460845</v>
+      </c>
+      <c r="Q21">
+        <v>0.00096009600960096</v>
+      </c>
+      <c r="R21">
+        <v>0.00096009600960096</v>
+      </c>
+      <c r="T21">
+        <v>0.1324332433243324</v>
+      </c>
+      <c r="U21">
+        <v>0.1324332433243324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>-0.02589562029982481</v>
+        <v>0.02243024302430243</v>
       </c>
       <c r="E22">
-        <v>-0.03462052909682116</v>
+        <v>0.1610561056105611</v>
       </c>
       <c r="F22">
-        <v>0.01830435778374571</v>
+        <v>0.0411153398497198</v>
       </c>
       <c r="G22">
-        <v>-0.03309023321492195</v>
+        <v>0.1018521760454786</v>
       </c>
       <c r="H22">
-        <v>-0.005178521295140851</v>
+        <v>-0.07417941794179418</v>
       </c>
       <c r="I22">
-        <v>-0.01086898229075929</v>
+        <v>-0.01126912691269127</v>
       </c>
       <c r="J22">
-        <v>0.005157216067982208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.06713471347134713</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1342694269426943</v>
+      </c>
+      <c r="R22">
+        <v>-0.1342694269426943</v>
+      </c>
+      <c r="T22">
+        <v>-0.009108910891089108</v>
+      </c>
+      <c r="U22">
+        <v>-0.009108910891089108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>0.04684719489788779</v>
+        <v>0.1768976897689769</v>
       </c>
       <c r="E23">
-        <v>0.530986279607451</v>
+        <v>0.5375817581758174</v>
       </c>
       <c r="F23">
-        <v>-0.02260600933485481</v>
+        <v>-0.3787032270459139</v>
       </c>
       <c r="G23">
-        <v>0.09043293983263595</v>
+        <v>0.3025861653661148</v>
       </c>
       <c r="H23">
-        <v>-0.01206559238662369</v>
+        <v>-0.009888988898889886</v>
       </c>
       <c r="I23">
-        <v>-0.01179273109570924</v>
+        <v>0.03677167716771677</v>
       </c>
       <c r="J23">
-        <v>0.02493312030485097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-0.1675247524752475</v>
+      </c>
+      <c r="Q23">
+        <v>0.05292529252925291</v>
+      </c>
+      <c r="R23">
+        <v>0.05292529252925291</v>
+      </c>
+      <c r="T23">
+        <v>0.1988358835883588</v>
+      </c>
+      <c r="U23">
+        <v>0.1988358835883588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>0.03585998706639947</v>
+        <v>0.01896189618961896</v>
       </c>
       <c r="E24">
-        <v>0.600236603817464</v>
+        <v>0.4883888388838884</v>
       </c>
       <c r="F24">
-        <v>-0.07624419358655939</v>
+        <v>-0.106501993223629</v>
       </c>
       <c r="G24">
-        <v>0.1799454511044358</v>
+        <v>0.1569181320183514</v>
       </c>
       <c r="H24">
-        <v>0.03168254229130169</v>
+        <v>-0.09662166216621662</v>
       </c>
       <c r="I24">
-        <v>0.01310582932423317</v>
+        <v>-0.1768616861686169</v>
       </c>
       <c r="J24">
-        <v>-0.01151998736951756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.06058205820582058</v>
+      </c>
+      <c r="Q24">
+        <v>-0.08926492649264925</v>
+      </c>
+      <c r="R24">
+        <v>-0.08926492649264925</v>
+      </c>
+      <c r="T24">
+        <v>0.0531053105310531</v>
+      </c>
+      <c r="U24">
+        <v>0.0531053105310531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>-0.01669407983576319</v>
+        <v>0.04842484248424842</v>
       </c>
       <c r="E25">
-        <v>-0.01503483170539327</v>
+        <v>0.1674287428742874</v>
       </c>
       <c r="F25">
-        <v>-0.3506788270946772</v>
+        <v>-0.4276121658779</v>
       </c>
       <c r="G25">
-        <v>0.9015917896380568</v>
+        <v>0.9139517626032645</v>
       </c>
       <c r="H25">
-        <v>-0.1307239616129584</v>
+        <v>-0.1681848184818482</v>
       </c>
       <c r="I25">
-        <v>0.01985164889006595</v>
+        <v>-0.03613561356135613</v>
       </c>
       <c r="J25">
-        <v>-0.2221356747946648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>-0.254065406540654</v>
+      </c>
+      <c r="Q25">
+        <v>0.1104110411041104</v>
+      </c>
+      <c r="R25">
+        <v>0.1104110411041104</v>
+      </c>
+      <c r="T25">
+        <v>0.7809300930093008</v>
+      </c>
+      <c r="U25">
+        <v>0.7809300930093008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.05769740928389636</v>
+        <v>0.1239003900390039</v>
       </c>
       <c r="E26">
-        <v>0.02785680236227209</v>
+        <v>-0.1103870387038704</v>
       </c>
       <c r="F26">
-        <v>-0.01300059143470042</v>
+        <v>0.01320617137108512</v>
       </c>
       <c r="G26">
-        <v>0.003855085721949493</v>
+        <v>-0.09211131028045851</v>
       </c>
       <c r="H26">
-        <v>-0.08704065938562637</v>
+        <v>-0.07608760876087609</v>
       </c>
       <c r="I26">
-        <v>0.01161479844859194</v>
+        <v>0.03127512751275127</v>
       </c>
       <c r="J26">
-        <v>-0.006366824373701949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0.1418181818181818</v>
+      </c>
+      <c r="Q26">
+        <v>-0.02094209420942094</v>
+      </c>
+      <c r="R26">
+        <v>-0.02094209420942094</v>
+      </c>
+      <c r="T26">
+        <v>-0.07313531353135314</v>
+      </c>
+      <c r="U26">
+        <v>-0.07313531353135314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>0.02017112797484511</v>
+        <v>-0.0971017101710171</v>
       </c>
       <c r="E27">
-        <v>-0.02410524298020972</v>
+        <v>0.1147314731473147</v>
       </c>
       <c r="F27">
-        <v>0.006806049980859297</v>
+        <v>0.007642021692497844</v>
       </c>
       <c r="G27">
-        <v>-0.01618088564305275</v>
+        <v>0.06056774126607862</v>
       </c>
       <c r="H27">
-        <v>-0.02181041933641677</v>
+        <v>-0.1305610561056106</v>
       </c>
       <c r="I27">
-        <v>-0.0217181802287272</v>
+        <v>-0.1595679567956796</v>
       </c>
       <c r="J27">
-        <v>0.01207420921629829</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.1802340234023402</v>
+      </c>
+      <c r="Q27">
+        <v>-0.04388838883888389</v>
+      </c>
+      <c r="R27">
+        <v>-0.04388838883888389</v>
+      </c>
+      <c r="T27">
+        <v>0.03253525352535253</v>
+      </c>
+      <c r="U27">
+        <v>0.03253525352535253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>-0.01401363886454555</v>
+        <v>0.2003720372037203</v>
       </c>
       <c r="E28">
-        <v>-0.002221981144879245</v>
+        <v>-0.0057005700570057</v>
       </c>
       <c r="F28">
-        <v>0.02037795044493787</v>
+        <v>0.01308617268335168</v>
       </c>
       <c r="G28">
-        <v>-0.03995346561095598</v>
+        <v>-0.07828168604617072</v>
       </c>
       <c r="H28">
-        <v>0.01648287425931497</v>
+        <v>0.07667566756675666</v>
       </c>
       <c r="I28">
-        <v>0.008258797386351895</v>
+        <v>0.07170717071707169</v>
       </c>
       <c r="J28">
-        <v>-0.00766196090693724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.01123312331233123</v>
+      </c>
+      <c r="Q28">
+        <v>0.01011701170117012</v>
+      </c>
+      <c r="R28">
+        <v>0.01011701170117012</v>
+      </c>
+      <c r="T28">
+        <v>-0.06089408940894089</v>
+      </c>
+      <c r="U28">
+        <v>-0.06089408940894089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.01283387302535492</v>
+        <v>-0.02361836183618362</v>
       </c>
       <c r="E29">
-        <v>0.001012742728509709</v>
+        <v>0.01628562856285628</v>
       </c>
       <c r="F29">
-        <v>0.01537665315589718</v>
+        <v>-0.1274196592116893</v>
       </c>
       <c r="G29">
-        <v>-0.003726216065435359</v>
+        <v>0.06833638235768724</v>
       </c>
       <c r="H29">
-        <v>-0.007788944567557782</v>
+        <v>-0.04523252325232523</v>
       </c>
       <c r="I29">
-        <v>-0.008030665089226603</v>
+        <v>-0.09708970897089708</v>
       </c>
       <c r="J29">
-        <v>0.007171423158774177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>-0.1485028502850285</v>
+      </c>
+      <c r="Q29">
+        <v>-0.01153315331533153</v>
+      </c>
+      <c r="R29">
+        <v>-0.01153315331533153</v>
+      </c>
+      <c r="T29">
+        <v>0.04762076207620761</v>
+      </c>
+      <c r="U29">
+        <v>0.04762076207620761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.004112326724493068</v>
+        <v>-0.001488148814881488</v>
       </c>
       <c r="E30">
-        <v>0.001866030602641224</v>
+        <v>-0.0192019201920192</v>
       </c>
       <c r="F30">
-        <v>-0.003221809832199613</v>
+        <v>-0.1604066668975704</v>
       </c>
       <c r="G30">
-        <v>-0.0001526335111652113</v>
+        <v>0.08192549138790045</v>
       </c>
       <c r="H30">
-        <v>0.002377240895089636</v>
+        <v>0.01669366936693669</v>
       </c>
       <c r="I30">
-        <v>0.003067178618687144</v>
+        <v>0.04447644764476447</v>
       </c>
       <c r="J30">
-        <v>0.01168909440046854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-0.1237083708370837</v>
+      </c>
+      <c r="Q30">
+        <v>0.07161116111611161</v>
+      </c>
+      <c r="R30">
+        <v>0.07161116111611161</v>
+      </c>
+      <c r="T30">
+        <v>0.08694869486948695</v>
+      </c>
+      <c r="U30">
+        <v>0.08694869486948695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>-0.004791311327652452</v>
+        <v>-0.04124812481248125</v>
       </c>
       <c r="E31">
-        <v>0.007687830259513209</v>
+        <v>-0.08086408640864086</v>
       </c>
       <c r="F31">
-        <v>0.002703880575492396</v>
+        <v>0.1046388557035572</v>
       </c>
       <c r="G31">
-        <v>-0.004093680406326086</v>
+        <v>-0.104846590336207</v>
       </c>
       <c r="H31">
-        <v>0.02136767778270711</v>
+        <v>0.08496849684968495</v>
       </c>
       <c r="I31">
-        <v>0.01505415967416639</v>
+        <v>0.1172757275727573</v>
       </c>
       <c r="J31">
-        <v>-0.02187122629099488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0.2202460246024602</v>
+      </c>
+      <c r="Q31">
+        <v>0.1255685568556855</v>
+      </c>
+      <c r="R31">
+        <v>0.1255685568556855</v>
+      </c>
+      <c r="T31">
+        <v>-0.01578157815781578</v>
+      </c>
+      <c r="U31">
+        <v>-0.01578157815781578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.01083578212943128</v>
+        <v>-0.07287128712871287</v>
       </c>
       <c r="E32">
-        <v>0.0002600836904033476</v>
+        <v>0.02120612061206121</v>
       </c>
       <c r="F32">
-        <v>-0.009232810499439876</v>
+        <v>0.1136387572835651</v>
       </c>
       <c r="G32">
-        <v>-0.01003671814463877</v>
+        <v>0.0006373652907976108</v>
       </c>
       <c r="H32">
-        <v>0.0007604954224198168</v>
+        <v>7.2007200720072E-05</v>
       </c>
       <c r="I32">
-        <v>0.00375449650217986</v>
+        <v>0.04094809480948094</v>
       </c>
       <c r="J32">
-        <v>0.002232630619770049</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.03176717671767176</v>
+      </c>
+      <c r="Q32">
+        <v>-0.01866186618661866</v>
+      </c>
+      <c r="R32">
+        <v>-0.01866186618661866</v>
+      </c>
+      <c r="T32">
+        <v>-0.02807080708070807</v>
+      </c>
+      <c r="U32">
+        <v>-0.02807080708070807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>0.005536607165464286</v>
+        <v>-0.06343834383438343</v>
       </c>
       <c r="E33">
-        <v>0.003248407809936312</v>
+        <v>-0.01297329732973297</v>
       </c>
       <c r="F33">
-        <v>-0.0005017932627951455</v>
+        <v>0.08243278275246435</v>
       </c>
       <c r="G33">
-        <v>-0.01052812142977554</v>
+        <v>0.004678020719250389</v>
       </c>
       <c r="H33">
-        <v>-0.003630658225226328</v>
+        <v>-0.2654305430543054</v>
       </c>
       <c r="I33">
-        <v>-0.00460812575232503</v>
+        <v>-0.1809780978097809</v>
       </c>
       <c r="J33">
-        <v>0.007454009538389606</v>
+        <v>0.1413741374137414</v>
+      </c>
+      <c r="Q33">
+        <v>-0.24999699969997</v>
+      </c>
+      <c r="R33">
+        <v>-0.24999699969997</v>
+      </c>
+      <c r="T33">
+        <v>-0.1214881488148815</v>
+      </c>
+      <c r="U33">
+        <v>-0.1214881488148815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>0.140990099009901</v>
+      </c>
+      <c r="E34">
+        <v>0.06618661866186618</v>
+      </c>
+      <c r="F34">
+        <v>-0.009707262265594367</v>
+      </c>
+      <c r="G34">
+        <v>0.07303244171724323</v>
+      </c>
+      <c r="H34">
+        <v>0.2293909390939094</v>
+      </c>
+      <c r="I34">
+        <v>0.2303030303030303</v>
+      </c>
+      <c r="J34">
+        <v>-0.01646564656465646</v>
+      </c>
+      <c r="Q34">
+        <v>0.9535553555355534</v>
+      </c>
+      <c r="R34">
+        <v>0.9535553555355534</v>
+      </c>
+      <c r="T34">
+        <v>0.5459465946594658</v>
+      </c>
+      <c r="U34">
+        <v>0.5459465946594658</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -716,10 +716,10 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.04678067806780677</v>
+        <v>-0.04775277527752775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03953640974796405</v>
+        <v>0.1504793935334936</v>
       </c>
       <c r="G4" t="n">
         <v>0.003852385238523852</v>
@@ -766,10 +766,10 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.106978697869787</v>
+        <v>-0.1068946894689469</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2552056302069858</v>
+        <v>-0.1958707782888</v>
       </c>
       <c r="G5" t="n">
         <v>-0.1305850585058506</v>
@@ -816,10 +816,10 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.06888688868886889</v>
+        <v>-0.069006900690069</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1529983268601324</v>
+        <v>0.0686763731707913</v>
       </c>
       <c r="G6" t="n">
         <v>0.266006600660066</v>
@@ -870,10 +870,10 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.07161116111611161</v>
+        <v>-0.07122712271227123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1065146246644431</v>
+        <v>0.07346557271634362</v>
       </c>
       <c r="G7" t="n">
         <v>0.00348034803480348</v>
@@ -924,10 +924,10 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.1465106510651065</v>
+        <v>-0.1457065706570657</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1709286570956708</v>
+        <v>0.102462679339805</v>
       </c>
       <c r="G8" t="n">
         <v>0.08844884488448844</v>
@@ -978,10 +978,10 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.1004260426042604</v>
+        <v>0.1011821182118212</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04561844849992721</v>
+        <v>-0.05912915376422802</v>
       </c>
       <c r="G9" t="n">
         <v>0.04116411641164116</v>
@@ -1032,10 +1032,10 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.1726732673267327</v>
+        <v>0.1719651965196519</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05478887453092463</v>
+        <v>0.07548601627462351</v>
       </c>
       <c r="G10" t="n">
         <v>-0.02648664866486648</v>
@@ -1082,10 +1082,10 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.03701170117011701</v>
+        <v>-0.03737173717371737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1252470513916733</v>
+        <v>-0.02027926682569811</v>
       </c>
       <c r="G11" t="n">
         <v>-0.02641464146414641</v>
@@ -1132,10 +1132,10 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.08139213921392137</v>
+        <v>-0.08195619561956194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01316196132823596</v>
+        <v>-0.07302905713276464</v>
       </c>
       <c r="G12" t="n">
         <v>-0.07680768076807679</v>
@@ -1186,10 +1186,10 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.004932493249324933</v>
+        <v>-0.004968496849684968</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07622442959236073</v>
+        <v>-0.06212240348019821</v>
       </c>
       <c r="G13" t="n">
         <v>-0.05365736573657365</v>
@@ -1240,10 +1240,10 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.08324032403240322</v>
+        <v>-0.08415241524152414</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1517225513379138</v>
+        <v>0.05662854306401124</v>
       </c>
       <c r="G14" t="n">
         <v>0.0594059405940594</v>
@@ -1294,10 +1294,10 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.0527092709270927</v>
+        <v>0.05249324932493248</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009858839555362918</v>
+        <v>-0.08649868085463053</v>
       </c>
       <c r="G15" t="n">
         <v>0.03572757275727572</v>
@@ -1348,10 +1348,10 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1454185418541854</v>
+        <v>-0.1452145214521452</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1675244837962854</v>
+        <v>0.07412658202862039</v>
       </c>
       <c r="G16" t="n">
         <v>-0.145034503450345</v>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.01122112211221122</v>
+        <v>0.01056105610561056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1023273020345868</v>
+        <v>0.13242012024714</v>
       </c>
       <c r="G17" t="n">
         <v>-0.02907890789078908</v>
@@ -1452,10 +1452,10 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.09314131413141315</v>
+        <v>-0.09276927692769275</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01100830066944111</v>
+        <v>-0.114073993863006</v>
       </c>
       <c r="G18" t="n">
         <v>-0.09393339333933393</v>
@@ -1506,10 +1506,10 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.4362436243624362</v>
+        <v>0.4360876087608761</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05921619453624775</v>
+        <v>0.04221729286899638</v>
       </c>
       <c r="G19" t="n">
         <v>0.2731473147314731</v>
@@ -1556,10 +1556,10 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.09993399339933992</v>
+        <v>0.0999099909990999</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0359806591588101</v>
+        <v>-0.01784725143147232</v>
       </c>
       <c r="G20" t="n">
         <v>0.01390939093909391</v>
@@ -1606,10 +1606,10 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.447092709270927</v>
+        <v>0.4471047104710471</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01316827704864298</v>
+        <v>0.006011443179573488</v>
       </c>
       <c r="G21" t="n">
         <v>0.2335673567356736</v>
@@ -1656,10 +1656,10 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.02621062106210621</v>
+        <v>-0.02547854785478548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03330910942663937</v>
+        <v>-0.05240057784020333</v>
       </c>
       <c r="G22" t="n">
         <v>0.08106810681068106</v>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.4798319831983198</v>
+        <v>0.4794239423942394</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04724790436493914</v>
+        <v>0.04380122084369728</v>
       </c>
       <c r="G23" t="n">
         <v>0.2166576657665766</v>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.5952235223522352</v>
+        <v>0.5956195619561956</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.07059080698929621</v>
+        <v>0.0221251041505464</v>
       </c>
       <c r="G24" t="n">
         <v>0.0991059105910591</v>
@@ -1814,10 +1814,10 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.09526552655265526</v>
+        <v>0.0958175817581758</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1329901246106835</v>
+        <v>0.1731844398165092</v>
       </c>
       <c r="G25" t="n">
         <v>0.9113951395139512</v>
@@ -1864,10 +1864,10 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.1135313531353135</v>
+        <v>0.113987398739874</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.02935546845184296</v>
+        <v>-0.03755904799851775</v>
       </c>
       <c r="G26" t="n">
         <v>0.1216081608160816</v>
@@ -1918,10 +1918,10 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.1018061806180618</v>
+        <v>-0.1024902490249025</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07138027204017408</v>
+        <v>0.009285310056415896</v>
       </c>
       <c r="G27" t="n">
         <v>0.04308430843084307</v>
@@ -1972,10 +1972,10 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.02502250225022502</v>
+        <v>0.0257065706570657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09276530133835399</v>
+        <v>0.05297428403576429</v>
       </c>
       <c r="G28" t="n">
         <v>-0.179021902190219</v>
@@ -2026,10 +2026,10 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.07799579957995798</v>
+        <v>0.07840384038403839</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1859284930623504</v>
+        <v>-0.2167112794362426</v>
       </c>
       <c r="G29" t="n">
         <v>-0.02168616861686168</v>
@@ -2080,10 +2080,10 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.01542154215421542</v>
+        <v>-0.01545754575457545</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03708591023003912</v>
+        <v>0.09877724062701664</v>
       </c>
       <c r="G30" t="n">
         <v>-0.01944194419441944</v>
@@ -2134,10 +2134,10 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.03336333633363336</v>
+        <v>-0.03396339633963396</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02781443267252934</v>
+        <v>-0.06486621571983757</v>
       </c>
       <c r="G31" t="n">
         <v>0.06465046504650464</v>
@@ -2188,10 +2188,10 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.05922592259225921</v>
+        <v>-0.05942994299429943</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.09157794590183366</v>
+        <v>-0.06449205950534129</v>
       </c>
       <c r="G32" t="n">
         <v>-0.06055805580558055</v>
@@ -2242,10 +2242,10 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.04043204320432043</v>
+        <v>-0.0393039303930393</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03964377699488344</v>
+        <v>0.1006916732578559</v>
       </c>
       <c r="G33" t="n">
         <v>0.01948994899489949</v>
@@ -2296,10 +2296,10 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.2016441644164416</v>
+        <v>-0.2019081908190819</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3335521418561063</v>
+        <v>0.2960136890987281</v>
       </c>
       <c r="G34" t="n">
         <v>-0.1218841884188419</v>
@@ -2350,10 +2350,10 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.03447944794479448</v>
+        <v>0.03368736873687368</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0297533588374854</v>
+        <v>0.00846840232143236</v>
       </c>
       <c r="G35" t="n">
         <v>0.06737473747374736</v>
@@ -2404,10 +2404,10 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.1068826882688269</v>
+        <v>0.1065226522652265</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01743138832338351</v>
+        <v>0.002575441943116027</v>
       </c>
       <c r="G36" t="n">
         <v>-0.04458445844584458</v>
@@ -2458,10 +2458,10 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.0769036903690369</v>
+        <v>0.07654365436543654</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03137649898209032</v>
+        <v>0.1156267421531656</v>
       </c>
       <c r="G37" t="n">
         <v>0.2162256225622562</v>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -614,22 +614,22 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP derivative [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP derivative [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
     </row>
@@ -716,10 +716,10 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.04775277527752775</v>
+        <v>-0.04678067806780677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1504793935334936</v>
+        <v>-0.006416874252332421</v>
       </c>
       <c r="G4" t="n">
         <v>0.003852385238523852</v>
@@ -766,10 +766,10 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.1068946894689469</v>
+        <v>-0.106978697869787</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1958707782888</v>
+        <v>-0.3280361155310287</v>
       </c>
       <c r="G5" t="n">
         <v>-0.1305850585058506</v>
@@ -816,10 +816,10 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.069006900690069</v>
+        <v>-0.06888688868886889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0686763731707913</v>
+        <v>0.1512531061582917</v>
       </c>
       <c r="G6" t="n">
         <v>0.266006600660066</v>
@@ -870,10 +870,10 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.07122712271227123</v>
+        <v>-0.07161116111611161</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07346557271634362</v>
+        <v>0.05652603264384057</v>
       </c>
       <c r="G7" t="n">
         <v>0.00348034803480348</v>
@@ -924,10 +924,10 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.1457065706570657</v>
+        <v>-0.1465106510651065</v>
       </c>
       <c r="F8" t="n">
-        <v>0.102462679339805</v>
+        <v>0.2160222579683838</v>
       </c>
       <c r="G8" t="n">
         <v>0.08844884488448844</v>
@@ -978,10 +978,10 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.1011821182118212</v>
+        <v>0.1004260426042604</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05912915376422802</v>
+        <v>0.05551284197241966</v>
       </c>
       <c r="G9" t="n">
         <v>0.04116411641164116</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWh]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1032,10 +1032,10 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.1719651965196519</v>
+        <v>0.1726732673267327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07548601627462351</v>
+        <v>-0.09496473552379676</v>
       </c>
       <c r="G10" t="n">
         <v>-0.02648664866486648</v>
@@ -1082,10 +1082,10 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.03737173717371737</v>
+        <v>-0.03701170117011701</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02027926682569811</v>
+        <v>0.07476346472941692</v>
       </c>
       <c r="G11" t="n">
         <v>-0.02641464146414641</v>
@@ -1132,10 +1132,10 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.08195619561956194</v>
+        <v>-0.08139213921392137</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07302905713276464</v>
+        <v>0.01162042140432129</v>
       </c>
       <c r="G12" t="n">
         <v>-0.07680768076807679</v>
@@ -1186,10 +1186,10 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.004968496849684968</v>
+        <v>-0.004932493249324933</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06212240348019821</v>
+        <v>0.04564361432117155</v>
       </c>
       <c r="G13" t="n">
         <v>-0.05365736573657365</v>
@@ -1240,10 +1240,10 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.08415241524152414</v>
+        <v>-0.08324032403240322</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05662854306401124</v>
+        <v>0.08025470799798209</v>
       </c>
       <c r="G14" t="n">
         <v>0.0594059405940594</v>
@@ -1294,10 +1294,10 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.05249324932493248</v>
+        <v>0.0527092709270927</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08649868085463053</v>
+        <v>-0.08025470799798209</v>
       </c>
       <c r="G15" t="n">
         <v>0.03572757275727572</v>
@@ -1348,10 +1348,10 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1452145214521452</v>
+        <v>-0.1454185418541854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07412658202862039</v>
+        <v>0.06752102770777858</v>
       </c>
       <c r="G16" t="n">
         <v>-0.145034503450345</v>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.01056105610561056</v>
+        <v>0.01122112211221122</v>
       </c>
       <c r="F17" t="n">
-        <v>0.13242012024714</v>
+        <v>0.1800852604499608</v>
       </c>
       <c r="G17" t="n">
         <v>-0.02907890789078908</v>
@@ -1452,10 +1452,10 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.09276927692769275</v>
+        <v>-0.09314131413141315</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.114073993863006</v>
+        <v>0.01377188801523976</v>
       </c>
       <c r="G18" t="n">
         <v>-0.09393339333933393</v>
@@ -1506,10 +1506,10 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.4360876087608761</v>
+        <v>0.4362436243624362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04221729286899638</v>
+        <v>0.1161917055164052</v>
       </c>
       <c r="G19" t="n">
         <v>0.2731473147314731</v>
@@ -1556,10 +1556,10 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.0999099909990999</v>
+        <v>0.09993399339933992</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01784725143147232</v>
+        <v>-0.2057902830397134</v>
       </c>
       <c r="G20" t="n">
         <v>0.01390939093909391</v>
@@ -1606,10 +1606,10 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.4471047104710471</v>
+        <v>0.447092709270927</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006011443179573488</v>
+        <v>-0.01661132360057984</v>
       </c>
       <c r="G21" t="n">
         <v>0.2335673567356736</v>
@@ -1656,10 +1656,10 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.02547854785478548</v>
+        <v>-0.02621062106210621</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05240057784020333</v>
+        <v>-0.06276778752086568</v>
       </c>
       <c r="G22" t="n">
         <v>0.08106810681068106</v>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.4794239423942394</v>
+        <v>0.4798319831983198</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04380122084369728</v>
+        <v>-0.05813963260202943</v>
       </c>
       <c r="G23" t="n">
         <v>0.2166576657665766</v>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.5956195619561956</v>
+        <v>0.5952235223522352</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0221251041505464</v>
+        <v>-0.02634295745694362</v>
       </c>
       <c r="G24" t="n">
         <v>0.0991059105910591</v>
@@ -1814,10 +1814,10 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.0958175817581758</v>
+        <v>0.09526552655265526</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1731844398165092</v>
+        <v>0.002614282102802097</v>
       </c>
       <c r="G25" t="n">
         <v>0.9113951395139512</v>
@@ -1864,10 +1864,10 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.113987398739874</v>
+        <v>0.1135313531353135</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.03755904799851775</v>
+        <v>-0.1243347564681955</v>
       </c>
       <c r="G26" t="n">
         <v>0.1216081608160816</v>
@@ -1918,10 +1918,10 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.1024902490249025</v>
+        <v>-0.1018061806180618</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009285310056415896</v>
+        <v>0.0262428892424823</v>
       </c>
       <c r="G27" t="n">
         <v>0.04308430843084307</v>
@@ -1972,10 +1972,10 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.0257065706570657</v>
+        <v>0.02502250225022502</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05297428403576429</v>
+        <v>-0.0303081604549736</v>
       </c>
       <c r="G28" t="n">
         <v>-0.179021902190219</v>
@@ -2026,10 +2026,10 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.07840384038403839</v>
+        <v>0.07799579957995798</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2167112794362426</v>
+        <v>-0.1503524922281398</v>
       </c>
       <c r="G29" t="n">
         <v>-0.02168616861686168</v>
@@ -2080,10 +2080,10 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.01545754575457545</v>
+        <v>-0.01542154215421542</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09877724062701664</v>
+        <v>0.05204798004669631</v>
       </c>
       <c r="G30" t="n">
         <v>-0.01944194419441944</v>
@@ -2134,10 +2134,10 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.03396339633963396</v>
+        <v>-0.03336333633363336</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.06486621571983757</v>
+        <v>-0.02993290465074363</v>
       </c>
       <c r="G31" t="n">
         <v>0.06465046504650464</v>
@@ -2188,10 +2188,10 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.05942994299429943</v>
+        <v>-0.05922592259225921</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.06449205950534129</v>
+        <v>-0.09727881298321488</v>
       </c>
       <c r="G32" t="n">
         <v>-0.06055805580558055</v>
@@ -2242,10 +2242,10 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.0393039303930393</v>
+        <v>-0.04043204320432043</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1006916732578559</v>
+        <v>0.04763247008359037</v>
       </c>
       <c r="G33" t="n">
         <v>0.01948994899489949</v>
@@ -2296,10 +2296,10 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.2019081908190819</v>
+        <v>-0.2016441644164416</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2960136890987281</v>
+        <v>0.1901045904229009</v>
       </c>
       <c r="G34" t="n">
         <v>-0.1218841884188419</v>
@@ -2350,10 +2350,10 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.03368736873687368</v>
+        <v>0.03447944794479448</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00846840232143236</v>
+        <v>-0.001576074377765858</v>
       </c>
       <c r="G35" t="n">
         <v>0.06737473747374736</v>
@@ -2404,10 +2404,10 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.1065226522652265</v>
+        <v>0.1068826882688269</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002575441943116027</v>
+        <v>-0.01317147872847181</v>
       </c>
       <c r="G36" t="n">
         <v>-0.04458445844584458</v>
@@ -2458,10 +2458,10 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.07654365436543654</v>
+        <v>0.0769036903690369</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1156267421531656</v>
+        <v>-0.09591538356117935</v>
       </c>
       <c r="G37" t="n">
         <v>0.2162256225622562</v>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2215901590159016</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.04678067806780677</v>
+        <v>0.09323308270676692</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006416874252332421</v>
+        <v>-0.009459381485717672</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003852385238523852</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08524452445244524</v>
+        <v>0.1729323308270676</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06405040504050405</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.07624362436243623</v>
+        <v>0.1022556390977443</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0039003900390039</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0039003900390039</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.09700570057005699</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.106978697869787</v>
+        <v>-0.281203007518797</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3280361155310287</v>
+        <v>0.04887347100954131</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1305850585058506</v>
+        <v>-0.3172932330827067</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1052985298529853</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1119111911191119</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1034143414341434</v>
+        <v>0.2180451127819548</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08189618961896189</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.08189618961896189</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.212985298529853</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.06888688868886889</v>
+        <v>0.1097744360902256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1512531061582917</v>
+        <v>-0.2222954649143653</v>
       </c>
       <c r="G6" t="n">
-        <v>0.266006600660066</v>
+        <v>-0.5398496240601504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.964116411641164</v>
+        <v>0.9729323308270676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9561716171617161</v>
+        <v>0.9368421052631578</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2503570357035703</v>
+        <v>0.5849624060150376</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2955295529552955</v>
+        <v>-0.3383458646616541</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2955295529552955</v>
+        <v>-0.3383458646616541</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8992979297929793</v>
+        <v>0.8586466165413533</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.07161116111611161</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05652603264384057</v>
+        <v>-0.1308547772190945</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00348034803480348</v>
+        <v>0.1218045112781955</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01831383138313831</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004668466846684667</v>
+        <v>-0.2947368421052631</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05144914491449144</v>
+        <v>-0.1954887218045113</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02239423942394239</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02239423942394239</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08493249324932492</v>
+        <v>0.1669172932330827</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.1465106510651065</v>
+        <v>0.05864661654135337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2160222579683838</v>
+        <v>0.2459439186286594</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08844884488448844</v>
+        <v>0.04962406015037594</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01221722172217222</v>
+        <v>-0.3142857142857143</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001404140414041404</v>
+        <v>-0.3849624060150376</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1059225922592259</v>
+        <v>-0.1473684210526316</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1515151515151515</v>
+        <v>-0.0150375939849624</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1515151515151515</v>
+        <v>-0.0150375939849624</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07089108910891088</v>
+        <v>-0.4165413533834587</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.1004260426042604</v>
+        <v>0.07518796992481201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05551284197241966</v>
+        <v>0.03626096236191775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04116411641164116</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001416141614161416</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04094809480948094</v>
+        <v>-0.3969924812030075</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.04166816681668166</v>
+        <v>-0.06015037593984961</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06505850585058506</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06505850585058506</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03351935193519352</v>
+        <v>0.156390977443609</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.1726732673267327</v>
+        <v>0.2977443609022556</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09496473552379676</v>
+        <v>0.1072063235048003</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02648664866486648</v>
+        <v>-0.09624060150375939</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06515451545154514</v>
+        <v>0.3518796992481203</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0417041704170417</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0542094209420942</v>
+        <v>0.1007518796992481</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02035403540354035</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02035403540354035</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1847464746474647</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.03701170117011701</v>
+        <v>-0.312781954887218</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07476346472941692</v>
+        <v>-0.09301725127622379</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02641464146414641</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02934293429342934</v>
+        <v>-0.3097744360902255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2451005100510051</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04182418241824182</v>
+        <v>-0.03308270676691729</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02669066906690669</v>
+        <v>-0.05112781954887217</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02669066906690669</v>
+        <v>-0.05112781954887217</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2848724872487248</v>
+        <v>-0.1684210526315789</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.08139213921392137</v>
+        <v>-0.2315789473684211</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01162042140432129</v>
+        <v>0.1198188321524239</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07680768076807679</v>
+        <v>0.3864661654135338</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.07675967596759675</v>
+        <v>-0.4586466165413533</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1068946894689469</v>
+        <v>-0.3714285714285714</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03265526552655265</v>
+        <v>-0.4150375939849624</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0326072607260726</v>
+        <v>0.4481203007518797</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0326072607260726</v>
+        <v>0.4481203007518797</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.006552655265526551</v>
+        <v>-0.4150375939849624</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.004932493249324933</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04564361432117155</v>
+        <v>0.07094536114288254</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05365736573657365</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01644164416441644</v>
+        <v>0.2827067669172932</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01854185418541854</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07272727272727272</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.09689768976897688</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.09689768976897688</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0225022502250225</v>
+        <v>0.01804511278195488</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.08324032403240322</v>
+        <v>0.1082706766917293</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08025470799798209</v>
+        <v>-0.08671099695241198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0594059405940594</v>
+        <v>-0.00150375939849624</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03641164116411641</v>
+        <v>0.281203007518797</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01683768376837684</v>
+        <v>0.1729323308270676</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1263966396639664</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1535673567356735</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1535673567356735</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.08831683168316831</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.0527092709270927</v>
+        <v>-0.2015037593984962</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08025470799798209</v>
+        <v>0.2475204822096125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03572757275727572</v>
+        <v>0.1699248120300751</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.04816081608160815</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04474047404740474</v>
+        <v>-0.01052631578947368</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.02425442544254425</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01242124212421242</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01242124212421242</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.07513951395139513</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1454185418541854</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06752102770777858</v>
+        <v>0.2222954649143653</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.145034503450345</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06388238823882388</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03991599159915991</v>
+        <v>-0.263157894736842</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1265886588658866</v>
+        <v>-0.1353383458646616</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.08547254725472547</v>
+        <v>0.03609022556390977</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08547254725472547</v>
+        <v>0.03609022556390977</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.08249624962496251</v>
+        <v>0.02105263157894736</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.01122112211221122</v>
+        <v>0.03458646616541353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1800852604499608</v>
+        <v>-0.4430143662477777</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02907890789078908</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04944494449444944</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0794119411941194</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05918991899189918</v>
+        <v>0.2436090225563909</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01438943894389439</v>
+        <v>-0.2676691729323308</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01438943894389439</v>
+        <v>-0.2676691729323308</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1005220522052205</v>
+        <v>0.06315789473684209</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.09314131413141315</v>
+        <v>-0.006015037593984962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01377188801523976</v>
+        <v>-0.1781516846476828</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09393339333933393</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="H18" t="n">
-        <v>0.177005700570057</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04709270927092709</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09789378937893789</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08772877287728773</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.08772877287728773</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.102982298229823</v>
+        <v>0.2090225563909774</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.4362436243624362</v>
+        <v>0.7488721804511278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1161917055164052</v>
+        <v>0.06936879756192961</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2731473147314731</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03051905190519052</v>
+        <v>0.04360902255639097</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001716171617161716</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1304050405040504</v>
+        <v>-0.01654135338345865</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1719171917191719</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1719171917191719</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.001344134413441344</v>
+        <v>-0.2451127819548872</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.09993399339933992</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2057902830397134</v>
+        <v>-0.06306254323811782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01390939093909391</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0208940894089409</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02013801380138014</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002136213621362136</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.05598559855985598</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.05598559855985598</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.08747674767476746</v>
+        <v>0.4932330827067669</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.447092709270927</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01661132360057984</v>
+        <v>-0.1623860488381534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2335673567356736</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06204620462046204</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1197239723972397</v>
+        <v>0.3398496240601503</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.08697269726972696</v>
+        <v>0.1308270676691729</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1334293429342934</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1334293429342934</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01945394539453945</v>
+        <v>-0.08120300751879699</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.02621062106210621</v>
+        <v>0.2646616541353383</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06276778752086568</v>
+        <v>0.04414378026668248</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08106810681068106</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1264446444644464</v>
+        <v>-0.1157894736842105</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1012901290129013</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08932493249324931</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09693369336933691</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09693369336933691</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.03727572757275727</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.4798319831983198</v>
+        <v>0.3804511278195489</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.05813963260202943</v>
+        <v>0.3216189705144009</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2166576657665766</v>
+        <v>0.01804511278195488</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.05879387938793879</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08976897689768974</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1675487548754875</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01120912091209121</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01120912091209121</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04493249324932493</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.5952235223522352</v>
+        <v>0.6090225563909774</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02634295745694362</v>
+        <v>-0.1813048118095887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0991059105910591</v>
+        <v>-0.02857142857142857</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.08024002400240023</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07839183918391837</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="J24" t="n">
-        <v>0.008652865286528652</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01554155415541554</v>
+        <v>-0.3338345864661654</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01554155415541554</v>
+        <v>-0.3338345864661654</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09183318331833183</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.09526552655265526</v>
+        <v>-0.08872180451127819</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002614282102802097</v>
+        <v>0.4761222014477895</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9113951395139512</v>
+        <v>0.9097744360902256</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1128352835283528</v>
+        <v>-0.6706766917293233</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2316951695169517</v>
+        <v>-0.6285714285714286</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.986042604260426</v>
+        <v>-0.9879699248120299</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8233063306330632</v>
+        <v>0.8390977443609022</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8233063306330632</v>
+        <v>0.8390977443609022</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.06367836783678367</v>
+        <v>0.08421052631578946</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.1135313531353135</v>
+        <v>0.07669172932330826</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1243347564681955</v>
+        <v>0.145043849447671</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1216081608160816</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1397419741974197</v>
+        <v>-0.1699248120300751</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.06897089708970895</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1211041104110411</v>
+        <v>-0.3699248120300751</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1163516351635163</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1163516351635163</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.07822382238223821</v>
+        <v>0.2992481203007519</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.1018061806180618</v>
+        <v>0.2300751879699248</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0262428892424823</v>
+        <v>-0.07252192472383549</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04308430843084307</v>
+        <v>0.08270676691729321</v>
       </c>
       <c r="H27" t="n">
-        <v>0.113987398739874</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1291689168916892</v>
+        <v>-0.4406015037593984</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.06706270627062705</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02843084308430843</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02843084308430843</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.2143654365436543</v>
+        <v>0.1864661654135338</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.02502250225022502</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0303081604549736</v>
+        <v>-0.3011236439620126</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.179021902190219</v>
+        <v>-0.1112781954887218</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0646984698469847</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05515751575157515</v>
+        <v>0.1398496240601504</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1488868886888689</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.1718211821182118</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1718211821182118</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.06246624662466246</v>
+        <v>0.0781954887218045</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.07799579957995798</v>
+        <v>-0.0781954887218045</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1503524922281398</v>
+        <v>0.06779223398097665</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02168616861686168</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1268886888688869</v>
+        <v>0.08270676691729321</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1674407440744074</v>
+        <v>0.2135338345864662</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.03615961596159616</v>
+        <v>0.2165413533834586</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1136633663366336</v>
+        <v>-0.3278195488721804</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1136633663366336</v>
+        <v>-0.3278195488721804</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1909270927092709</v>
+        <v>-0.6210526315789473</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.01542154215421542</v>
+        <v>-0.1473684210526316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05204798004669631</v>
+        <v>0.3231955340953538</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01944194419441944</v>
+        <v>0.2766917293233083</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03889588958895888</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03482748274827482</v>
+        <v>-0.5263157894736841</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00336033603360336</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="K30" t="n">
-        <v>0.09284128412841283</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09284128412841283</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.01354935493549355</v>
+        <v>0.03909774436090225</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.03336333633363336</v>
+        <v>-0.2646616541353383</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02993290465074363</v>
+        <v>-0.05045003459049426</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06465046504650464</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.04052805280528052</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="I31" t="n">
-        <v>0.015997599759976</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.08216021602160216</v>
+        <v>0.1323308270676692</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07629162916291629</v>
+        <v>-0.2105263157894737</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07629162916291629</v>
+        <v>-0.2105263157894737</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.003576357635763576</v>
+        <v>-0.1969924812030075</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.05922592259225921</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.09727881298321488</v>
+        <v>0.03783752594287069</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.06055805580558055</v>
+        <v>0.03609022556390977</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1531833183318331</v>
+        <v>-0.3037593984962406</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1639483948394839</v>
+        <v>-0.3894736842105262</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001392139213921392</v>
+        <v>-0.1578947368421053</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.06219021902190218</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.06219021902190218</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03049504950495049</v>
+        <v>0.6045112781954887</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.04043204320432043</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04763247008359037</v>
+        <v>-0.3689158779429892</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01948994899489949</v>
+        <v>-0.2646616541353383</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02323432343234323</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03914791479147915</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.03288328832883288</v>
+        <v>0.1548872180451128</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06577857785778578</v>
+        <v>-0.38796992481203</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06577857785778578</v>
+        <v>-0.38796992481203</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1414701470147015</v>
+        <v>-0.04511278195488722</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.2016441644164416</v>
+        <v>0.2075187969924812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1901045904229009</v>
+        <v>-0.02837814445715301</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1218841884188419</v>
+        <v>-0.393984962406015</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.08624062406240622</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0833123312331233</v>
+        <v>0.4406015037593984</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06569456945694568</v>
+        <v>0.4616541353383458</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.1034383438343834</v>
+        <v>-0.3458646616541353</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1034383438343834</v>
+        <v>-0.3458646616541353</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01164116411641164</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.03447944794479448</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.001576074377765858</v>
+        <v>-0.1970704476191182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06737473747374736</v>
+        <v>-0.2932330827067668</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01836183618361836</v>
+        <v>0.2706766917293233</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01956195619561956</v>
+        <v>0.1984962406015038</v>
       </c>
       <c r="J35" t="n">
-        <v>0.009420942094209421</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1024662466246624</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1024662466246624</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.009444944494449443</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.1068826882688269</v>
+        <v>0.4165413533834587</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01317147872847181</v>
+        <v>0.01103594506667062</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04458445844584458</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.09024902490249025</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07501950195019501</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J36" t="n">
-        <v>0.123060306030603</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.04946894689468947</v>
+        <v>0.2360902255639098</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.04946894689468947</v>
+        <v>0.2360902255639098</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.07059105910591058</v>
+        <v>-0.2827067669172932</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.0769036903690369</v>
+        <v>-0.09774436090225563</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09591538356117935</v>
+        <v>0.290087698895342</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2162256225622562</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0297029702970297</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03245124512451245</v>
+        <v>0.08120300751879699</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1888868886888689</v>
+        <v>-0.2661654135338345</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6096849684968496</v>
+        <v>0.5969924812030075</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6096849684968496</v>
+        <v>0.5969924812030075</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2421052631578947</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.09323308270676692</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.009459381485717672</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01353383458646617</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1729323308270676</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4135338345864661</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1022556390977443</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04360902255639097</v>
+        <v>-0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.04360902255639097</v>
+        <v>-0.2</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.2571428571428572</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.281203007518797</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04887347100954131</v>
+        <v>-0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3172932330827067</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2255639097744361</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2180451127819548</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.2</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.1097744360902256</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2222954649143653</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5398496240601504</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9729323308270676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9368421052631578</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5849624060150376</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8586466165413533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1308547772190945</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1218045112781955</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3684210526315789</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2947368421052631</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1954887218045113</v>
+        <v>-0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02406015037593985</v>
+        <v>0.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02406015037593985</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1669172932330827</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.05864661654135337</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2459439186286594</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04962406015037594</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3142857142857143</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1473684210526316</v>
+        <v>-0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0150375939849624</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0150375939849624</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4165413533834587</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.07518796992481201</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03626096236191775</v>
+        <v>-0.7</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.3</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1849624060150376</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3969924812030075</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06015037593984961</v>
+        <v>0.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08571428571428572</v>
+        <v>-0.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08571428571428572</v>
+        <v>-0.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.156390977443609</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.2977443609022556</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1072063235048003</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09624060150375939</v>
+        <v>-0.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3518796992481203</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1759398496240602</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1007518796992481</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.7</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.7</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3609022556390977</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.312781954887218</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09301725127622379</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1067669172932331</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3097744360902255</v>
+        <v>-0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.03308270676691729</v>
+        <v>-0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.05112781954887217</v>
+        <v>0.3</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05112781954887217</v>
+        <v>0.3</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1684210526315789</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.2315789473684211</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1198188321524239</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3864661654135338</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4586466165413533</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3714285714285714</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4150375939849624</v>
+        <v>-0.4</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4481203007518797</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4481203007518797</v>
+        <v>0.3</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.4150375939849624</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07094536114288254</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2827067669172932</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2225563909774436</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03308270676691729</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03308270676691729</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01804511278195488</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.1082706766917293</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08671099695241198</v>
+        <v>-0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00150375939849624</v>
+        <v>-0.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0.281203007518797</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1729323308270676</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1338345864661654</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00150375939849624</v>
+        <v>-0.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00150375939849624</v>
+        <v>-0.4</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-0.2015037593984962</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2475204822096125</v>
+        <v>-0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1699248120300751</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1593984962406015</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01052631578947368</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1819548872180451</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.6</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.05714285714285714</v>
+        <v>-0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2222954649143653</v>
+        <v>0.3</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03007518796992481</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1233082706766917</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.263157894736842</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1353383458646616</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03609022556390977</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03609022556390977</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02105263157894736</v>
+        <v>-0.3</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.03458646616541353</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4430143662477777</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1172932330827067</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3248120300751879</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3248120300751879</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2436090225563909</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2676691729323308</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.2676691729323308</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06315789473684209</v>
+        <v>0.7</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.006015037593984962</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1781516846476828</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03308270676691729</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1819548872180451</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2586466165413533</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2090225563909774</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.7488721804511278</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06936879756192961</v>
+        <v>0.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1789473684210526</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04360902255639097</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01654135338345865</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08872180451127819</v>
+        <v>0.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08872180451127819</v>
+        <v>0.3</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2451127819548872</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.08721804511278194</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06306254323811782</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06917293233082707</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03759398496240601</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1067669172932331</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1067669172932331</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4932330827067669</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.3609022556390977</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1623860488381534</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3398496240601503</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1308270676691729</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.08120300751879699</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.2646616541353383</v>
+        <v>-0.6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04414378026668248</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1157894736842105</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1849624060150376</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.06616541353383458</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01353383458646617</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.3804511278195489</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3216189705144009</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01804511278195488</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2781954887218045</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08872180451127819</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009022556390977442</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.009022556390977442</v>
+        <v>0</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.1819548872180451</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.6090225563909774</v>
+        <v>-0.3</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1813048118095887</v>
+        <v>-0.7</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06766917293233082</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.2</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3338345864661654</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3338345864661654</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.09323308270676692</v>
+        <v>0.3</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>-0.08872180451127819</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4761222014477895</v>
+        <v>0.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9097744360902256</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6706766917293233</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.9879699248120299</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8390977443609022</v>
+        <v>0.7</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8390977443609022</v>
+        <v>0.7</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.08421052631578946</v>
+        <v>-0.6</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.07669172932330826</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0.145043849447671</v>
+        <v>0.7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3834586466165413</v>
+        <v>-0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1699248120300751</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0706766917293233</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3699248120300751</v>
+        <v>0.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2992481203007519</v>
+        <v>0.4</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.2300751879699248</v>
+        <v>0.3</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07252192472383549</v>
+        <v>0.7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08270676691729321</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.3684210526315789</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4406015037593984</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1849624060150376</v>
+        <v>-0.2</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1864661654135338</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-0.02406015037593985</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3011236439620126</v>
+        <v>0.6</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1112781954887218</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1398496240601504</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2842105263157895</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.2</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.2</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0781954887218045</v>
+        <v>-0.3</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.0781954887218045</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06779223398097665</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1819548872180451</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08270676691729321</v>
+        <v>-0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2135338345864662</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2165413533834586</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3278195488721804</v>
+        <v>-0.2</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.3278195488721804</v>
+        <v>-0.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.6210526315789473</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.1473684210526316</v>
+        <v>-0.7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3231955340953538</v>
+        <v>-0.7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2766917293233083</v>
+        <v>-0.7</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3323308270676691</v>
+        <v>-0.4</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5263157894736841</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.3684210526315789</v>
+        <v>0.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3759398496240601</v>
+        <v>-0.6</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3759398496240601</v>
+        <v>-0.6</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03909774436090225</v>
+        <v>0.3</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.2646616541353383</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.05045003459049426</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2571428571428572</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.06616541353383458</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.09924812030075188</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1323308270676692</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.1969924812030075</v>
+        <v>-0.6</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.206015037593985</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03783752594287069</v>
+        <v>-0.3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03609022556390977</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.3037593984962406</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3894736842105262</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1578947368421053</v>
+        <v>-0.3</v>
       </c>
       <c r="K32" t="n">
-        <v>0.009022556390977442</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>0.009022556390977442</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6045112781954887</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>0.1353383458646616</v>
+        <v>-0.7</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.3689158779429892</v>
+        <v>-0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.2646616541353383</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09172932330827067</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1548872180451128</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.38796992481203</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.38796992481203</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.04511278195488722</v>
+        <v>-0.6</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.2075187969924812</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02837814445715301</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.393984962406015</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5112781954887218</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4406015037593984</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4616541353383458</v>
+        <v>-0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.3458646616541353</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3458646616541353</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1970704476191182</v>
+        <v>-0.7</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2932330827067668</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2706766917293233</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1984962406015038</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1774436090225564</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.4165413533834587</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01103594506667062</v>
+        <v>0.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08721804511278194</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2421052631578947</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1263157894736842</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.05263157894736842</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2360902255639098</v>
+        <v>-0.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2360902255639098</v>
+        <v>-0.2</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.2827067669172932</v>
+        <v>0.6</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.09774436090225563</v>
+        <v>-0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.290087698895342</v>
+        <v>0.7</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1759398496240602</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1654135338345864</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08120300751879699</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.2661654135338345</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5969924812030075</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5969924812030075</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.02529744129989765</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.007590010287600411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>0.01583793987064992</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01086463137858525</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2</v>
+        <v>-0.009089362923574516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.004620712491982881</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2</v>
+        <v>-0.002675786315031452</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2</v>
+        <v>-0.002675786315031452</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.01234849316593972</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>-0.007384785607391423</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3</v>
+        <v>0.009494531915800852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.00320225676809027</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003250358530014341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2</v>
+        <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.004561536841165646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009064365098574603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009064365098574603</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2</v>
+        <v>0.2045497685019907</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.004062646434505857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6</v>
+        <v>0.04575518291291026</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.0633076552683062</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9662857978194318</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01780369275159821</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.07994876124595043</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.07994876124595043</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9113769008390759</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00421020976840839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.006878173853724568</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.02131172475646899</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2</v>
+        <v>-0.0003260015170400606</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4</v>
+        <v>-0.01973378589948608</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>0.02820946519237861</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.02820946519237861</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01261824885672995</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.2</v>
+        <v>-0.01163868046554722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.001950192856393719</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>-0.02602795025711801</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.008289583723583349</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7</v>
+        <v>0.01871514386699057</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0232817324832693</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0232817324832693</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01805543429021737</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.03000031646401265</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7</v>
+        <v>-0.03462052209929635</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3</v>
+        <v>-0.0003248136129925445</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6</v>
+        <v>0.02300690223227608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7</v>
+        <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3</v>
+        <v>-0.0003533187528207992</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6</v>
+        <v>0.0002575739623029584</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6</v>
+        <v>0.0002575739623029584</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.009135793613431743</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01102732335309293</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.02162235516551371</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6</v>
+        <v>-0.02167013097880524</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7</v>
+        <v>-0.0001172062126882485</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.01835836570600508</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7</v>
+        <v>-0.02174946461397858</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7</v>
+        <v>-0.02174946461397858</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.139666674354667</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006523676036947041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.002772505697195194</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.001189594415583776</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3</v>
+        <v>-0.0003306114372244575</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.6</v>
+        <v>0.006421196513700324</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>-0.005393466071738641</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3</v>
+        <v>-0.005393466071738641</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>-0.2794666573866663</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.005728471333138852</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6</v>
+        <v>0.005249647675312477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>-0.01362976921719077</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.01039031647961266</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4</v>
+        <v>0.01361778204031537</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3</v>
+        <v>-0.01779592131983685</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
+        <v>-0.01779592131983685</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01023149330525973</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.2</v>
+        <v>-0.002535604709424188</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.006003675142445077</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3</v>
+        <v>0.02452356472494259</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6</v>
+        <v>0.01098175397527016</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3</v>
+        <v>-0.02002581047338878</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.0245688075107523</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.0245688075107523</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.004941296933651877</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.009428798873151954</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3</v>
+        <v>0.01673326473095477</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7</v>
+        <v>0.01465701485828059</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.00114048474961939</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3</v>
+        <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>-0.01642657878203656</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4</v>
+        <v>0.01668756402750256</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4</v>
+        <v>0.01668756402750256</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0.007914765436590615</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0.01423772581750903</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3</v>
+        <v>0.01573723321977152</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.004769035486761419</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01118995868759834</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2</v>
+        <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.005555461272484401</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01026171189846847</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01026171189846847</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.6</v>
+        <v>-0.03612677347707093</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.2</v>
+        <v>-0.0005045706441828257</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0.006198685354049971</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005373982678959306</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.007568432750737309</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.0006530251030892192</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0007232397409295895</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0007232397409295895</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3</v>
+        <v>-0.002181419607256784</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.007851805082072203</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.005764730358763553</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01545451674618067</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.001416445880657835</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.008144088243723752</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.01656305739852229</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.01656305739852229</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7</v>
+        <v>-0.07896388607055543</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.002193731895749275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0132014287474376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01702568708102748</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.1788992815239712</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01172868329437915</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01355423180616927</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01355423180616927</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.007730086677203466</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.3489810661832426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6</v>
+        <v>-0.009952697578817447</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1624296478731859</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.00941076325643053</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.04486167808777478</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3</v>
+        <v>0.05813184165327366</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3</v>
+        <v>0.05813184165327366</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01112427673297107</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.00882827430513097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>-0.02001411287020712</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>-0.0004525574581022983</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01011056190842247</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.7</v>
+        <v>0.000202811817655465</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.003240214401608576</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.003240214401608576</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.02937813208712528</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.4219417690376707</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.01096830046149765</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1832028521601141</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>-0.0005395129175805166</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0416198286374368</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.04179361290374451</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.04179361290374451</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.007958194782327789</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.6</v>
+        <v>-0.03282140214485608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008695694103213827</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.03493252430930097</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7</v>
+        <v>-0.014928949941158</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02246152849334845</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02737492736699709</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02737492736699709</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.061782225383289</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.5195780044311201</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.03520970477544212</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0.06347870913114835</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0153162576366503</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.2</v>
+        <v>0.03210074581625231</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.1216815411552616</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.1216815411552616</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.05210154390806175</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>-0.3</v>
+        <v>0.6276339396973575</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7</v>
+        <v>-0.002620518504353965</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>0.1729181145647246</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6</v>
+        <v>0.04656080864643233</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.2</v>
+        <v>-0.02154621980977243</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02928082734723309</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02928082734723309</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>0.01316069467042779</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.01484543156981726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4</v>
+        <v>0.1273507201473369</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9087893870075753</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>-0.104668426426737</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.9854134477135634</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7</v>
+        <v>0.7872958082918322</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7</v>
+        <v>0.7872958082918322</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.6</v>
+        <v>0.01900035292001411</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0.01067864029914561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7</v>
+        <v>0.00176431133602759</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2</v>
+        <v>0.0213645126625805</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6</v>
+        <v>-0.1057001153320046</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2</v>
+        <v>-0.02257443563472373</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03052348086893923</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03052348086893923</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>0.0180551325622053</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.3</v>
+        <v>0.007086172411446896</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7</v>
+        <v>-0.006022834968775414</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>-0.01148383591535344</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02238416623936665</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.2</v>
+        <v>0.01295518832877061</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.00912328980493159</v>
       </c>
       <c r="L27" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.00912328980493159</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.001741311813652472</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.008334466989378678</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6</v>
+        <v>-0.01386222068743891</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.004592120631684824</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2</v>
+        <v>-0.01165860920234437</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.005068035073279014</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.2</v>
+        <v>0.00420895476035819</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2</v>
+        <v>0.00420895476035819</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.3</v>
+        <v>-0.003592482479699299</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.005066758186670327</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.01019586363572725</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.002026604433064177</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2</v>
+        <v>0.014930025141201</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.004448411347779967</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2</v>
+        <v>0.005518839964753598</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2</v>
+        <v>0.005518839964753598</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005345571669822867</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.7</v>
+        <v>-0.007346531237861249</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7</v>
+        <v>-0.02574892143580367</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7</v>
+        <v>0.01269963353198534</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4</v>
+        <v>-0.01629410052376402</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7</v>
+        <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7</v>
+        <v>-0.02230939095010549</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.6</v>
+        <v>0.01204207113768284</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.6</v>
+        <v>0.01204207113768284</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>0.01314379377375175</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.005146181677847267</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0005055221025846813</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.001426355385054215</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3</v>
+        <v>-0.02026441194657647</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009034728142125338</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>0.009635801857432074</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2</v>
+        <v>0.009635801857432074</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.6</v>
+        <v>0.002049320913972836</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.03399451835178072</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.3</v>
+        <v>-0.001910844543248958</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>-0.009932307661292303</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008401037616041503</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.3</v>
+        <v>-0.0008206595430699595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0124725076029003</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0124725076029003</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03040046483201859</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.7</v>
+        <v>-0.008416239504649578</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2</v>
+        <v>0.01466626769420815</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.002259315546372621</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004596587607863504</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3</v>
+        <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0.003823646054036141</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004289059563562381</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004289059563562381</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.6</v>
+        <v>-0.01149693453987738</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>-0.009803090792123631</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.002287019346142983</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.01765859465834379</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01033134070125363</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7</v>
+        <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.2</v>
+        <v>-0.0176050495901412</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01021324101652964</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01021324101652964</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.6</v>
+        <v>0.01587726159509046</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>-0.005653494754139789</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7</v>
+        <v>0.01513608521710245</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-0.02044788667391546</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.01776768560670742</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3</v>
+        <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.01922373096320339</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02972671990906879</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02972671990906879</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.02541140684045627</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.0171699401427976</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6</v>
+        <v>-0.008966217488432321</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.007900001404000056</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.2</v>
+        <v>-0.004795034687801386</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01500935879456556</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.2</v>
+        <v>0.0005693144867725794</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2</v>
+        <v>0.0005693144867725794</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6</v>
+        <v>0.01555601879824075</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.3</v>
+        <v>-0.0254794702671788</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7</v>
+        <v>0.004380674408306961</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0.01119805686392227</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.01409259022770361</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.01045882902592393</v>
       </c>
       <c r="K37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.4962811578992463</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.4962811578992463</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02529744129989765</v>
+        <v>-0.02543646111345844</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.007590010287600411</v>
+        <v>0.007496897003875879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01583793987064992</v>
+        <v>-0.010523077755648</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01086463137858525</v>
+        <v>-0.01023913394556536</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.009089362923574516</v>
+        <v>-0.008526824213072968</v>
       </c>
       <c r="I4" t="n">
         <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004620712491982881</v>
+        <v>0.01277712882547487</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.002675786315031452</v>
+        <v>-0.001904877292195091</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002675786315031452</v>
+        <v>-0.001904877292195091</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01234849316593972</v>
+        <v>0.01247709573108383</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.007384785607391423</v>
+        <v>-0.00732175728487029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009494531915800852</v>
+        <v>-0.0060403021037462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00320225676809027</v>
+        <v>0.002683027499321099</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.003250358530014341</v>
+        <v>-0.003061468730458749</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.004561536841165646</v>
+        <v>-0.008212539530588208</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009064365098574603</v>
+        <v>0.007741553973662158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009064365098574603</v>
+        <v>0.007741553973662158</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2045497685019907</v>
+        <v>0.2243135380285415</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.004062646434505857</v>
+        <v>-0.00407549651501986</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04575518291291026</v>
+        <v>0.03541766767547584</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0633076552683062</v>
+        <v>0.009386046711441868</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9662857978194318</v>
+        <v>0.9649448192697926</v>
       </c>
       <c r="I6" t="n">
         <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01780369275159821</v>
+        <v>-0.06998709674007948</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07994876124595043</v>
+        <v>0.006527203461088137</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07994876124595043</v>
+        <v>0.006527203461088137</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9113769008390759</v>
+        <v>0.9088881228195247</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.00421020976840839</v>
+        <v>-0.004158340102333603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006878173853724568</v>
+        <v>0.01139423075256812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02131172475646899</v>
+        <v>0.0218318549852742</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0003260015170400606</v>
+        <v>-0.000498146899925876</v>
       </c>
       <c r="I7" t="n">
         <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01973378589948608</v>
+        <v>-0.01955857026015056</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02820946519237861</v>
+        <v>0.0276050076962003</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02820946519237861</v>
+        <v>0.0276050076962003</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01261824885672995</v>
+        <v>-0.01277595910303836</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.01163868046554722</v>
+        <v>-0.01165475393819016</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001950192856393719</v>
+        <v>-0.0006657196912146309</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02602795025711801</v>
+        <v>-0.02530232558809302</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008289583723583349</v>
+        <v>-0.008081238851249553</v>
       </c>
       <c r="I8" t="n">
         <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01871514386699057</v>
+        <v>0.01403374710364444</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0232817324832693</v>
+        <v>-0.02269581143583245</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0232817324832693</v>
+        <v>-0.02269581143583245</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01805543429021737</v>
+        <v>0.01852094464483778</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.03000031646401265</v>
+        <v>-0.03000848683233947</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03462052209929635</v>
+        <v>0.01958493498537471</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0003248136129925445</v>
+        <v>-0.001834767433390697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02300690223227608</v>
+        <v>0.02259361635974465</v>
       </c>
       <c r="I9" t="n">
         <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0003533187528207992</v>
+        <v>-0.0147243426782073</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002575739623029584</v>
+        <v>-0.002888128435525137</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002575739623029584</v>
+        <v>-0.002888128435525137</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.009135793613431743</v>
+        <v>-0.009224126576965062</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.01102732335309293</v>
+        <v>0.01094976370199055</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02162235516551371</v>
+        <v>-0.009706502128974661</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02167013097880524</v>
+        <v>-0.0212938800837552</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0001172062126882485</v>
+        <v>-0.000413321776532871</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01835836570600508</v>
+        <v>0.02200324198066103</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02174946461397858</v>
+        <v>-0.02157773385510935</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02174946461397858</v>
+        <v>-0.02157773385510935</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.139666674354667</v>
+        <v>0.1364704948668198</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.006523676036947041</v>
+        <v>-0.006511640708465628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002772505697195194</v>
+        <v>0.0143657444650089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001189594415583776</v>
+        <v>0.0008308528652341145</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0003306114372244575</v>
+        <v>-0.0002383442975337719</v>
       </c>
       <c r="I11" t="n">
         <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006421196513700324</v>
+        <v>0.002795358972092845</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005393466071738641</v>
+        <v>-0.005976435599057423</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.005393466071738641</v>
+        <v>-0.005976435599057423</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2794666573866663</v>
+        <v>-0.2730178446487138</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.005728471333138852</v>
+        <v>-0.005793688167747526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005249647675312477</v>
+        <v>-0.004775337100498804</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01362976921719077</v>
+        <v>-0.01461440516057621</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01039031647961266</v>
+        <v>0.01051947958877918</v>
       </c>
       <c r="I12" t="n">
         <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01361778204031537</v>
+        <v>0.01267446133174192</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01779592131983685</v>
+        <v>-0.01883552360142094</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01779592131983685</v>
+        <v>-0.01883552360142094</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01023149330525973</v>
+        <v>0.01065412861816514</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.002535604709424188</v>
+        <v>-0.002568126438725058</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006003675142445077</v>
+        <v>-0.008581716156203309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02452356472494259</v>
+        <v>0.02465460146618405</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01098175397527016</v>
+        <v>0.01065867594634703</v>
       </c>
       <c r="I13" t="n">
         <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02002581047338878</v>
+        <v>-0.01535448733739457</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0245688075107523</v>
+        <v>0.02332424330096973</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0245688075107523</v>
+        <v>0.02332424330096973</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.004941296933651877</v>
+        <v>-0.005358193078327723</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.009428798873151954</v>
+        <v>-0.009491387323655492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01673326473095477</v>
+        <v>0.01846921010424363</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01465701485828059</v>
+        <v>0.0160365550734622</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00114048474961939</v>
+        <v>-0.001148497869939915</v>
       </c>
       <c r="I14" t="n">
         <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01642657878203656</v>
+        <v>-0.01343442579017834</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01668756402750256</v>
+        <v>0.01802389435295577</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01668756402750256</v>
+        <v>0.01802389435295577</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.007914765436590615</v>
+        <v>0.007686168115446724</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.01423772581750903</v>
+        <v>0.01417321275892851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01573723321977152</v>
+        <v>-0.02626899082550377</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004769035486761419</v>
+        <v>0.005493888603755544</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01118995868759834</v>
+        <v>-0.01098314136732565</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.005555461272484401</v>
+        <v>-0.008958051092217574</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01026171189846847</v>
+        <v>-0.009707811172312446</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01026171189846847</v>
+        <v>-0.009707811172312446</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.03612677347707093</v>
+        <v>-0.03594237983769519</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.0005045706441828257</v>
+        <v>-0.0005871426474857058</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006198685354049971</v>
+        <v>0.02169594973722391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005373982678959306</v>
+        <v>0.006839378481575138</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007568432750737309</v>
+        <v>0.006957300854292033</v>
       </c>
       <c r="I16" t="n">
         <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006530251030892192</v>
+        <v>-0.008777574922139784</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007232397409295895</v>
+        <v>0.002451395330055813</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007232397409295895</v>
+        <v>0.002451395330055813</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.002181419607256784</v>
+        <v>-0.002247587321903492</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.007851805082072203</v>
+        <v>-0.00779030200761208</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.005764730358763553</v>
+        <v>-0.004660287556037989</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01545451674618067</v>
+        <v>-0.01606419184256767</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.001416445880657835</v>
+        <v>-0.00104965300198612</v>
       </c>
       <c r="I17" t="n">
         <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008144088243723752</v>
+        <v>-0.008178291144675777</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01656305739852229</v>
+        <v>-0.01625628612225144</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01656305739852229</v>
+        <v>-0.01625628612225144</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.07896388607055543</v>
+        <v>-0.0790088051443522</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.002193731895749275</v>
+        <v>0.00218938549557542</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0132014287474376</v>
+        <v>0.007868566672167445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01702568708102748</v>
+        <v>0.01664518866580754</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1788992815239712</v>
+        <v>0.1858256946650277</v>
       </c>
       <c r="I18" t="n">
         <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01172868329437915</v>
+        <v>-0.01055694178949963</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01355423180616927</v>
+        <v>0.01420957074438283</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01355423180616927</v>
+        <v>0.01420957074438283</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.007730086677203466</v>
+        <v>0.007880787963231517</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.3489810661832426</v>
+        <v>0.3489370080374803</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.009952697578817447</v>
+        <v>0.02329727017216169</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1624296478731859</v>
+        <v>0.1627200989568039</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00941076325643053</v>
+        <v>0.009838326249533048</v>
       </c>
       <c r="I19" t="n">
         <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04486167808777478</v>
+        <v>0.1030222557527628</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05813184165327366</v>
+        <v>0.06860331951213278</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05813184165327366</v>
+        <v>0.06860331951213278</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01112427673297107</v>
+        <v>0.01109524095580964</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.00882827430513097</v>
+        <v>0.008905057796202312</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02001411287020712</v>
+        <v>0.0127828441184084</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0004525574581022983</v>
+        <v>-0.0009111013804440552</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01011056190842247</v>
+        <v>-0.009851580490063218</v>
       </c>
       <c r="I20" t="n">
         <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000202811817655465</v>
+        <v>0.007199168274001556</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.003240214401608576</v>
+        <v>-0.003156605598264224</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.003240214401608576</v>
+        <v>-0.003156605598264224</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02937813208712528</v>
+        <v>0.02908322228332889</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.4219417690376707</v>
+        <v>0.4219317607492704</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01096830046149765</v>
+        <v>0.03071998415279447</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1832028521601141</v>
+        <v>0.18105950020238</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0005395129175805166</v>
+        <v>-6.280800251232009e-06</v>
       </c>
       <c r="I21" t="n">
         <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0416198286374368</v>
+        <v>0.1677965690977604</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04179361290374451</v>
+        <v>0.05209396547575861</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04179361290374451</v>
+        <v>0.05209396547575861</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.007958194782327789</v>
+        <v>0.007061741754469669</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.03282140214485608</v>
+        <v>-0.03284393804975752</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008695694103213827</v>
+        <v>0.002278752348194866</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03493252430930097</v>
+        <v>-0.03439718460788738</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.014928949941158</v>
+        <v>-0.01493343822933753</v>
       </c>
       <c r="I22" t="n">
         <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02246152849334845</v>
+        <v>-0.007918217770153281</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02737492736699709</v>
+        <v>-0.0274362525534501</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02737492736699709</v>
+        <v>-0.0274362525534501</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.061782225383289</v>
+        <v>0.06221940796077631</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.5195780044311201</v>
+        <v>0.5196132906725316</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03520970477544212</v>
+        <v>-0.01140860268075804</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06347870913114835</v>
+        <v>0.06039103835164152</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0153162576366503</v>
+        <v>-0.01680630355225214</v>
       </c>
       <c r="I23" t="n">
         <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03210074581625231</v>
+        <v>0.3035615673668779</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1216815411552616</v>
+        <v>-0.1096846891873875</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.1216815411552616</v>
+        <v>-0.1096846891873875</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05210154390806175</v>
+        <v>0.05285183568207342</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.6276339396973575</v>
+        <v>0.6276359897774395</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002620518504353965</v>
+        <v>0.01795147469892084</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1729181145647246</v>
+        <v>0.1710369416894776</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04656080864643233</v>
+        <v>0.04650880832435232</v>
       </c>
       <c r="I24" t="n">
         <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.02154621980977243</v>
+        <v>0.207512930083522</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.02928082734723309</v>
+        <v>-0.01452465235698609</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.02928082734723309</v>
+        <v>-0.01452465235698609</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01316069467042779</v>
+        <v>0.01067629636305185</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.01484543156981726</v>
+        <v>0.01473407665336306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1273507201473369</v>
+        <v>0.04081386586657301</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9087893870075753</v>
+        <v>0.911569428654777</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.104668426426737</v>
+        <v>-0.09934851853394074</v>
       </c>
       <c r="I25" t="n">
         <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.9854134477135634</v>
+        <v>-0.7695878892137877</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7872958082918322</v>
+        <v>0.7916938023237519</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7872958082918322</v>
+        <v>0.7916938023237519</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01900035292001411</v>
+        <v>0.01903161887326475</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.01067864029914561</v>
+        <v>0.01067497290699891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00176431133602759</v>
+        <v>0.007460553946279507</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0213645126625805</v>
+        <v>0.020785275039411</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1057001153320046</v>
+        <v>-0.1093307427412297</v>
       </c>
       <c r="I26" t="n">
         <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02257443563472373</v>
+        <v>-0.007910711337734121</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03052348086893923</v>
+        <v>0.02940983109639324</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03052348086893923</v>
+        <v>0.02940983109639324</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0180551325622053</v>
+        <v>0.01853080221323209</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.007086172411446896</v>
+        <v>0.007053796698151866</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.006022834968775414</v>
+        <v>0.02295415072346323</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01148383591535344</v>
+        <v>-0.01325239905809596</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02238416623936665</v>
+        <v>0.02204256472170258</v>
       </c>
       <c r="I27" t="n">
         <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01295518832877061</v>
+        <v>0.01646081386317185</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.00912328980493159</v>
+        <v>-0.01144103172164127</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.00912328980493159</v>
+        <v>-0.01144103172164127</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.001741311813652472</v>
+        <v>-0.002040522033620881</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.008334466989378678</v>
+        <v>0.008298303499932139</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01386222068743891</v>
+        <v>0.0172858313726762</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.004592120631684824</v>
+        <v>-0.003826328313053132</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01165860920234437</v>
+        <v>-0.01214139782965591</v>
       </c>
       <c r="I28" t="n">
         <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005068035073279014</v>
+        <v>0.006780971178649431</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00420895476035819</v>
+        <v>0.005956625806265031</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00420895476035819</v>
+        <v>0.005956625806265031</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.003592482479699299</v>
+        <v>-0.003164653182586127</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.005066758186670327</v>
+        <v>0.005099169227966768</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01019586363572725</v>
+        <v>-0.004511358304688562</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002026604433064177</v>
+        <v>0.0007122056924882276</v>
       </c>
       <c r="H29" t="n">
-        <v>0.014930025141201</v>
+        <v>0.0149067624202705</v>
       </c>
       <c r="I29" t="n">
         <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.004448411347779967</v>
+        <v>-0.00142734473570293</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005518839964753598</v>
+        <v>0.00420274452010978</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005518839964753598</v>
+        <v>0.00420274452010978</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005345571669822867</v>
+        <v>-0.005687756867510274</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.007346531237861249</v>
+        <v>-0.0074100450324018</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.02574892143580367</v>
+        <v>-0.009420784839767347</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01269963353198534</v>
+        <v>0.0139311274372451</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01629410052376402</v>
+        <v>-0.01603116275324651</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02230939095010549</v>
+        <v>-0.01453453693960854</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01204207113768284</v>
+        <v>0.01321544644861786</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01204207113768284</v>
+        <v>0.01321544644861786</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01314379377375175</v>
+        <v>0.01268657820346313</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.005146181677847267</v>
+        <v>-0.005165410382616415</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0005055221025846813</v>
+        <v>-0.007889791131307933</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.001426355385054215</v>
+        <v>0.0003439900937596037</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02026441194657647</v>
+        <v>-0.02032685937307437</v>
       </c>
       <c r="I31" t="n">
         <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>0.009034728142125338</v>
+        <v>-0.006007386431452458</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009635801857432074</v>
+        <v>0.01183069612122784</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009635801857432074</v>
+        <v>0.01183069612122784</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002049320913972836</v>
+        <v>0.001730337477213499</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.03399451835178072</v>
+        <v>-0.03400771672030866</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.001910844543248958</v>
+        <v>0.003493512488280922</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.009932307661292303</v>
+        <v>-0.008188422855536913</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.008401037616041503</v>
+        <v>-0.008481218931248756</v>
       </c>
       <c r="I32" t="n">
         <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0008206595430699595</v>
+        <v>-0.01150844325063147</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0124725076029003</v>
+        <v>0.01311190439647617</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0124725076029003</v>
+        <v>0.01311190439647617</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03040046483201859</v>
+        <v>-0.03013300267732011</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.008416239504649578</v>
+        <v>-0.008382104879284194</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01466626769420815</v>
+        <v>-0.007602104789725899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002259315546372621</v>
+        <v>0.003491109355644373</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004596587607863504</v>
+        <v>0.004418330960733238</v>
       </c>
       <c r="I33" t="n">
         <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.003823646054036141</v>
+        <v>-0.01282408934009715</v>
       </c>
       <c r="K33" t="n">
-        <v>0.004289059563562381</v>
+        <v>0.005112308940492357</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004289059563562381</v>
+        <v>0.005112308940492357</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01149693453987738</v>
+        <v>-0.01144290535371621</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.009803090792123631</v>
+        <v>-0.009806634248265368</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002287019346142983</v>
+        <v>-0.01022661505758788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01765859465834379</v>
+        <v>0.01756398569455942</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01033134070125363</v>
+        <v>0.01035470556618822</v>
       </c>
       <c r="I34" t="n">
         <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0176050495901412</v>
+        <v>-0.01446140701552497</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01021324101652964</v>
+        <v>0.009837977961519117</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01021324101652964</v>
+        <v>0.009837977961519117</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01587726159509046</v>
+        <v>0.0162853325554133</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.005653494754139789</v>
+        <v>-0.005616932000677279</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01513608521710245</v>
+        <v>0.0124771499368164</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02044788667391546</v>
+        <v>-0.02098522346340894</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01776768560670742</v>
+        <v>0.01757839366313575</v>
       </c>
       <c r="I35" t="n">
         <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01922373096320339</v>
+        <v>0.007617486569360451</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.02972671990906879</v>
+        <v>-0.03091672414866896</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.02972671990906879</v>
+        <v>-0.03091672414866896</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02541140684045627</v>
+        <v>0.02551249820449993</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.0171699401427976</v>
+        <v>0.01715358855814354</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.008966217488432321</v>
+        <v>-0.00103060162497855</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.007900001404000056</v>
+        <v>-0.008321622092864881</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.004795034687801386</v>
+        <v>-0.0053671675426867</v>
       </c>
       <c r="I36" t="n">
         <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01500935879456556</v>
+        <v>0.02100400302886353</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005693144867725794</v>
+        <v>0.0005918623916744956</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0005693144867725794</v>
+        <v>0.0005918623916744956</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01555601879824075</v>
+        <v>0.0150037050481482</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.0254794702671788</v>
+        <v>-0.02547806732312269</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004380674408306961</v>
+        <v>-0.01514160684299335</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01119805686392227</v>
+        <v>-0.01045975270639011</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01409259022770361</v>
+        <v>-0.01403100420924017</v>
       </c>
       <c r="I37" t="n">
         <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01045882902592393</v>
+        <v>0.001330773194310375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4962811578992463</v>
+        <v>0.4965761792550472</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4962811578992463</v>
+        <v>0.4965761792550472</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,57 +505,54 @@
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ethanol</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Crude glycerol</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
+          <t>Displacement allocation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Energy allocation</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Biorefinery</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Ethanol</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Biodiesel</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Electricity</t>
         </is>
@@ -574,34 +571,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Feedstock consumption [ton/yr]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Biodiesel production [Gal/ton]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production [Gal/ton]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Electricity production [kWhr/ton]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption [cf/ton]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>TCI [10^6*USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Feedstock consumption [ton/yr]</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Heat exchanger network error [%]</t>
@@ -634,55 +631,80 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>Ethanol GWP [kg*CO2*eq / ga;]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Biofuel GWP [kg*CO2*eq / GGE]</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
           <t>MFPP derivative [USD/ton]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Electricity production derivative [kWhr/ton]</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption derivative [cf/ton]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>TCI derivative [10^6*USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>GWP derivative [kg*CO2*eq / USD]</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
@@ -712,39 +734,45 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02543646111345844</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0.007496897003875879</v>
-      </c>
+        <v>-0.2224422442244224</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06405040504050405</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.010523077755648</v>
+        <v>-0.04813681368136813</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01023913394556536</v>
+        <v>-0.07567980120978209</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008526824213072968</v>
+        <v>-0.007764776477647763</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.006983176887327074</v>
+        <v>0.1046384638463846</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01277712882547487</v>
+        <v>-0.05143714371437143</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001904877292195091</v>
+        <v>-0.00522052205220522</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.001904877292195091</v>
+        <v>-0.00522052205220522</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>-0.00522052205220522</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.00522052205220522</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.00522052205220522</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -753,6 +781,11 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -762,39 +795,45 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01247709573108383</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>-0.00732175728487029</v>
-      </c>
+        <v>-0.09358535853585358</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1119111911191119</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.0060403021037462</v>
+        <v>-0.1080588058805881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002683027499321099</v>
+        <v>-0.05996951302224086</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.003061468730458749</v>
+        <v>-0.08255625562556254</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0005059528522381141</v>
+        <v>-0.1133273327332733</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.008212539530588208</v>
+        <v>-0.06784278427842784</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007741553973662158</v>
+        <v>0.0886168616861686</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007741553973662158</v>
+        <v>0.0886168616861686</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0.0886168616861686</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0886168616861686</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0886168616861686</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -803,6 +842,11 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -812,39 +856,45 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2243135380285415</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>-0.00407549651501986</v>
-      </c>
+        <v>0.2279147914791479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9561716171617161</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.03541766767547584</v>
+        <v>-0.07138313831383136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009386046711441868</v>
+        <v>0.1111194327548317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9649448192697926</v>
+        <v>0.1317731773177318</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9579628848145153</v>
+        <v>0.9557635763576358</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06998709674007948</v>
+        <v>-0.1524752475247525</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006527203461088137</v>
+        <v>-0.1571677167716772</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006527203461088137</v>
+        <v>-0.1571677167716772</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>-0.1571677167716772</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.1571677167716772</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.1571677167716772</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -853,6 +903,11 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -866,39 +921,45 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9088881228195247</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>-0.004158340102333603</v>
-      </c>
+        <v>0.9062706270627061</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.004668466846684667</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.01139423075256812</v>
+        <v>-0.07011101110111011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0218318549852742</v>
+        <v>-0.02193734280273719</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.000498146899925876</v>
+        <v>-0.06844284428442843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001493300027732001</v>
+        <v>0.01034503450345034</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01955857026015056</v>
+        <v>-0.207032703270327</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0276050076962003</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0276050076962003</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0.06015001500150014</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.06015001500150014</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.06015001500150014</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -907,6 +968,11 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -920,39 +986,45 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01277595910303836</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>-0.01165475393819016</v>
-      </c>
+        <v>0.09413741374137413</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.001404140414041404</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.0006657196912146309</v>
+        <v>-0.1477587758775877</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02530232558809302</v>
+        <v>0.03863999029150487</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008081238851249553</v>
+        <v>-0.002184218421842184</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009443602841744113</v>
+        <v>-0.01658565856585658</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01403374710364444</v>
+        <v>-0.09815781578157814</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02269581143583245</v>
+        <v>0.01083708370837084</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02269581143583245</v>
+        <v>0.01083708370837084</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0.01083708370837084</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01083708370837084</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01083708370837084</v>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -961,6 +1033,11 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -974,39 +1051,45 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01852094464483778</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>-0.03000848683233947</v>
-      </c>
+        <v>0.07895589558955894</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04094809480948094</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.01958493498537471</v>
+        <v>0.1015541554155416</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001834767433390697</v>
+        <v>-0.06258065843359295</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02259361635974465</v>
+        <v>0.1331533153315332</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02935640968625638</v>
+        <v>-0.01292529252925292</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0147243426782073</v>
+        <v>-0.04385238523852385</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002888128435525137</v>
+        <v>-0.09552955295529553</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.002888128435525137</v>
+        <v>-0.09552955295529553</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>-0.09552955295529553</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.09552955295529553</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.09552955295529553</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1015,6 +1098,11 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1028,39 +1116,45 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.009224126576965062</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.01094976370199055</v>
-      </c>
+        <v>-0.03935193519351935</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0417041704170417</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.009706502128974661</v>
+        <v>0.1725172517251725</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0212938800837552</v>
+        <v>-0.1286903946321725</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.000413321776532871</v>
+        <v>0.07803180318031804</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0009429528377181134</v>
+        <v>-0.06106210621062105</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02200324198066103</v>
+        <v>0.1906990699069907</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02157773385510935</v>
+        <v>-0.01983798379837984</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02157773385510935</v>
+        <v>-0.01983798379837984</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>-0.01983798379837984</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01983798379837984</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.01983798379837984</v>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1069,6 +1163,11 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1078,39 +1177,45 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1364704948668198</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>-0.006511640708465628</v>
-      </c>
+        <v>0.1659525952595259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2451005100510051</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.0143657444650089</v>
+        <v>-0.03825982598259826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0008308528652341145</v>
+        <v>-0.09188006680230387</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0002383442975337719</v>
+        <v>-0.02445844584458446</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2739322870212915</v>
+        <v>-0.02628262826282628</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002795358972092845</v>
+        <v>0.005508550855085508</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005976435599057423</v>
+        <v>0.03725172517251725</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.005976435599057423</v>
+        <v>0.03725172517251725</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>0.03725172517251725</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.03725172517251725</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.03725172517251725</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1119,6 +1224,11 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1128,39 +1238,45 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2730178446487138</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>-0.005793688167747526</v>
-      </c>
+        <v>-0.2621422142214221</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1068946894689469</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-0.004775337100498804</v>
+        <v>-0.07991599159915991</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01461440516057621</v>
+        <v>0.114040690447817</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01051947958877918</v>
+        <v>-0.04784878487848784</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00596510827060433</v>
+        <v>-0.06573057305730572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01267446133174192</v>
+        <v>0.01953795379537954</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01883552360142094</v>
+        <v>0.0616141614161416</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01883552360142094</v>
+        <v>0.0616141614161416</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>0.0616141614161416</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0616141614161416</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0616141614161416</v>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1169,6 +1285,11 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1182,39 +1303,45 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01065412861816514</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>-0.002568126438725058</v>
-      </c>
+        <v>0.002436243624362436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01854185418541854</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.008581716156203309</v>
+        <v>-0.008052805280528052</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02465460146618405</v>
+        <v>-0.1665985199390228</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01065867594634703</v>
+        <v>-0.04184818481848185</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008566614198664566</v>
+        <v>0.0218061806180618</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01535448733739457</v>
+        <v>0.06942694269426943</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02332424330096973</v>
+        <v>0.04876087608760876</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02332424330096973</v>
+        <v>0.04876087608760876</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>0.04876087608760876</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.04876087608760876</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04876087608760876</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1223,6 +1350,11 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1236,39 +1368,45 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.005358193078327723</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>-0.009491387323655492</v>
-      </c>
+        <v>-0.008028802880288028</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01683768376837684</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.01846921010424363</v>
+        <v>-0.07863186318631862</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0160365550734622</v>
+        <v>0.005451773911112805</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.001148497869939915</v>
+        <v>0.07785178517851783</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.007119685916787436</v>
+        <v>0.03007500750075007</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01343442579017834</v>
+        <v>-0.05573357335733573</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01802389435295577</v>
+        <v>-0.001656165616561656</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01802389435295577</v>
+        <v>-0.001656165616561656</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>-0.001656165616561656</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.001656165616561656</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.001656165616561656</v>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1277,6 +1415,11 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1290,39 +1433,45 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.007686168115446724</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0.01417321275892851</v>
-      </c>
+        <v>-0.08234023402340233</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.04474047404740474</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.02626899082550377</v>
+        <v>0.0516051605160516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005493888603755544</v>
+        <v>-0.01309914277618913</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01098314136732565</v>
+        <v>0.02551455145514551</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01063130442525218</v>
+        <v>-0.0537053705370537</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.008958051092217574</v>
+        <v>0.04745274527452745</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.009707811172312446</v>
+        <v>-0.06123012301230122</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.009707811172312446</v>
+        <v>-0.06123012301230122</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>-0.06123012301230122</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.06123012301230122</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.06123012301230122</v>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1331,6 +1480,11 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1344,39 +1498,45 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.03594237983769519</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>-0.0005871426474857058</v>
-      </c>
+        <v>-0.07271527152715271</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03991599159915991</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.02169594973722391</v>
+        <v>-0.1427062706270627</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006839378481575138</v>
+        <v>-0.02594399348143898</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006957300854292033</v>
+        <v>-0.1466426642664266</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01187364479494579</v>
+        <v>0.06064206420642063</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.008777574922139784</v>
+        <v>-0.03643564356435643</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002451395330055813</v>
+        <v>0.1528232823282328</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002451395330055813</v>
+        <v>0.1528232823282328</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>0.1528232823282328</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1528232823282328</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1528232823282328</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1385,6 +1545,11 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1394,39 +1559,45 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.002247587321903492</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>-0.00779030200761208</v>
-      </c>
+        <v>-0.0754995499549955</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.0794119411941194</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.004660287556037989</v>
+        <v>0.008556855685568555</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01606419184256767</v>
+        <v>0.129236192247847</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00104965300198612</v>
+        <v>-0.08409240924092408</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006570467302818691</v>
+        <v>-0.04702070207020702</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.008178291144675777</v>
+        <v>0.1494749474947495</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01625628612225144</v>
+        <v>0.1001980198019802</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01625628612225144</v>
+        <v>0.1001980198019802</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>0.1001980198019802</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1001980198019802</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1001980198019802</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1435,6 +1606,11 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1448,39 +1624,45 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0790088051443522</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0.00218938549557542</v>
-      </c>
+        <v>-0.0912091209120912</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.04709270927092709</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.007868566672167445</v>
+        <v>-0.08745274527452744</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01664518866580754</v>
+        <v>-0.1908244913802136</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1858256946650277</v>
+        <v>-0.1146954695469547</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004741255389650215</v>
+        <v>0.1622682268226823</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01055694178949963</v>
+        <v>-0.008004800480048004</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01420957074438283</v>
+        <v>0.08157215721572156</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01420957074438283</v>
+        <v>0.08157215721572156</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>0.08157215721572156</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.08157215721572156</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.08157215721572156</v>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1489,6 +1671,11 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1502,39 +1689,45 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.007880787963231517</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.3489370080374803</v>
-      </c>
+        <v>-0.1029102910291029</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001716171617161716</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.02329727017216169</v>
+        <v>0.4333753375337533</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1627200989568039</v>
+        <v>-0.03126552023426582</v>
       </c>
       <c r="H19" t="n">
-        <v>0.009838326249533048</v>
+        <v>0.3588718871887189</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005024797256991891</v>
+        <v>-0.04554455445544554</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1030222557527628</v>
+        <v>0.3505310531053105</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06860331951213278</v>
+        <v>-0.3382058205820582</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06860331951213278</v>
+        <v>-0.3382058205820582</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>-0.3382058205820582</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.3382058205820582</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.3382058205820582</v>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1543,6 +1736,11 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1552,39 +1750,45 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01109524095580964</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.008905057796202312</v>
-      </c>
+        <v>-0.006636663666366636</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02013801380138014</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.0127828441184084</v>
+        <v>0.103018301830183</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0009111013804440552</v>
+        <v>-0.240479669915332</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.009851580490063218</v>
+        <v>0.02299429942994299</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006169556118782244</v>
+        <v>0.04061206120612061</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007199168274001556</v>
+        <v>0.00528052805280528</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.003156605598264224</v>
+        <v>-0.06541854185418541</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.003156605598264224</v>
+        <v>-0.06541854185418541</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>-0.06541854185418541</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.06541854185418541</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.06541854185418541</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -1593,6 +1797,11 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1602,39 +1811,45 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02908322228332889</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.4219317607492704</v>
-      </c>
+        <v>0.09344134413441342</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1197239723972397</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.03071998415279447</v>
+        <v>0.4393999399939993</v>
       </c>
       <c r="G21" t="n">
-        <v>0.18105950020238</v>
+        <v>-0.1750397762450803</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.280800251232009e-06</v>
+        <v>0.3142634263426342</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01017601365504055</v>
+        <v>0.06357035703570356</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1677965690977604</v>
+        <v>0.2974617461746174</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05209396547575861</v>
+        <v>-0.2775877587758775</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05209396547575861</v>
+        <v>-0.2775877587758775</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>-0.2775877587758775</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.2775877587758775</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.2775877587758775</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1643,6 +1858,11 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1652,39 +1872,45 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.007061741754469669</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>-0.03284393804975752</v>
-      </c>
+        <v>-0.01453345334533453</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1012901290129013</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.002278752348194866</v>
+        <v>-0.02678667866786678</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03439718460788738</v>
+        <v>0.15223411905377</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01493343822933753</v>
+        <v>0.02749474947494749</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01713025143721005</v>
+        <v>-0.1396819681968197</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.007918217770153281</v>
+        <v>0.08598859885988598</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0274362525534501</v>
+        <v>-0.02886288628862886</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0274362525534501</v>
+        <v>-0.02886288628862886</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>-0.02886288628862886</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.02886288628862886</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.02886288628862886</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1693,6 +1919,11 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1706,39 +1937,45 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.06221940796077631</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0.5196132906725316</v>
-      </c>
+        <v>-0.03517551755175517</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.08976897689768974</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.01140860268075804</v>
+        <v>0.4906450645064506</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06039103835164152</v>
+        <v>-0.03107945286528586</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01680630355225214</v>
+        <v>0.4295589558955895</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01255258629410345</v>
+        <v>-0.0215061506150615</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3035615673668779</v>
+        <v>0.3416981698169817</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1096846891873875</v>
+        <v>-0.4264146414641464</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.1096846891873875</v>
+        <v>-0.4264146414641464</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>-0.4264146414641464</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.4264146414641464</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.4264146414641464</v>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1747,6 +1984,11 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1756,39 +1998,45 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05285183568207342</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0.6276359897774395</v>
-      </c>
+        <v>0.03475547554755475</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.07839183918391837</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.01795147469892084</v>
+        <v>0.593015301530153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1710369416894776</v>
+        <v>-0.001476134460574343</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04650880832435232</v>
+        <v>0.3283168316831683</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02253726483749059</v>
+        <v>-0.07895589558955894</v>
       </c>
       <c r="J24" t="n">
-        <v>0.207512930083522</v>
+        <v>0.2095049504950495</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01452465235698609</v>
+        <v>-0.2689228922892289</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01452465235698609</v>
+        <v>-0.2689228922892289</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>-0.2689228922892289</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.2689228922892289</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.2689228922892289</v>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1797,6 +2045,11 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1810,39 +2063,45 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01067629636305185</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>0.01473407665336306</v>
-      </c>
+        <v>0.1263486348634863</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2316951695169517</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.04081386586657301</v>
+        <v>0.09887788778877886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.911569428654777</v>
+        <v>0.1266064400995969</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.09934851853394074</v>
+        <v>0.7589558955895589</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0109187299727492</v>
+        <v>0.07187518751875187</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.7695878892137877</v>
+        <v>-0.2401680168016801</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7916938023237519</v>
+        <v>-0.7531833183318332</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7916938023237519</v>
+        <v>-0.7531833183318332</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>-0.7531833183318332</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.7531833183318332</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.7531833183318332</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1851,6 +2110,11 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1860,39 +2124,45 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01903161887326475</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.01067497290699891</v>
-      </c>
+        <v>-0.05890189018901889</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.06897089708970895</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.007460553946279507</v>
+        <v>0.1102310231023102</v>
       </c>
       <c r="G26" t="n">
-        <v>0.020785275039411</v>
+        <v>0.03728169849795116</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1093307427412297</v>
+        <v>0.1465346534653465</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01001658673666347</v>
+        <v>-0.1698769876987699</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.007910711337734121</v>
+        <v>0.04188418841884187</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02940983109639324</v>
+        <v>-0.123000300030003</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02940983109639324</v>
+        <v>-0.123000300030003</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>-0.123000300030003</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.123000300030003</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.123000300030003</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1901,6 +2171,11 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1914,39 +2189,45 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01853080221323209</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.007053796698151866</v>
-      </c>
+        <v>-0.0775037503750375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1291689168916892</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02295415072346323</v>
+        <v>-0.1034623462346234</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01325239905809596</v>
+        <v>0.02773024022364659</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02204256472170258</v>
+        <v>-0.02083408340834083</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01890344744413789</v>
+        <v>0.1013741374137414</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01646081386317185</v>
+        <v>-0.04433243324332432</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01144103172164127</v>
+        <v>-0.04981698169816981</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.01144103172164127</v>
+        <v>-0.04981698169816981</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>-0.04981698169816981</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.04981698169816981</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.04981698169816981</v>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -1955,6 +2236,11 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1968,39 +2254,45 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.002040522033620881</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>0.008298303499932139</v>
-      </c>
+        <v>-0.2211821182118212</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.05515751575157515</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.0172858313726762</v>
+        <v>0.02347434743474347</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.003826328313053132</v>
+        <v>0.1088866243270721</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01214139782965591</v>
+        <v>-0.05467746774677467</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008152086854083472</v>
+        <v>-0.06486648664866486</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006780971178649431</v>
+        <v>-0.01747374737473747</v>
       </c>
       <c r="K28" t="n">
-        <v>0.005956625806265031</v>
+        <v>0.02624662466246624</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005956625806265031</v>
+        <v>0.02624662466246624</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>0.02624662466246624</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02624662466246624</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02624662466246624</v>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2009,6 +2301,11 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2022,39 +2319,45 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.003164653182586127</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.005099169227966768</v>
-      </c>
+        <v>-0.05518151815181518</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1674407440744074</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-0.004511358304688562</v>
+        <v>0.07906390639063905</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0007122056924882276</v>
+        <v>0.1100464442603806</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0149067624202705</v>
+        <v>0.05654965496549654</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01661224492048979</v>
+        <v>-0.1304650465046505</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.00142734473570293</v>
+        <v>0.02139813981398139</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00420274452010978</v>
+        <v>-0.1166996699669967</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00420274452010978</v>
+        <v>-0.1166996699669967</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>-0.1166996699669967</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.1166996699669967</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.1166996699669967</v>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2063,6 +2366,11 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2076,39 +2384,45 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005687756867510274</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>-0.0074100450324018</v>
-      </c>
+        <v>0.1889708970897089</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03482748274827482</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.009420784839767347</v>
+        <v>-0.01359735973597359</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0139311274372451</v>
+        <v>-0.05983306361832223</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01603116275324651</v>
+        <v>0.0009720972097209719</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01542497485699899</v>
+        <v>0.044008400840084</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01453453693960854</v>
+        <v>0.06479447944794479</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01321544644861786</v>
+        <v>0.06359435943594359</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01321544644861786</v>
+        <v>0.06359435943594359</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>0.06359435943594359</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.06359435943594359</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.06359435943594359</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2117,6 +2431,11 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2130,39 +2449,45 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01268657820346313</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>-0.005165410382616415</v>
-      </c>
+        <v>-0.006444644464446443</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.015997599759976</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.007889791131307933</v>
+        <v>-0.03495949594959495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0003439900937596037</v>
+        <v>0.07252285818275545</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02032685937307437</v>
+        <v>0.05532553255325532</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02025557121022284</v>
+        <v>-0.0617941794179418</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.006007386431452458</v>
+        <v>-0.1178157815781578</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01183069612122784</v>
+        <v>-0.07674767476747674</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01183069612122784</v>
+        <v>-0.07674767476747674</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>-0.07674767476747674</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.07674767476747674</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.07674767476747674</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2171,6 +2496,11 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2184,39 +2514,45 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001730337477213499</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>-0.03400771672030866</v>
-      </c>
+        <v>-0.001812181218121812</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1639483948394839</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.003493512488280922</v>
+        <v>-0.05964596459645964</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.008188422855536913</v>
+        <v>0.09500599860116718</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.008481218931248756</v>
+        <v>-0.03593159315931593</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01117334454293378</v>
+        <v>-0.1514671467146715</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01150844325063147</v>
+        <v>0.0769036903690369</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01311190439647617</v>
+        <v>0.01222922292229223</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01311190439647617</v>
+        <v>0.01222922292229223</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>0.01222922292229223</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.01222922292229223</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01222922292229223</v>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2225,6 +2561,11 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2238,39 +2579,45 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03013300267732011</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>-0.008382104879284194</v>
-      </c>
+        <v>0.02178217821782178</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.03914791479147915</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.007602104789725899</v>
+        <v>-0.03974797479747975</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003491109355644373</v>
+        <v>-0.002666965622046082</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004418330960733238</v>
+        <v>-0.003096309630963096</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.001813062024522481</v>
+        <v>0.000468046804680468</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01282408934009715</v>
+        <v>-0.09282928292829282</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005112308940492357</v>
+        <v>0.01807380738073807</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005112308940492357</v>
+        <v>0.01807380738073807</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>0.01807380738073807</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.01807380738073807</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.01807380738073807</v>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2279,6 +2626,11 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2292,39 +2644,45 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01144290535371621</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>-0.009806634248265368</v>
-      </c>
+        <v>-0.151983198319832</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.0833123312331233</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.01022661505758788</v>
+        <v>-0.1997239723972397</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01756398569455942</v>
+        <v>0.01083532312026629</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01035470556618822</v>
+        <v>-0.1793339333933393</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01138237082329483</v>
+        <v>-0.08232823282328232</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01446140701552497</v>
+        <v>-0.15996399639964</v>
       </c>
       <c r="K34" t="n">
-        <v>0.009837977961519117</v>
+        <v>0.1288808880888089</v>
       </c>
       <c r="L34" t="n">
-        <v>0.009837977961519117</v>
+        <v>0.1288808880888089</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>0.1288808880888089</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1288808880888089</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1288808880888089</v>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2333,6 +2691,11 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2346,39 +2709,45 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0162853325554133</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>-0.005616932000677279</v>
-      </c>
+        <v>-0.0174977497749775</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01956195619561956</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.0124771499368164</v>
+        <v>0.03179117911791179</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02098522346340894</v>
+        <v>-0.08858047212572594</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01757839366313575</v>
+        <v>0.01572157215721572</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02218259157530366</v>
+        <v>-0.006828682868286829</v>
       </c>
       <c r="J35" t="n">
-        <v>0.007617486569360451</v>
+        <v>-0.02492649264926492</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.03091672414866896</v>
+        <v>0.04306030603060305</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.03091672414866896</v>
+        <v>0.04306030603060305</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>0.04306030603060305</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.04306030603060305</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.04306030603060305</v>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2387,6 +2756,11 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2400,39 +2774,45 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02551249820449993</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>0.01715358855814354</v>
-      </c>
+        <v>-0.006696669666966695</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.07501950195019501</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.00103060162497855</v>
+        <v>0.1044104410441044</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.008321622092864881</v>
+        <v>0.07897319364072737</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0053671675426867</v>
+        <v>0.004632463246324632</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.002515635364625415</v>
+        <v>-0.09926192619261925</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02100400302886353</v>
+        <v>0.2351755175517551</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005918623916744956</v>
+        <v>0.03582358235823582</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0005918623916744956</v>
+        <v>0.03582358235823582</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>0.03582358235823582</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.03582358235823582</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.03582358235823582</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2441,6 +2821,11 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2454,39 +2839,45 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0150037050481482</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>-0.02547806732312269</v>
-      </c>
+        <v>-0.06433843384338434</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03245124512451245</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-0.01514160684299335</v>
+        <v>0.07689168916891688</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01045975270639011</v>
+        <v>0.03349212641639266</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01403100420924017</v>
+        <v>0.2472847284728472</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01464582970583318</v>
+        <v>-0.05171317131713171</v>
       </c>
       <c r="J37" t="n">
-        <v>0.001330773194310375</v>
+        <v>0.01495349534953495</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4965761792550472</v>
+        <v>0.05222922292229223</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4965761792550472</v>
+        <v>0.05222922292229223</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>0.05222922292229223</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.05222922292229223</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.05222922292229223</v>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2495,11 +2886,18 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,44 +734,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02694410421376417</v>
+        <v>0.001518318108732724</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006983176887327074</v>
+        <v>0.002440304641612186</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.007878156027126239</v>
+        <v>0.0008292941131717646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0140078803874164</v>
+        <v>0.003172265145129379</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001345616981824679</v>
+        <v>-0.01685983094639324</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007449268809970751</v>
+        <v>0.004083328675333147</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006503007806244199</v>
+        <v>0.01208809448016959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002172098198883927</v>
+        <v>-0.01760355536014221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002172098198883927</v>
+        <v>-0.01760355536014221</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.002172678710907148</v>
+        <v>-0.01760414470416579</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002172293078891723</v>
+        <v>-0.01760355536014221</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002172293078891723</v>
+        <v>-0.01760355536014221</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,44 +795,44 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01275197571007903</v>
+        <v>-0.009220427408817095</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0005059528522381141</v>
+        <v>-0.01886649176265967</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.00715142476605699</v>
+        <v>0.01930894176435767</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01701600986265392</v>
+        <v>0.01062561738827025</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.005894852299794092</v>
+        <v>0.004125332517013301</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.001284875859395034</v>
+        <v>-0.009963135470525417</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.004009940741568771</v>
+        <v>0.01626895867631969</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.002111571924462876</v>
+        <v>-0.005391140471645618</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.002111571924462876</v>
+        <v>-0.005391140471645618</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.002110957332438293</v>
+        <v>-0.005390941655637665</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.002111315028452601</v>
+        <v>-0.005391140471645618</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.002111315028452601</v>
+        <v>-0.005391140471645618</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1938094353363774</v>
+        <v>0.2103740895989636</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579628848145153</v>
+        <v>0.9579101443324056</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.004457707858308313</v>
+        <v>-0.003546465357858613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002663232490579546</v>
+        <v>0.03505249070660543</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000161164326446573</v>
+        <v>0.0002018905040756201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9580282262571288</v>
+        <v>0.9570899158835965</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01135456255135341</v>
+        <v>-0.006947756352317192</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.004223912232956489</v>
+        <v>-0.001628774177150967</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.004223912232956489</v>
+        <v>-0.001628774177150967</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.004223184072927363</v>
+        <v>-0.001628421857136874</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.004223637096945483</v>
+        <v>-0.001628774177150967</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.004223637096945483</v>
+        <v>-0.001628774177150967</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -921,44 +921,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9288805593632223</v>
+        <v>0.9294598989383958</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001493300027732001</v>
+        <v>0.02428762417150496</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.003826080825043232</v>
+        <v>0.01695514330220573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002434976846411658</v>
+        <v>0.009917860814668489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01457700288708011</v>
+        <v>0.01928205379528215</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00204288776171551</v>
+        <v>0.0245176349967054</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.009129700495102859</v>
+        <v>0.01577294147745551</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02115705281428211</v>
+        <v>0.01564757640190306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02115705281428211</v>
+        <v>0.01564757640190306</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.0211581549903262</v>
+        <v>0.01564801377792055</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02115713988628559</v>
+        <v>0.01564757640190306</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02115713988628559</v>
+        <v>0.01564757640190306</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -986,44 +986,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01257454187898167</v>
+        <v>-0.02895015043800602</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.009443602841744113</v>
+        <v>-0.01683367161734686</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.01134134790965392</v>
+        <v>0.005270560722822428</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01354971976888972</v>
+        <v>0.006968239646127269</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0222708800908352</v>
+        <v>-0.003981588543263541</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01020379029615161</v>
+        <v>-0.01207669382706775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.008582789613610036</v>
+        <v>0.002494442699214203</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02208150635526025</v>
+        <v>-0.005448456985938279</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02208150635526025</v>
+        <v>-0.005448456985938279</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.02208222203528888</v>
+        <v>-0.005448544441941777</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0220815275712611</v>
+        <v>-0.005448456985938279</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0220815275712611</v>
+        <v>-0.005448456985938279</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1051,44 +1051,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01802489668899587</v>
+        <v>-0.006618980424759216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02935640968625638</v>
+        <v>0.01662563970502559</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.02956419180656767</v>
+        <v>-0.02551162710046508</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01351894534502476</v>
+        <v>0.003883925985944186</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0180361050734442</v>
+        <v>-0.0196022574880903</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02196674103866964</v>
+        <v>0.01769320726772829</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01491610718546241</v>
+        <v>0.0004712809253249844</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01361091952043678</v>
+        <v>-0.01513272281330891</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01361091952043678</v>
+        <v>-0.01513272281330891</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01361067971242719</v>
+        <v>-0.01513336418933457</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01361118812844752</v>
+        <v>-0.01513272281330891</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01361118812844752</v>
+        <v>-0.01513272281330891</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1116,44 +1116,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.0110135975605439</v>
+        <v>-0.001780981319239252</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0009429528377181134</v>
+        <v>-0.00196987025479481</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.009974146862965874</v>
+        <v>0.008045883777835352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007723849665543396</v>
+        <v>-0.004660722670756902</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.005463013946520557</v>
+        <v>0.009574865086994603</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002161791062471642</v>
+        <v>-0.003044800153792006</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.003161540113612717</v>
+        <v>0.01039168360661212</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01010985582839423</v>
+        <v>0.007374535494981419</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01010985582839423</v>
+        <v>0.007374535494981419</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.0101097874763915</v>
+        <v>0.007374741990989679</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0101097900683916</v>
+        <v>0.007374535494981419</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0101097900683916</v>
+        <v>0.007374535494981419</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1177,44 +1177,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.122364901342596</v>
+        <v>0.1372878559875142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2739322870212915</v>
+        <v>0.2654456043458241</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.006009922032396881</v>
+        <v>-0.0007955465598218623</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00973970541237041</v>
+        <v>-0.02127046048419651</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.006678716907148675</v>
+        <v>0.006166517142660685</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.001699226851969074</v>
+        <v>-0.01768428272337131</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009512598438551529</v>
+        <v>-0.001140441478962831</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00808353478734139</v>
+        <v>0.004345403885816155</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00808353478734139</v>
+        <v>0.004345403885816155</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.008082972707318907</v>
+        <v>0.004345284365811373</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.008083260707330429</v>
+        <v>0.004345403885816155</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.008083260707330429</v>
+        <v>0.004345403885816155</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2481897655115906</v>
+        <v>-0.23661700143268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00596510827060433</v>
+        <v>0.0006189252727570108</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-0.005824556296982252</v>
+        <v>0.01250909358836374</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.008073181853630243</v>
+        <v>0.02147203260047696</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0131086325243453</v>
+        <v>-0.001510393404415736</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008871952386878094</v>
+        <v>-0.001257704210308168</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006663781176089961</v>
+        <v>0.01328352908255431</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01836409206256368</v>
+        <v>-0.004103684900147395</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01836409206256368</v>
+        <v>-0.004103684900147395</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.01836351951854077</v>
+        <v>-0.004103815460152619</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0183637224625489</v>
+        <v>-0.004103684900147395</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0183637224625489</v>
+        <v>-0.004103684900147395</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1303,44 +1303,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01206733190669327</v>
+        <v>-0.007104360092174403</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008566614198664566</v>
+        <v>-0.01166114235444569</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.003576334799053391</v>
+        <v>0.00919050027162001</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.002308725814041237</v>
+        <v>-0.00986017332234088</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007202975040119</v>
+        <v>-0.006150482550019301</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01022208232888329</v>
+        <v>-0.01352679135707165</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0006451569995094147</v>
+        <v>0.01820129719655752</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01317420695896828</v>
+        <v>-0.01293926480557059</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01317420695896828</v>
+        <v>-0.01293926480557059</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.01317437534297501</v>
+        <v>-0.01293987718959509</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01317438187097527</v>
+        <v>-0.01293926480557059</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01317438187097527</v>
+        <v>-0.01293926480557059</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1368,44 +1368,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.004794905471796219</v>
+        <v>0.0103537975021519</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.007119685916787436</v>
+        <v>-0.0008059194562367781</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-0.009668640578745622</v>
+        <v>0.04249710131588405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.016418328172278</v>
+        <v>-0.01151252792932238</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001014010696560427</v>
+        <v>0.03983173349726933</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.000965669702626788</v>
+        <v>-5.832729833309193e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01897468388200965</v>
+        <v>0.02761579952636551</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00609401227576049</v>
+        <v>0.03334768914190756</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00609401227576049</v>
+        <v>0.03334768914190756</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.006092855955714237</v>
+        <v>0.03334756894990275</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006093900915756035</v>
+        <v>0.03334768914190756</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006093900915756035</v>
+        <v>0.03334768914190756</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1433,44 +1433,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006910162740406509</v>
+        <v>-0.01367637174705487</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01063130442525218</v>
+        <v>-0.009508359644334384</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.01469088538763541</v>
+        <v>0.006195038935801557</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003237543957545683</v>
+        <v>0.005627387921306281</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00982271079290843</v>
+        <v>0.01774646691785867</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.006534425637377024</v>
+        <v>-0.006965626934625076</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.008043675420594684</v>
+        <v>-0.01198376013767749</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008495334387813375</v>
+        <v>0.01646316382652655</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008495334387813375</v>
+        <v>0.01646316382652655</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.00849503073980123</v>
+        <v>0.01646302357052094</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008495296755811869</v>
+        <v>0.01646316382652655</v>
       </c>
       <c r="R15" t="n">
-        <v>0.008495296755811869</v>
+        <v>0.01646316382652655</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1498,44 +1498,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.02671727828469113</v>
+        <v>-0.03850821062832842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01187364479494579</v>
+        <v>0.001442512665700506</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>-0.0004396648495865939</v>
+        <v>0.01063482628139305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006463134096842622</v>
+        <v>-0.03610644054995379</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007200610560024421</v>
+        <v>0.0016738649949546</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005726904229076169</v>
+        <v>-0.00457620200704808</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.006777764767070316</v>
+        <v>0.0118839691874681</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005081456651258265</v>
+        <v>0.002074597234983889</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005081456651258265</v>
+        <v>0.002074597234983889</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.005081426891257075</v>
+        <v>0.002073996274959851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005081319947252797</v>
+        <v>0.002074597234983889</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005081319947252797</v>
+        <v>0.002074597234983889</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.002309634524385381</v>
+        <v>0.01272683830107353</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006570467302818691</v>
+        <v>0.02845959675438387</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.006801880592075223</v>
+        <v>-0.005951688334067532</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00321283623122594</v>
+        <v>0.01875625817999487</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.01323320980932839</v>
+        <v>0.003092654043706161</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007193015327720613</v>
+        <v>0.02882727782509111</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01626272821192948</v>
+        <v>-0.001526256430969781</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01494317032572681</v>
+        <v>0.00402294726491789</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01494317032572681</v>
+        <v>0.00402294726491789</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.01494330030973201</v>
+        <v>0.004022955616918224</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01494336722173469</v>
+        <v>0.00402294726491789</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01494336722173469</v>
+        <v>0.00402294726491789</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1624,44 +1624,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.06971249770049991</v>
+        <v>-0.03195523107020923</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.004741255389650215</v>
+        <v>0.004848441889937675</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.001983348463333938</v>
+        <v>0.01594002303760092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005964633648733071</v>
+        <v>-0.0002331509843615382</v>
       </c>
       <c r="H18" t="n">
-        <v>0.008496476019859039</v>
+        <v>0.002700124140004965</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1668378565935142</v>
+        <v>0.1819068643002746</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01522442771634396</v>
+        <v>-0.001950206281349636</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007817697336707893</v>
+        <v>-0.001576403967056158</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007817697336707893</v>
+        <v>-0.001576403967056158</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.007818160152726406</v>
+        <v>-0.001576574079062963</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.007817563992702559</v>
+        <v>-0.001576403967056158</v>
       </c>
       <c r="R18" t="n">
-        <v>0.007817563992702559</v>
+        <v>-0.001576403967056158</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1689,44 +1689,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.009769040262761609</v>
+        <v>0.01942644874505795</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.005024797256991891</v>
+        <v>0.003681679443267178</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.3477923373036935</v>
+        <v>0.3234155862486234</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01514693122710279</v>
+        <v>0.02340809268300184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2449979400079176</v>
+        <v>0.2128371705294868</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008145658213826328</v>
+        <v>0.01345383817015353</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1843291762163188</v>
+        <v>0.1513832904116739</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1779493536139741</v>
+        <v>0.1534878409875136</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1779493536139741</v>
+        <v>0.1534878409875136</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.1779486054859442</v>
+        <v>0.1534871962514879</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1779493814539752</v>
+        <v>0.1534878409875136</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1779493814539752</v>
+        <v>0.1534878409875136</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01084056148962246</v>
+        <v>-0.01281598304063932</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.006169556118782244</v>
+        <v>0.0001811943432477737</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.009340302997612118</v>
+        <v>0.01527973385918935</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01455200875719432</v>
+        <v>-0.01366611155799702</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005836704233468169</v>
+        <v>-0.008545546613821864</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.01076469134258765</v>
+        <v>-0.0001040154281606171</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009141006175795221</v>
+        <v>0.00710496221809917</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002491949859677994</v>
+        <v>-0.01402207976088319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002491949859677994</v>
+        <v>-0.01402207976088319</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.002491542915661716</v>
+        <v>-0.01402167656086706</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.002491994595679783</v>
+        <v>-0.01402207976088319</v>
       </c>
       <c r="R20" t="n">
-        <v>0.002491994595679783</v>
+        <v>-0.01402207976088319</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02624651480986059</v>
+        <v>0.05024914664996586</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01017601365504055</v>
+        <v>-0.003839358873574354</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.4121498399739935</v>
+        <v>0.3805104478604178</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01607788311236881</v>
+        <v>0.01397317757417013</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3069073659722946</v>
+        <v>0.2873350578934022</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002046279153851166</v>
+        <v>0.01137161018286441</v>
       </c>
       <c r="J21" t="n">
-        <v>0.240822059483943</v>
+        <v>0.1988004453461589</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2337086487723459</v>
+        <v>0.2282454299618172</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2337086487723459</v>
+        <v>0.2282454299618172</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.2337079080363163</v>
+        <v>0.2282454194978167</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2337083162283326</v>
+        <v>0.2282454299618172</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2337083162283326</v>
+        <v>0.2282454299618172</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.005804179144167165</v>
+        <v>0.03591237791649511</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01713025143721005</v>
+        <v>0.01242534222501369</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-0.03256439045457561</v>
+        <v>-0.003046159129846365</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01543621462186746</v>
+        <v>-0.004196184408110613</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03583542344941693</v>
+        <v>0.01805804213032168</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01422955064918202</v>
+        <v>0.007058029146321165</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.04121597302006619</v>
+        <v>-0.006991585011044387</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03189853903594156</v>
+        <v>0.02248499907539996</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03189853903594156</v>
+        <v>0.02248499907539996</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>-0.03189910015596401</v>
+        <v>0.02248467037138682</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03189892533995701</v>
+        <v>0.02248499907539996</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03189892533995701</v>
+        <v>0.02248499907539996</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1937,44 +1937,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.04447702958708118</v>
+        <v>0.03768182809927311</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01255258629410345</v>
+        <v>-0.004003539328141572</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.5324318991212759</v>
+        <v>0.5648460740498429</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01681554191059145</v>
+        <v>0.006732498863373537</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3493670317026812</v>
+        <v>0.3575813793592552</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01575193167007726</v>
+        <v>0.02860057986402319</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4656513342284877</v>
+        <v>0.5073210507675452</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2346401639776065</v>
+        <v>0.2463464564778582</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2346401639776065</v>
+        <v>0.2463464564778582</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.234639350281574</v>
+        <v>0.2463463518378541</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2346397947615917</v>
+        <v>0.2463464564778582</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2346397947615917</v>
+        <v>0.2463464564778582</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04612750322110012</v>
+        <v>0.04515244913409796</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02253726483749059</v>
+        <v>-0.0008729135389165415</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.6274478860259154</v>
+        <v>0.6143886440635457</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00812370527106095</v>
+        <v>-0.005579033462587851</v>
       </c>
       <c r="H24" t="n">
-        <v>0.375213551264542</v>
+        <v>0.3878101950324077</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0569299025971961</v>
+        <v>0.03434912921396516</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2763214417699251</v>
+        <v>0.2439418502510377</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2353395222775808</v>
+        <v>0.2691591033743641</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2353395222775808</v>
+        <v>0.2691591033743641</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2353391611255664</v>
+        <v>0.2691593656463746</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2353394961655798</v>
+        <v>0.2691591033743641</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2353394961655798</v>
+        <v>0.2691591033743641</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2063,44 +2063,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05570251202010047</v>
+        <v>0.05572690130107604</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0109187299727492</v>
+        <v>0.01570372123614885</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.01262806216912249</v>
+        <v>0.02702346175293847</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03596758070735099</v>
+        <v>-0.02834039813297734</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7339071143802843</v>
+        <v>0.7428746429309856</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1442909472116379</v>
+        <v>-0.1438246218169849</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2805631259976858</v>
+        <v>-0.2776638203013536</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8651985131999405</v>
+        <v>0.8631704846068193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8651985131999405</v>
+        <v>0.8631704846068193</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.8651991897119675</v>
+        <v>0.8631704610868183</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8651987075039482</v>
+        <v>0.8631704846068193</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8651987075039482</v>
+        <v>0.8631704846068193</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.020621825048873</v>
+        <v>0.03533937059757482</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01001658673666347</v>
+        <v>-0.009466703898668154</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.01020717717628709</v>
+        <v>-0.01580159016806361</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.009185878879728639</v>
+        <v>0.007869837266799294</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01484679217787168</v>
+        <v>-0.02275145217405809</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1167475337899013</v>
+        <v>-0.1275863775514551</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.002202676790891927</v>
+        <v>0.006985096322640635</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01434197414167896</v>
+        <v>-0.02152602239704089</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01434197414167896</v>
+        <v>-0.02152602239704089</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.01434230841369234</v>
+        <v>-0.02152614806104592</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0143421425256857</v>
+        <v>-0.02152602239704089</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0143421425256857</v>
+        <v>-0.02152602239704089</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2189,44 +2189,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01659769151190766</v>
+        <v>0.001151963374078535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01890344744413789</v>
+        <v>0.007169562910782515</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.005322175124887005</v>
+        <v>0.001759109830364393</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01882737379845932</v>
+        <v>0.009877079648237591</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.004197316679892666</v>
+        <v>0.02526478209859128</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02216655525466221</v>
+        <v>0.001521844956873798</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0055873416061688</v>
+        <v>-0.005189310658899667</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.007608929584357182</v>
+        <v>0.0305934225357369</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.007608929584357182</v>
+        <v>0.0305934225357369</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.007608734608349383</v>
+        <v>0.03059352141574085</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.007608856048354241</v>
+        <v>0.0305934225357369</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.007608856048354241</v>
+        <v>0.0305934225357369</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2254,44 +2254,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.003460388586415543</v>
+        <v>0.005386687703467507</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008152086854083472</v>
+        <v>0.02042471112098844</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.00825384877815395</v>
+        <v>-0.006659599082383961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01601739480168638</v>
+        <v>-0.02000724944109788</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.002271765594870623</v>
+        <v>-0.02713225577329023</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.009295592339823692</v>
+        <v>0.03124697328187893</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.01179802838651126</v>
+        <v>0.001456822746649339</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.002362167550486702</v>
+        <v>-0.02846957768278311</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.002362167550486702</v>
+        <v>-0.02846957768278311</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.002361709630468385</v>
+        <v>-0.0284694976187799</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.002362346014493841</v>
+        <v>-0.02846957768278311</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.002362346014493841</v>
+        <v>-0.02846957768278311</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2319,44 +2319,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.004290027339601093</v>
+        <v>-0.009201570608062823</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01661224492048979</v>
+        <v>0.01424484632979385</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.00597050375882015</v>
+        <v>-0.007303751812150072</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01342020554560396</v>
+        <v>-0.00442381736825508</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01008008142720326</v>
+        <v>-0.0010416274976651</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0152566074582643</v>
+        <v>0.01436933673477347</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02266409337194908</v>
+        <v>-0.01534720727496463</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01345922770636911</v>
+        <v>0.000996231975849279</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01345922770636911</v>
+        <v>0.000996231975849279</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.01345858431434337</v>
+        <v>0.0009964375118575002</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01345925055437002</v>
+        <v>0.000996231975849279</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01345925055437002</v>
+        <v>0.000996231975849279</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2384,44 +2384,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005655796450231858</v>
+        <v>0.01279103388764135</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01542497485699899</v>
+        <v>-0.03344480927379236</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.005622416096896643</v>
+        <v>0.01490578034023121</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001877693358226282</v>
+        <v>0.007693500003727842</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003365918822636752</v>
+        <v>0.009754593990183757</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01292798797311952</v>
+        <v>-0.02881285305651412</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02002661503442991</v>
+        <v>0.004675529858930171</v>
       </c>
       <c r="K30" t="n">
-        <v>0.007794037079761482</v>
+        <v>0.006859257970370319</v>
       </c>
       <c r="L30" t="n">
-        <v>0.007794037079761482</v>
+        <v>0.006859257970370319</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.007794213143768524</v>
+        <v>0.006859317970372718</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.007794142007765679</v>
+        <v>0.006859257970370319</v>
       </c>
       <c r="R30" t="n">
-        <v>0.007794142007765679</v>
+        <v>0.006859257970370319</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2449,44 +2449,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01340840453633618</v>
+        <v>-0.00543182450527298</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02025557121022284</v>
+        <v>-0.02334369789374791</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.004441910673676427</v>
+        <v>0.0007264398050575922</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01051316810346227</v>
+        <v>-0.0004022310172927133</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01342320552892822</v>
+        <v>0.005836172873446913</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0177982724559309</v>
+        <v>-0.02791722812468912</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0215918403142843</v>
+        <v>0.0044790836067065</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01003783768151351</v>
+        <v>0.007282886883315474</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.01003783768151351</v>
+        <v>0.007282886883315474</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.01003856430554257</v>
+        <v>0.007283247939329916</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.01003763732950549</v>
+        <v>0.007282886883315474</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.01003763732950549</v>
+        <v>0.007282886883315474</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2514,44 +2514,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002502678436107137</v>
+        <v>0.01894866632594665</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01117334454293378</v>
+        <v>-0.002615932040637281</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>-0.03400529627221185</v>
+        <v>0.01696761677470467</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0002447481353462698</v>
+        <v>0.005862384550017585</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.02244917331396693</v>
+        <v>0.00846790277071611</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.007829533369181334</v>
+        <v>-0.001938463469538539</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0162142259849592</v>
+        <v>0.01009029489985851</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.01270947775637911</v>
+        <v>0.004327037837081513</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01270947775637911</v>
+        <v>0.004327037837081513</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.01270950415638017</v>
+        <v>0.00432675799707032</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.01270959737238389</v>
+        <v>0.004327037837081513</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.01270959737238389</v>
+        <v>0.004327037837081513</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2579,44 +2579,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.02960044044801761</v>
+        <v>0.01922648985705959</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001813062024522481</v>
+        <v>0.01630701386828055</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.007309056772362269</v>
+        <v>-0.006994684695787387</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02136498458634498</v>
+        <v>0.01931565920742632</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004344220493768819</v>
+        <v>-0.02462594431303777</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005339030325561212</v>
+        <v>0.01769069801962792</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.005713865389917117</v>
+        <v>0.002758382475637592</v>
       </c>
       <c r="K33" t="n">
-        <v>0.006665496074619842</v>
+        <v>-0.02659425149577006</v>
       </c>
       <c r="L33" t="n">
-        <v>0.006665496074619842</v>
+        <v>-0.02659425149577006</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.00666570401062816</v>
+        <v>-0.02659416384776655</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.006665600618624025</v>
+        <v>-0.02659425149577006</v>
       </c>
       <c r="R33" t="n">
-        <v>0.006665600618624025</v>
+        <v>-0.02659425149577006</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2644,44 +2644,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01153635598145424</v>
+        <v>0.003427961129118445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01138237082329483</v>
+        <v>-0.0162324076572963</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.008607696056307842</v>
+        <v>-0.01938267475930699</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02676107481274944</v>
+        <v>-0.02446634743715357</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0004148388645935545</v>
+        <v>-0.03509906521196261</v>
       </c>
       <c r="I34" t="n">
-        <v>0.009421451896858075</v>
+        <v>-0.01124344115373765</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.004691596367313362</v>
+        <v>-0.005558665545882406</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003900743868029754</v>
+        <v>-0.03723331348933253</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003900743868029754</v>
+        <v>-0.03723331348933253</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.003901428732057149</v>
+        <v>-0.03723340401733615</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.003901068732042749</v>
+        <v>-0.03723331348933253</v>
       </c>
       <c r="R34" t="n">
-        <v>0.003901068732042749</v>
+        <v>-0.03723331348933253</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2709,44 +2709,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01498248165529926</v>
+        <v>0.0132346701613868</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02218259157530366</v>
+        <v>0.01363320092932804</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.004281679851267194</v>
+        <v>-0.005867536842701472</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.002839860603496149</v>
+        <v>0.004755152768929411</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01568360616334424</v>
+        <v>0.00512685601307424</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01903210636128425</v>
+        <v>0.0121781724551269</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.001635301972145893</v>
+        <v>-0.02324897055064394</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0193938425357537</v>
+        <v>0.008680291259211648</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0193938425357537</v>
+        <v>0.008680291259211648</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.01939271338370853</v>
+        <v>0.008680140539205621</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01939350615174024</v>
+        <v>0.008680291259211648</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01939350615174024</v>
+        <v>0.008680291259211648</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2774,44 +2774,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02430466676418667</v>
+        <v>0.004773547198941888</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002515635364625415</v>
+        <v>-0.009484092667363705</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.01591402978856119</v>
+        <v>-0.005395216919808676</v>
       </c>
       <c r="G36" t="n">
-        <v>0.008878036542668985</v>
+        <v>0.02113547805712719</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.004446259377850374</v>
+        <v>-0.003077592411103696</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.003209677664387106</v>
+        <v>-0.01406126773045071</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004274851653791915</v>
+        <v>0.006108620540102806</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.008410273680410946</v>
+        <v>-0.0006259786810391472</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.008410273680410946</v>
+        <v>-0.0006259786810391472</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.00841071528042861</v>
+        <v>-0.0006265898170635927</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.008410539408421574</v>
+        <v>-0.0006259786810391472</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.008410539408421574</v>
+        <v>-0.0006259786810391472</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2839,44 +2839,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01490312421212497</v>
+        <v>-0.0113114201964568</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01464582970583318</v>
+        <v>0.0137859299274372</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-0.02571896320475853</v>
+        <v>0.0241137902445516</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007118063202078837</v>
+        <v>-0.004955296150112554</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.02595780430231217</v>
+        <v>0.02540648741625949</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01236237543849502</v>
+        <v>0.009725492741019708</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003645194575231716</v>
+        <v>0.01614754252476469</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08953490258939609</v>
+        <v>0.02146353676254147</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08953490258939609</v>
+        <v>0.02146353676254147</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.08953467324538691</v>
+        <v>0.02146328063453122</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08953469830138791</v>
+        <v>0.02146353676254147</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08953469830138791</v>
+        <v>0.02146353676254147</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2891,6 +2891,71 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01375198221407929</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02315309036612361</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-0.005818237384729494</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.008804050488192394</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01355282905411316</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.02636794924671797</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.008528874722700702</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.09721601102464042</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.09721601102464042</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>0.09721561675262465</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.09721601102464042</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.09721601102464042</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,44 +734,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001518318108732724</v>
+        <v>-0.07484456094578243</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002440304641612186</v>
+        <v>0.004105185985970003</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.0008292941131717646</v>
+        <v>0.02410464230818569</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003172265145129379</v>
+        <v>-0.03439451014073296</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01685983094639324</v>
+        <v>-0.5107077242683089</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004083328675333147</v>
+        <v>0.407917551452702</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01208809448016959</v>
+        <v>-0.09353866282814248</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01760355536014221</v>
+        <v>-0.5589540514461619</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01760355536014221</v>
+        <v>-0.5589540514461619</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.01760414470416579</v>
+        <v>-0.5589538905501557</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01760355536014221</v>
+        <v>-0.5589538713501547</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01760355536014221</v>
+        <v>-0.5589538713501547</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,44 +795,44 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.009220427408817095</v>
+        <v>0.01206968909078756</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01886649176265967</v>
+        <v>-0.01523890762788226</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.01930894176435767</v>
+        <v>-0.01003025694521028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01062561738827025</v>
+        <v>-0.01089885719254219</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004125332517013301</v>
+        <v>0.003149987645999506</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009963135470525417</v>
+        <v>-0.003537140685485627</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01626895867631969</v>
+        <v>-0.003161124716580056</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.005391140471645618</v>
+        <v>0.00502946400917856</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.005391140471645618</v>
+        <v>0.00502946400917856</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.005390941655637665</v>
+        <v>0.005029448457177938</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.005391140471645618</v>
+        <v>0.005029552137182085</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.005391140471645618</v>
+        <v>0.005029552137182085</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -852,48 +852,48 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Capacity [ton/hr]</t>
+          <t>Cane operating days [day/yr]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2103740895989636</v>
+        <v>0.2032222799688912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579101443324056</v>
+        <v>-0.006020179221566902</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.003546465357858613</v>
+        <v>-0.003470925546837021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03505249070660543</v>
+        <v>0.0111402687731536</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002018905040756201</v>
+        <v>0.005434200793368031</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9570899158835965</v>
+        <v>-0.7610664189226566</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.006947756352317192</v>
+        <v>0.01638772316962601</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.001628774177150967</v>
+        <v>0.007759112374364494</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.001628774177150967</v>
+        <v>0.007759112374364494</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.001628421857136874</v>
+        <v>0.007759128790365151</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.001628774177150967</v>
+        <v>0.007758821878352873</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.001628774177150967</v>
+        <v>0.007758821878352873</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -910,55 +910,51 @@
       <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Stream-ethanol</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Sorghum operating days [day/yr]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9294598989383958</v>
+        <v>-0.004195926887837075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02428762417150496</v>
+        <v>0.009372664119801598</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.01695514330220573</v>
+        <v>-0.002927206869088274</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009917860814668489</v>
+        <v>0.02519354519028643</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01928205379528215</v>
+        <v>0.01958472577538903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0245176349967054</v>
+        <v>-0.01437142819085713</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01577294147745551</v>
+        <v>0.002998591282883962</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01564757640190306</v>
+        <v>0.02098685719147429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01564757640190306</v>
+        <v>0.02098685719147429</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.01564801377792055</v>
+        <v>0.02098678058347122</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01564757640190306</v>
+        <v>0.02098664138346566</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01564757640190306</v>
+        <v>0.02098664138346566</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -975,55 +971,51 @@
       <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Stream-biodiesel</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Annual crushing capacity [ton/yr]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02895015043800602</v>
+        <v>0.0178220925528837</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01683367161734686</v>
+        <v>-0.01566713282232282</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.005270560722822428</v>
+        <v>-0.007067435322697412</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006968239646127269</v>
+        <v>0.002360174271744554</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003981588543263541</v>
+        <v>-0.02265699047427962</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01207669382706775</v>
+        <v>-0.003796480183859207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002494442699214203</v>
+        <v>0.0008332270577069935</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.005448456985938279</v>
+        <v>-0.02283651316946052</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.005448456985938279</v>
+        <v>-0.02283651316946052</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.005448544441941777</v>
+        <v>-0.02283648321745933</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.005448456985938279</v>
+        <v>-0.02283683457747338</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.005448456985938279</v>
+        <v>-0.02283683457747338</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1042,53 +1034,53 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-ethanol</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/cf]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.006618980424759216</v>
+        <v>0.9308762207870487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01662563970502559</v>
+        <v>-0.006638800887286027</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.02551162710046508</v>
+        <v>-0.03249224376368975</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003883925985944186</v>
+        <v>-0.004868739028681682</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0196022574880903</v>
+        <v>-0.006818792336751693</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01769320726772829</v>
+        <v>-0.008916566756662671</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004712809253249844</v>
+        <v>-0.01251665345069348</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01513272281330891</v>
+        <v>-0.001788326087533043</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01513272281330891</v>
+        <v>-0.001788326087533043</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01513336418933457</v>
+        <v>-0.00178842026353681</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01513272281330891</v>
+        <v>-0.001788197543527901</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01513272281330891</v>
+        <v>-0.001788197543527901</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1107,53 +1099,53 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Stream-biodiesel</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWhr]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.001780981319239252</v>
+        <v>0.004746925533877021</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00196987025479481</v>
+        <v>-0.02058368314248109</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.008045883777835352</v>
+        <v>-0.007559965934398636</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004660722670756902</v>
+        <v>-0.009690931692854709</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009574865086994603</v>
+        <v>-0.005500081852003273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.003044800153792006</v>
+        <v>-0.01872755143710206</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01039168360661212</v>
+        <v>0.007059810517160058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007374535494981419</v>
+        <v>-0.002581104487244179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007374535494981419</v>
+        <v>-0.002581104487244179</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.007374741990989679</v>
+        <v>-0.002581116295244651</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007374535494981419</v>
+        <v>-0.002581298887251955</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007374535494981419</v>
+        <v>-0.002581298887251955</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1170,51 +1162,55 @@
       <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Operating days [day/yr]</t>
+          <t>Price [USD/cf]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1372878559875142</v>
+        <v>0.008491128339645132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2654456043458241</v>
+        <v>0.005023963469054279</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.0007955465598218623</v>
+        <v>0.002934909909396396</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02127046048419651</v>
+        <v>0.01858467745860167</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006166517142660685</v>
+        <v>0.006434423009376919</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01768428272337131</v>
+        <v>0.002683439339337573</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.001140441478962831</v>
+        <v>-0.008063278657022954</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004345403885816155</v>
+        <v>0.009155633646225346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004345403885816155</v>
+        <v>0.009155633646225346</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.004345284365811373</v>
+        <v>0.009155628270225129</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004345403885816155</v>
+        <v>0.009155753838230153</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004345403885816155</v>
+        <v>0.009155753838230153</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1231,51 +1227,55 @@
       <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>biorefinery</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>IRR [%]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.23661700143268</v>
+        <v>-0.01758493884739755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006189252727570108</v>
+        <v>-0.02340945404853195</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01250909358836374</v>
+        <v>0.01502082204083288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02147203260047696</v>
+        <v>-0.02806775027695987</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.001510393404415736</v>
+        <v>-0.002801090320043612</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001257704210308168</v>
+        <v>0.02130158312406332</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01328352908255431</v>
+        <v>-0.007333711253499879</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.004103684900147395</v>
+        <v>-0.007692815731712628</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.004103684900147395</v>
+        <v>-0.007692815731712628</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.004103815460152619</v>
+        <v>-0.007692300595692023</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.004103684900147395</v>
+        <v>-0.00769254328370173</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.004103684900147395</v>
+        <v>-0.00769254328370173</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1292,55 +1292,51 @@
       <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Stream-crude glycerol</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>IRR [%]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.007104360092174403</v>
+        <v>-0.2598458999298359</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01166114235444569</v>
+        <v>0.007670992405949067</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.00919050027162001</v>
+        <v>0.01420379173615167</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.00986017332234088</v>
+        <v>-0.007906948163011381</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.006150482550019301</v>
+        <v>0.004074576162983046</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01352679135707165</v>
+        <v>0.01458379479135179</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01820129719655752</v>
+        <v>0.001127257411247668</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01293926480557059</v>
+        <v>-0.0008898343075933722</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01293926480557059</v>
+        <v>-0.0008898343075933722</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.01293987718959509</v>
+        <v>-0.0008898920035956801</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01293926480557059</v>
+        <v>-0.0008900398436015937</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01293926480557059</v>
+        <v>-0.0008900398436015937</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1359,7 +1355,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-crude glycerol</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1368,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0103537975021519</v>
+        <v>-0.005520314620812584</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0008059194562367781</v>
+        <v>-0.01412624378316738</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.04249710131588405</v>
+        <v>0.0299132349565294</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01151252792932238</v>
+        <v>-0.001644998464393807</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03983173349726933</v>
+        <v>-0.01281935388877416</v>
       </c>
       <c r="I14" t="n">
-        <v>-5.832729833309193e-05</v>
+        <v>0.01449791145991646</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02761579952636551</v>
+        <v>0.007535982929566597</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03334768914190756</v>
+        <v>-0.01949962868398515</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03334768914190756</v>
+        <v>-0.01949962868398515</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.03334756894990275</v>
+        <v>-0.01950005847600234</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03334768914190756</v>
+        <v>-0.01949976913199076</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03334768914190756</v>
+        <v>-0.01949976913199076</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1424,53 +1420,53 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Saccharification</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Reaction time [hr]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01367637174705487</v>
+        <v>0.003498112171924486</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.009508359644334384</v>
+        <v>-0.002266288518184972</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.006195038935801557</v>
+        <v>-0.0003461586378463455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005627387921306281</v>
+        <v>-0.01425970610398375</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01774646691785867</v>
+        <v>-0.005306334260253369</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.006965626934625076</v>
+        <v>0.01911184156447366</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01198376013767749</v>
+        <v>-0.01048929312174927</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01646316382652655</v>
+        <v>-0.005334253077370122</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01646316382652655</v>
+        <v>-0.005334253077370122</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.01646302357052094</v>
+        <v>-0.005334240213369607</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01646316382652655</v>
+        <v>-0.005334149493365979</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01646316382652655</v>
+        <v>-0.005334149493365979</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1489,53 +1485,53 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>cellulase</t>
+          <t>Saccharification</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>Reaction time [hr]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.03850821062832842</v>
+        <v>-0.004664532858581314</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001442512665700506</v>
+        <v>0.01278938657436501</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.01063482628139305</v>
+        <v>0.0269164076366563</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03610644054995379</v>
+        <v>-0.005419048828151941</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0016738649949546</v>
+        <v>0.006880519571220781</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.00457620200704808</v>
+        <v>-0.02492169094886764</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0118839691874681</v>
+        <v>0.03330660529893886</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002074597234983889</v>
+        <v>0.002292424603696984</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002074597234983889</v>
+        <v>0.002292424603696984</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.002073996274959851</v>
+        <v>0.002292878971715159</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002074597234983889</v>
+        <v>0.0022925974997039</v>
       </c>
       <c r="R16" t="n">
-        <v>0.002074597234983889</v>
+        <v>0.0022925974997039</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1552,51 +1548,55 @@
       <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>cellulase</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Cellulase loading [wt. % cellulose]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01272683830107353</v>
+        <v>-0.06604712846588513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02845959675438387</v>
+        <v>-0.02606057326147164</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.005951688334067532</v>
+        <v>0.009839981673599266</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01875625817999487</v>
+        <v>-0.01143439171686705</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003092654043706161</v>
+        <v>-0.005628480321139212</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02882727782509111</v>
+        <v>-0.007136713341468533</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.001526256430969781</v>
+        <v>-0.01391038546983796</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00402294726491789</v>
+        <v>-0.009940553005622119</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00402294726491789</v>
+        <v>-0.009940553005622119</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.004022955616918224</v>
+        <v>-0.009940414765616589</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00402294726491789</v>
+        <v>-0.009940607917624316</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00402294726491789</v>
+        <v>-0.009940607917624316</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1613,55 +1613,51 @@
       <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Pretreatment reactor system</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Base cost [million USD]</t>
+          <t>Cellulase loading [wt. % cellulose]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.03195523107020923</v>
+        <v>-0.01528403331536133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004848441889937675</v>
+        <v>0.004144466447644215</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.01594002303760092</v>
+        <v>0.02286927691477107</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0002331509843615382</v>
+        <v>-0.02143457088080318</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002700124140004965</v>
+        <v>0.0001753987270159491</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1819068643002746</v>
+        <v>0.008536903637476143</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.001950206281349636</v>
+        <v>-0.01368815332858048</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001576403967056158</v>
+        <v>-0.006012464976498598</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.001576403967056158</v>
+        <v>-0.006012464976498598</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.001576574079062963</v>
+        <v>-0.006012094896483795</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.001576403967056158</v>
+        <v>-0.006012410064496401</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.001576403967056158</v>
+        <v>-0.006012410064496401</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1680,53 +1676,53 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment and saccharification</t>
+          <t>Pretreatment reactor system</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Cane glucose yield [%]</t>
+          <t>Base cost [million USD]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01942644874505795</v>
+        <v>-0.03811003237240129</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003681679443267178</v>
+        <v>-0.009136955657129801</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.3234155862486234</v>
+        <v>-0.002408963808358552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02340809268300184</v>
+        <v>-0.0004633659796686961</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2128371705294868</v>
+        <v>0.003652550738102029</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01345383817015353</v>
+        <v>0.2033956239118249</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1513832904116739</v>
+        <v>0.01402246955652445</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1534878409875136</v>
+        <v>0.003288301475532059</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1534878409875136</v>
+        <v>0.003288301475532059</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.1534871962514879</v>
+        <v>0.003288212483528499</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1534878409875136</v>
+        <v>0.003288128483525139</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1534878409875136</v>
+        <v>0.003288128483525139</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1743,51 +1739,55 @@
       <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Pretreatment and saccharification</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Sorghum glucose yield [%]</t>
+          <t>Cane glucose yield [%]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01281598304063932</v>
+        <v>0.00123760449750418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001811943432477737</v>
+        <v>-0.01695011170221138</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.01527973385918935</v>
+        <v>0.3505009442920377</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01366611155799702</v>
+        <v>-0.003929379469911538</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.008545546613821864</v>
+        <v>0.1428588059063522</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0001040154281606171</v>
+        <v>0.03425940108237604</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00710496221809917</v>
+        <v>0.1637655619935984</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01402207976088319</v>
+        <v>0.08341250570450022</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01402207976088319</v>
+        <v>0.08341250570450022</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.01402167656086706</v>
+        <v>0.08341274666450985</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01402207976088319</v>
+        <v>0.08341253642450144</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01402207976088319</v>
+        <v>0.08341253642450144</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1807,48 +1807,48 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Cane xylose yield [%]</t>
+          <t>Sorghum glucose yield [%]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05024914664996586</v>
+        <v>-0.0263120902044836</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003839358873574354</v>
+        <v>0.01144012428231588</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.3805104478604178</v>
+        <v>-0.006025743217029728</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01397317757417013</v>
+        <v>-0.01277327388752944</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2873350578934022</v>
+        <v>-0.01691770243670809</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01137161018286441</v>
+        <v>0.03129833165193326</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1988004453461589</v>
+        <v>-0.01849433836729825</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2282454299618172</v>
+        <v>-0.01576236687049467</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2282454299618172</v>
+        <v>-0.01576236687049467</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.2282454194978167</v>
+        <v>-0.01576248120649925</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2282454299618172</v>
+        <v>-0.01576246018249841</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2282454299618172</v>
+        <v>-0.01576246018249841</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1868,48 +1868,48 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sorghum xylose yield [%]</t>
+          <t>Cane xylose yield [%]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03591237791649511</v>
+        <v>-0.006916524852660992</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01242534222501369</v>
+        <v>0.00744695304910848</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-0.003046159129846365</v>
+        <v>0.3980918355716734</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004196184408110613</v>
+        <v>-0.03269182121450284</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01805804213032168</v>
+        <v>0.2270217170488686</v>
       </c>
       <c r="I22" t="n">
-        <v>0.007058029146321165</v>
+        <v>0.01185139103405564</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.006991585011044387</v>
+        <v>0.1690558098771934</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02248499907539996</v>
+        <v>0.1645124605964984</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02248499907539996</v>
+        <v>0.1645124605964984</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.02248467037138682</v>
+        <v>0.1645130743245229</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02248499907539996</v>
+        <v>0.1645127046285081</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02248499907539996</v>
+        <v>0.1645127046285081</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1926,55 +1926,51 @@
       <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Cofermenation</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Glucose to ethanol yield [%]</t>
+          <t>Sorghum xylose yield [%]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03768182809927311</v>
+        <v>0.003843160953726438</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004003539328141572</v>
+        <v>-0.03022284232310667</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.5648460740498429</v>
+        <v>-0.003349039525961581</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006732498863373537</v>
+        <v>0.03027457966248461</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3575813793592552</v>
+        <v>0.007773545398941815</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02860057986402319</v>
+        <v>-0.004154200966168038</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5073210507675452</v>
+        <v>0.01350090248540984</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2463464564778582</v>
+        <v>0.01093278917331156</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2463464564778582</v>
+        <v>0.01093278917331156</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.2463463518378541</v>
+        <v>0.01093300152532006</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2463464564778582</v>
+        <v>0.01093306440532257</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2463464564778582</v>
+        <v>0.01093306440532257</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1991,51 +1987,55 @@
       <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Cofermenation</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Xylose to ethanol yield [%]</t>
+          <t>Glucose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04515244913409796</v>
+        <v>-6.525811461032457e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0008729135389165415</v>
+        <v>-0.01836508835682185</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.6143886440635457</v>
+        <v>0.5533160485966419</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005579033462587851</v>
+        <v>-0.005085766491381809</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3878101950324077</v>
+        <v>0.2455178093087123</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03434912921396516</v>
+        <v>0.03808305752332229</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2439418502510377</v>
+        <v>0.4542066288721507</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2691591033743641</v>
+        <v>0.1510659883146395</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2691591033743641</v>
+        <v>0.1510659883146395</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2691593656463746</v>
+        <v>0.151065900858636</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2691591033743641</v>
+        <v>0.1510657865226314</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2691591033743641</v>
+        <v>0.1510657865226314</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2052,55 +2052,51 @@
       <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cofermentation</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Titer [g/L]</t>
+          <t>Xylose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05572690130107604</v>
+        <v>0.01970278619611145</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01570372123614885</v>
+        <v>-0.0005270720553200902</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.02702346175293847</v>
+        <v>0.6162595102823802</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02834039813297734</v>
+        <v>-0.008509130320904593</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7428746429309856</v>
+        <v>0.284903326532133</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1438246218169849</v>
+        <v>0.06093821178152847</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2776638203013536</v>
+        <v>0.2048536969247522</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8631704846068193</v>
+        <v>0.1804384276015371</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8631704846068193</v>
+        <v>0.1804384276015371</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.8631704610868183</v>
+        <v>0.1804385178415407</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8631704846068193</v>
+        <v>0.180438425201537</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8631704846068193</v>
+        <v>0.180438425201537</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2117,51 +2113,55 @@
       <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Cofermentation</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Productivity [g/L]</t>
+          <t>Titer [g/L]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03533937059757482</v>
+        <v>0.03066448452257938</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009466703898668154</v>
+        <v>0.01585456305759128</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.01580159016806361</v>
+        <v>-0.02557948844717953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007869837266799294</v>
+        <v>-0.02735180166708256</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02275145217405809</v>
+        <v>0.4663403215976127</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1275863775514551</v>
+        <v>-0.1791814078712563</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006985096322640635</v>
+        <v>-0.3642716055709869</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02152602239704089</v>
+        <v>0.5023666302066652</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02152602239704089</v>
+        <v>0.5023666302066652</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.02152614806104592</v>
+        <v>0.5023664345586574</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02152602239704089</v>
+        <v>0.5023666546866661</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02152602239704089</v>
+        <v>0.5023666546866661</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2178,55 +2178,51 @@
       <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>oilcane</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Cane PL content [% oil]</t>
+          <t>Productivity [g/L]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001151963374078535</v>
+        <v>0.04111807220472288</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007169562910782515</v>
+        <v>0.009404263426720242</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.001759109830364393</v>
+        <v>0.02706581388263255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.009877079648237591</v>
+        <v>0.0008032021245781187</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02526478209859128</v>
+        <v>0.008930948613237944</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001521844956873798</v>
+        <v>-0.1277094179723767</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.005189310658899667</v>
+        <v>0.03864196195322489</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0305934225357369</v>
+        <v>0.003164275806571032</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0305934225357369</v>
+        <v>0.003164275806571032</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.03059352141574085</v>
+        <v>0.003164404158576166</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0305934225357369</v>
+        <v>0.003164291070571642</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0305934225357369</v>
+        <v>0.003164291070571642</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2245,53 +2241,53 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Sorghum PL content [% oil]</t>
+          <t>Cane PL content [% oil]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005386687703467507</v>
+        <v>0.008208875176355006</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02042471112098844</v>
+        <v>-0.005062383896044944</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>-0.006659599082383961</v>
+        <v>0.02143395618535824</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02000724944109788</v>
+        <v>-0.0228533879489493</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02713225577329023</v>
+        <v>-0.005792123367684933</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03124697328187893</v>
+        <v>0.03095252927010117</v>
       </c>
       <c r="J28" t="n">
-        <v>0.001456822746649339</v>
+        <v>0.02597078022131287</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.02846957768278311</v>
+        <v>-0.01212380832495233</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.02846957768278311</v>
+        <v>-0.01212380832495233</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.0284694976187799</v>
+        <v>-0.01212403056496122</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.02846957768278311</v>
+        <v>-0.01212399398895976</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.02846957768278311</v>
+        <v>-0.01212399398895976</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2310,53 +2306,53 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Cane FFA content [% oil]</t>
+          <t>Sorghum PL content [% oil]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.009201570608062823</v>
+        <v>0.01104158924166357</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01424484632979385</v>
+        <v>0.01237435342980704</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-0.007303751812150072</v>
+        <v>0.02180006976800279</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.00442381736825508</v>
+        <v>-0.004843519902815693</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0010416274976651</v>
+        <v>0.01267418901896756</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01436933673477347</v>
+        <v>-0.01653484904539396</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.01534720727496463</v>
+        <v>0.008040270575650382</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000996231975849279</v>
+        <v>0.009089526891581073</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000996231975849279</v>
+        <v>0.009089526891581073</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.0009964375118575002</v>
+        <v>0.009089405451576216</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.000996231975849279</v>
+        <v>0.009089603403584135</v>
       </c>
       <c r="R29" t="n">
-        <v>0.000996231975849279</v>
+        <v>0.009089603403584135</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2375,53 +2371,53 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Sorghum FFA content [% oil]</t>
+          <t>Cane FFA content [% oil]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01279103388764135</v>
+        <v>-0.01693426886937075</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03344480927379236</v>
+        <v>-0.00662970500443592</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.01490578034023121</v>
+        <v>-0.01994729878189195</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007693500003727842</v>
+        <v>0.01436707410767874</v>
       </c>
       <c r="H30" t="n">
-        <v>0.009754593990183757</v>
+        <v>0.01036154815846192</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02881285305651412</v>
+        <v>-0.01526969619478785</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004675529858930171</v>
+        <v>-0.0171535369593114</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006859257970370319</v>
+        <v>0.01757926899117076</v>
       </c>
       <c r="L30" t="n">
-        <v>0.006859257970370319</v>
+        <v>0.01757926899117076</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.006859317970372718</v>
+        <v>0.01757932726317309</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.006859257970370319</v>
+        <v>0.01757928684717147</v>
       </c>
       <c r="R30" t="n">
-        <v>0.006859257970370319</v>
+        <v>0.01757928684717147</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2440,53 +2436,53 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Cane oil content [dry wt. %]</t>
+          <t>Sorghum FFA content [% oil]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.00543182450527298</v>
+        <v>-0.004101762596070503</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02334369789374791</v>
+        <v>-0.04491201383080435</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.0007264398050575922</v>
+        <v>-0.01822367852094714</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0004022310172927133</v>
+        <v>0.00168506029731906</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005836172873446913</v>
+        <v>-0.002063645746545829</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02791722812468912</v>
+        <v>0.01416212591048503</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0044790836067065</v>
+        <v>-0.02001429349797269</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007282886883315474</v>
+        <v>0.001829488585179543</v>
       </c>
       <c r="L31" t="n">
-        <v>0.007282886883315474</v>
+        <v>0.001829488585179543</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.007283247939329916</v>
+        <v>0.001829209129168365</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.007282886883315474</v>
+        <v>0.001829602441184097</v>
       </c>
       <c r="R31" t="n">
-        <v>0.007282886883315474</v>
+        <v>0.001829602441184097</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2505,53 +2501,53 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Relative sorghum oil content [dry wt. %]</t>
+          <t>Cane oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01894866632594665</v>
+        <v>-0.005630048001201919</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002615932040637281</v>
+        <v>0.01087424779672185</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.01696761677470467</v>
+        <v>0.02264173117766925</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005862384550017585</v>
+        <v>-0.01291906670683643</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00846790277071611</v>
+        <v>0.004370231790809271</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.001938463469538539</v>
+        <v>0.01887665787506631</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01009029489985851</v>
+        <v>0.006736384481865755</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004327037837081513</v>
+        <v>-0.001068035370721415</v>
       </c>
       <c r="L32" t="n">
-        <v>0.004327037837081513</v>
+        <v>-0.001068035370721415</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.00432675799707032</v>
+        <v>-0.001067493162699726</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.004327037837081513</v>
+        <v>-0.001067790474711619</v>
       </c>
       <c r="R32" t="n">
-        <v>0.004327037837081513</v>
+        <v>-0.001067790474711619</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2570,53 +2566,53 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>TAG to FFA conversion [% oil]</t>
+          <t>Relative sorghum oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01922648985705959</v>
+        <v>-0.005845386473815458</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01630701386828055</v>
+        <v>0.01701364823101728</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.006994684695787387</v>
+        <v>-0.01791533889261355</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01931565920742632</v>
+        <v>0.005941944070311253</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02462594431303777</v>
+        <v>-0.02543527820141113</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01769069801962792</v>
+        <v>0.01994306364572254</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002758382475637592</v>
+        <v>-0.007172422843878057</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02659425149577006</v>
+        <v>-0.02374241518969661</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02659425149577006</v>
+        <v>-0.02374241518969661</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.02659416384776655</v>
+        <v>-0.02374214571768582</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02659425149577006</v>
+        <v>-0.02374214158968566</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02659425149577006</v>
+        <v>-0.02374214158968566</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2635,53 +2631,53 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Stream-sugarcane</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>GWP [kg*CO2-eq/kg]</t>
+          <t>TAG to FFA conversion [% oil]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003427961129118445</v>
+        <v>0.001991861455674458</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0162324076572963</v>
+        <v>-0.02316274933972035</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.01938267475930699</v>
+        <v>-0.001925364941014597</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02446634743715357</v>
+        <v>-0.02270161766965436</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.03509906521196261</v>
+        <v>-0.008679208571168343</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01124344115373765</v>
+        <v>0.02131961586078463</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.005558665545882406</v>
+        <v>0.01880330804973014</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.03723331348933253</v>
+        <v>-0.00673204702128188</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.03723331348933253</v>
+        <v>-0.00673204702128188</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.03723340401733615</v>
+        <v>-0.006732079565283182</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.03723331348933253</v>
+        <v>-0.006731975501279019</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.03723331348933253</v>
+        <v>-0.006731975501279019</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2700,7 +2696,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Stream-methanol</t>
+          <t>Stream-sugarcane</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -2709,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0132346701613868</v>
+        <v>-0.017051950090078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01363320092932804</v>
+        <v>-0.01578244672615032</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.005867536842701472</v>
+        <v>-0.01676453356658134</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004755152768929411</v>
+        <v>0.001226051669543573</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00512685601307424</v>
+        <v>-0.01210212394008496</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0121781724551269</v>
+        <v>-0.009230492529219701</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02324897055064394</v>
+        <v>-0.0003756568064101825</v>
       </c>
       <c r="K35" t="n">
-        <v>0.008680291259211648</v>
+        <v>-0.00945541276221651</v>
       </c>
       <c r="L35" t="n">
-        <v>0.008680291259211648</v>
+        <v>-0.00945541276221651</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.008680140539205621</v>
+        <v>-0.009455215674208626</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.008680291259211648</v>
+        <v>-0.009455378778215151</v>
       </c>
       <c r="R35" t="n">
-        <v>0.008680291259211648</v>
+        <v>-0.009455378778215151</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2765,7 +2761,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-methanol</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -2774,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004773547198941888</v>
+        <v>-0.02828742698749707</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009484092667363705</v>
+        <v>-0.005332193800732674</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.005395216919808676</v>
+        <v>-0.002452506626100265</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02113547805712719</v>
+        <v>0.002995189827844716</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.003077592411103696</v>
+        <v>-0.007678083859123354</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01406126773045071</v>
+        <v>0.01199655551986222</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006108620540102806</v>
+        <v>0.003161906540626697</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0006259786810391472</v>
+        <v>-0.005132513773300551</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0006259786810391472</v>
+        <v>-0.005132513773300551</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.0006265898170635927</v>
+        <v>-0.005132266957290678</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0006259786810391472</v>
+        <v>-0.005132252653290106</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0006259786810391472</v>
+        <v>-0.005132252653290106</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2830,7 +2826,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -2839,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.0113114201964568</v>
+        <v>0.002376746111069844</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0137859299274372</v>
+        <v>-0.02087670774610832</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.0241137902445516</v>
+        <v>0.01598134028725361</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004955296150112554</v>
+        <v>0.01090424959356923</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02540648741625949</v>
+        <v>0.005191565391662615</v>
       </c>
       <c r="I37" t="n">
-        <v>0.009725492741019708</v>
+        <v>0.01502659452106378</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01614754252476469</v>
+        <v>0.006424241759244567</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02146353676254147</v>
+        <v>0.00012535450101418</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02146353676254147</v>
+        <v>0.00012535450101418</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.02146328063453122</v>
+        <v>0.0001251679730067189</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02146353676254147</v>
+        <v>0.0001252168370086735</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02146353676254147</v>
+        <v>0.0001252168370086735</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2895,7 +2891,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-cellulase</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -2904,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.01375198221407929</v>
+        <v>0.008702792988111718</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02315309036612361</v>
+        <v>-0.01451330018213969</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.005818237384729494</v>
+        <v>-0.01580731292029251</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.008804050488192394</v>
+        <v>0.00775873599321414</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01355282905411316</v>
+        <v>-0.006571462150858485</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02636794924671797</v>
+        <v>-0.02577822842312913</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.008528874722700702</v>
+        <v>0.01312867019120395</v>
       </c>
       <c r="K38" t="n">
-        <v>0.09721601102464042</v>
+        <v>-0.003098301819932072</v>
       </c>
       <c r="L38" t="n">
-        <v>0.09721601102464042</v>
+        <v>-0.003098301819932072</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.09721561675262465</v>
+        <v>-0.003097910811916432</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.09721601102464042</v>
+        <v>-0.003097973307918932</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09721601102464042</v>
+        <v>-0.003097973307918932</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2957,18 +2953,83 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.0004700198588007943</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.003361741916921731</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-0.009074138474965536</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.03045004498341599</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.008353948654157946</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.01505946434637857</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.01049626901016542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06079921577596863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.06079921577596863</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>0.06079931811197271</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.06079899823995992</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.06079899823995992</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -734,44 +734,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.07484456094578243</v>
+        <v>-0.003094476603779064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004105185985970003</v>
+        <v>0.007043535938674062</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.02410464230818569</v>
+        <v>0.02410860989234439</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03439451014073296</v>
+        <v>0.01277588610953037</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5107077242683089</v>
+        <v>0.01879537687981507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.407917551452702</v>
+        <v>-0.002132200789288031</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.09353866282814248</v>
+        <v>0.0005496826384436232</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5589540514461619</v>
+        <v>0.01463630832945233</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.5589540514461619</v>
+        <v>0.01463630832945233</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.5589538905501557</v>
+        <v>0.01463651962546078</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.5589538713501547</v>
+        <v>0.01463630832945233</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.5589538713501547</v>
+        <v>0.01463630832945233</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,44 +795,44 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01206968909078756</v>
+        <v>0.0129920701836828</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01523890762788226</v>
+        <v>0.01071744197204767</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01003025694521028</v>
+        <v>-0.01003097099323884</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01089885719254219</v>
+        <v>0.002025287801951856</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003149987645999506</v>
+        <v>0.004932818405312735</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.003537140685485627</v>
+        <v>-0.0127843850233754</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.003161124716580056</v>
+        <v>-0.006543181274387552</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00502946400917856</v>
+        <v>0.006192995479719818</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00502946400917856</v>
+        <v>0.006192995479719818</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.005029448457177938</v>
+        <v>0.006193050007721999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005029552137182085</v>
+        <v>0.006192995479719818</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005029552137182085</v>
+        <v>0.006192995479719818</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2032222799688912</v>
+        <v>0.2491132314045292</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.006020179221566902</v>
+        <v>0.0007961513443614221</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.003470925546837021</v>
+        <v>-0.003469786410791456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0111402687731536</v>
+        <v>0.05740458960621781</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005434200793368031</v>
+        <v>0.0059509950220398</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7610664189226566</v>
+        <v>-0.9356191078887642</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01638772316962601</v>
+        <v>0.002048730353466882</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007759112374364494</v>
+        <v>0.007996797631871905</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007759112374364494</v>
+        <v>0.007996797631871905</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.007759128790365151</v>
+        <v>0.007996582687863307</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007758821878352873</v>
+        <v>0.007996797631871905</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007758821878352873</v>
+        <v>0.007996797631871905</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.004195926887837075</v>
+        <v>-0.006286399931455997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009372664119801598</v>
+        <v>0.002410459881886084</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.002927206869088274</v>
+        <v>-0.002926044693041787</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02519354519028643</v>
+        <v>-0.007565710643591212</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01958472577538903</v>
+        <v>0.009664074338562973</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01437142819085713</v>
+        <v>-0.008535375509415018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002998591282883962</v>
+        <v>-0.007216019727652037</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02098685719147429</v>
+        <v>0.008181723495268939</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02098685719147429</v>
+        <v>0.008181723495268939</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.02098678058347122</v>
+        <v>0.008181677895267114</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02098664138346566</v>
+        <v>0.008181723495268939</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02098664138346566</v>
+        <v>0.008181723495268939</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,44 +978,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0178220925528837</v>
+        <v>0.02048095061123802</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01566713282232282</v>
+        <v>0.02100482078952759</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.007067435322697412</v>
+        <v>-0.007064968122598724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002360174271744554</v>
+        <v>-0.006748343884389227</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02265699047427962</v>
+        <v>-0.01800428097617124</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.003796480183859207</v>
+        <v>-0.008955220678208827</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0008332270577069935</v>
+        <v>-0.01650984595438131</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02283651316946052</v>
+        <v>-0.01887993032319721</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02283651316946052</v>
+        <v>-0.01887993032319721</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.02283648321745933</v>
+        <v>-0.01887968638718745</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02283683457747338</v>
+        <v>-0.01887993032319721</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02283683457747338</v>
+        <v>-0.01887993032319721</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,44 +1043,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9308762207870487</v>
+        <v>0.9181064200842566</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006638800887286027</v>
+        <v>-0.02330559802864298</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.03249224376368975</v>
+        <v>-0.03249495681979827</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.004868739028681682</v>
+        <v>0.01736720406307725</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.006818792336751693</v>
+        <v>-0.01606378086655123</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.008916566756662671</v>
+        <v>-0.0143488775979551</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01251665345069348</v>
+        <v>-0.01685766952564517</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001788326087533043</v>
+        <v>-0.01112733615709344</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001788326087533043</v>
+        <v>-0.01112733615709344</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.00178842026353681</v>
+        <v>-0.01112753324510133</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.001788197543527901</v>
+        <v>-0.01112733615709344</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.001788197543527901</v>
+        <v>-0.01112733615709344</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,44 +1108,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.004746925533877021</v>
+        <v>0.007178912639156505</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02058368314248109</v>
+        <v>-0.003341772439577051</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.007559965934398636</v>
+        <v>-0.00755815854232634</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009690931692854709</v>
+        <v>0.009374157626108215</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.005500081852003273</v>
+        <v>-0.002428503169140126</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01872755143710206</v>
+        <v>-0.02229700802788032</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007059810517160058</v>
+        <v>-0.0009724313818571396</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002581104487244179</v>
+        <v>0.001149868461994738</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.002581104487244179</v>
+        <v>0.001149868461994738</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.002581116295244651</v>
+        <v>0.001150234702009388</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.002581298887251955</v>
+        <v>0.001149868461994738</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.002581298887251955</v>
+        <v>0.001149868461994738</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,44 +1173,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.008491128339645132</v>
+        <v>0.007449787305991491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005023963469054279</v>
+        <v>0.01261912627379046</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.002934909909396396</v>
+        <v>0.002935212597408503</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01858467745860167</v>
+        <v>-0.002608056170345132</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006434423009376919</v>
+        <v>0.002005448816217953</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002683439339337573</v>
+        <v>0.01172704318908173</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.008063278657022954</v>
+        <v>-0.01675067262371925</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009155633646225346</v>
+        <v>0.001323712852948514</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009155633646225346</v>
+        <v>0.001323712852948514</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.009155628270225129</v>
+        <v>0.001324058164962326</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009155753838230153</v>
+        <v>0.001323712852948514</v>
       </c>
       <c r="R11" t="n">
-        <v>0.009155753838230153</v>
+        <v>0.001323712852948514</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.01758493884739755</v>
+        <v>-0.0162755574510223</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02340945404853195</v>
+        <v>-0.01689287107576755</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01502082204083288</v>
+        <v>0.01502072719282909</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02806775027695987</v>
+        <v>0.007456458694372631</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.002801090320043612</v>
+        <v>0.01039393155175726</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02130158312406332</v>
+        <v>0.0107147050045882</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.007333711253499879</v>
+        <v>-0.001647999643272812</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.007692815731712628</v>
+        <v>0.006013147632525904</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.007692815731712628</v>
+        <v>0.006013147632525904</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.007692300595692023</v>
+        <v>0.006012969264518771</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.00769254328370173</v>
+        <v>0.006013147632525904</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.00769254328370173</v>
+        <v>0.006013147632525904</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,44 +1299,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2598458999298359</v>
+        <v>-0.276403726768149</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007670992405949067</v>
+        <v>0.0008614316052246115</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.01420379173615167</v>
+        <v>0.0142041526001661</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.007906948163011381</v>
+        <v>-0.008995246337790671</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004074576162983046</v>
+        <v>0.01661883704875348</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01458379479135179</v>
+        <v>0.003252104866084194</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001127257411247668</v>
+        <v>0.006522229465227157</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0008898343075933722</v>
+        <v>0.01665097996203919</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0008898343075933722</v>
+        <v>0.01665097996203919</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.0008898920035956801</v>
+        <v>0.01665084450603378</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0008900398436015937</v>
+        <v>0.01665097996203919</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0008900398436015937</v>
+        <v>0.01665097996203919</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.005520314620812584</v>
+        <v>-0.005536670909466836</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01412624378316738</v>
+        <v>-0.01296310757659509</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.0299132349565294</v>
+        <v>0.02991290586851623</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.001644998464393807</v>
+        <v>0.005587607351534195</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01281935388877416</v>
+        <v>0.008308191596327662</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01449791145991646</v>
+        <v>0.003903662940146517</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007535982929566597</v>
+        <v>0.01970125789113447</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01949962868398515</v>
+        <v>0.00444025352161014</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01949962868398515</v>
+        <v>0.00444025352161014</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.01950005847600234</v>
+        <v>0.00443995524959821</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01949976913199076</v>
+        <v>0.00444025352161014</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01949976913199076</v>
+        <v>0.00444025352161014</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003498112171924486</v>
+        <v>0.003271386466855459</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002266288518184972</v>
+        <v>0.01143851657580549</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.0003461586378463455</v>
+        <v>-0.0003474748938989957</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01425970610398375</v>
+        <v>-0.003038191095453045</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.005306334260253369</v>
+        <v>0.00863175903327036</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01911184156447366</v>
+        <v>0.01495510207020408</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01048929312174927</v>
+        <v>0.01372208115998374</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.005334253077370122</v>
+        <v>0.01446486816259472</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.005334253077370122</v>
+        <v>0.01446486816259472</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.005334240213369607</v>
+        <v>0.01446457363458294</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.005334149493365979</v>
+        <v>0.01446486816259472</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.005334149493365979</v>
+        <v>0.01446486816259472</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,44 +1494,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.004664532858581314</v>
+        <v>-0.003184584991383399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01278938657436501</v>
+        <v>0.04237660556566892</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.0269164076366563</v>
+        <v>0.02691345026053801</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.005419048828151941</v>
+        <v>-0.01744706059645662</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006880519571220781</v>
+        <v>0.003117167932686717</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02492169094886764</v>
+        <v>-0.02958231843129273</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03330660529893886</v>
+        <v>0.01908569457704211</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002292424603696984</v>
+        <v>-0.0009804526472181059</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002292424603696984</v>
+        <v>-0.0009804526472181059</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.002292878971715159</v>
+        <v>-0.0009803429192137166</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0022925974997039</v>
+        <v>-0.0009804526472181059</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0022925974997039</v>
+        <v>-0.0009804526472181059</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06604712846588513</v>
+        <v>-0.06220061932002476</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02606057326147164</v>
+        <v>0.02223876627529953</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.009839981673599266</v>
+        <v>0.009840614793624591</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01143439171686705</v>
+        <v>0.001407477955160014</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.005628480321139212</v>
+        <v>0.01578563669542547</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.007136713341468533</v>
+        <v>-0.01672264156490566</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01391038546983796</v>
+        <v>0.003356098409874154</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.009940553005622119</v>
+        <v>0.01436288649451546</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.009940553005622119</v>
+        <v>0.01436288649451546</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.009940414765616589</v>
+        <v>0.0143631900465276</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009940607917624316</v>
+        <v>0.01436288649451546</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.009940607917624316</v>
+        <v>0.01436288649451546</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,44 +1620,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01528403331536133</v>
+        <v>-0.01095411605416464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004144466447644215</v>
+        <v>0.005934156125018485</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.02286927691477107</v>
+        <v>0.02286788587471543</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02143457088080318</v>
+        <v>0.003143240020433884</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001753987270159491</v>
+        <v>0.02406517622660705</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008536903637476143</v>
+        <v>-0.006887350931494036</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01368815332858048</v>
+        <v>0.00467430376288164</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.006012464976498598</v>
+        <v>0.01809639461185578</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.006012464976498598</v>
+        <v>0.01809639461185578</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.006012094896483795</v>
+        <v>0.01809643166785726</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.006012410064496401</v>
+        <v>0.01809639461185578</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.006012410064496401</v>
+        <v>0.01809639461185578</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,44 +1685,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03811003237240129</v>
+        <v>-0.04436798385471935</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.009136955657129801</v>
+        <v>0.03470776694905495</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.002408963808358552</v>
+        <v>-0.002407369728294789</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0004633659796686961</v>
+        <v>-0.00634671885560219</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003652550738102029</v>
+        <v>-0.005887539691501587</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2033956239118249</v>
+        <v>0.2195756567510262</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01402246955652445</v>
+        <v>0.005869570837080311</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003288301475532059</v>
+        <v>-0.004297154091886163</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003288301475532059</v>
+        <v>-0.004297154091886163</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.003288212483528499</v>
+        <v>-0.004297237707889508</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.003288128483525139</v>
+        <v>-0.004297154091886163</v>
       </c>
       <c r="R19" t="n">
-        <v>0.003288128483525139</v>
+        <v>-0.004297154091886163</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00123760449750418</v>
+        <v>0.005829657545186302</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01695011170221138</v>
+        <v>0.01171039935412517</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.3505009442920377</v>
+        <v>0.3505030855721233</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003929379469911538</v>
+        <v>-0.00548593846155984</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1428588059063522</v>
+        <v>0.1952968667878746</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03425940108237604</v>
+        <v>0.02201628097665123</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1637655619935984</v>
+        <v>0.1215995882546716</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08341250570450022</v>
+        <v>0.1279706092148244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08341250570450022</v>
+        <v>0.1279706092148244</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.08341274666450985</v>
+        <v>0.12797075023883</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08341253642450144</v>
+        <v>0.1279706092148244</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08341253642450144</v>
+        <v>0.1279706092148244</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0263120902044836</v>
+        <v>-0.02713790287751611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01144012428231588</v>
+        <v>0.004910407989048378</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.006025743217029728</v>
+        <v>-0.00602505902500236</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01277327388752944</v>
+        <v>0.003042333649709719</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01691770243670809</v>
+        <v>-0.009151252110050084</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03129833165193326</v>
+        <v>0.02878529961541198</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01849433836729825</v>
+        <v>-0.01738319390675081</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01576236687049467</v>
+        <v>-0.008923838756953548</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01576236687049467</v>
+        <v>-0.008923838756953548</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01576248120649925</v>
+        <v>-0.008924008004960319</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01576246018249841</v>
+        <v>-0.008923838756953548</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01576246018249841</v>
+        <v>-0.008923838756953548</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.006916524852660992</v>
+        <v>-0.002826404081056163</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00744695304910848</v>
+        <v>-0.005165712851008712</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.3980918355716734</v>
+        <v>0.3980906594756263</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03269182121450284</v>
+        <v>-0.02365196622080313</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2270217170488686</v>
+        <v>0.289481450651258</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01185139103405564</v>
+        <v>0.0126214350968574</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1690558098771934</v>
+        <v>0.1187744271382029</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1645124605964984</v>
+        <v>0.2230661341386453</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1645124605964984</v>
+        <v>0.2230661341386453</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1645130743245229</v>
+        <v>0.2230661058186442</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1645127046285081</v>
+        <v>0.2230661341386453</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1645127046285081</v>
+        <v>0.2230661341386453</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,44 +1933,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003843160953726438</v>
+        <v>0.002856764274270571</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03022284232310667</v>
+        <v>0.02339182599563995</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.003349039525961581</v>
+        <v>-0.003350793542031741</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03027457966248461</v>
+        <v>-0.01068033198354748</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007773545398941815</v>
+        <v>-0.0007771790710871627</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.004154200966168038</v>
+        <v>0.007780172087206882</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01350090248540984</v>
+        <v>0.01134816926850701</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01093278917331156</v>
+        <v>0.001474010266960411</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01093278917331156</v>
+        <v>0.001474010266960411</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.01093300152532006</v>
+        <v>0.001474034554961382</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01093306440532257</v>
+        <v>0.001474010266960411</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01093306440532257</v>
+        <v>0.001474010266960411</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-6.525811461032457e-05</v>
+        <v>0.002533664165346566</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01836508835682185</v>
+        <v>0.0008926292950134078</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5533160485966419</v>
+        <v>0.5533171620046864</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005085766491381809</v>
+        <v>-0.000262290757709225</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2455178093087123</v>
+        <v>0.3161173101806924</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03808305752332229</v>
+        <v>0.03588021791520871</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4542066288721507</v>
+        <v>0.3697493138701959</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1510659883146395</v>
+        <v>0.2089378731895149</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1510659883146395</v>
+        <v>0.2089378731895149</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.151065900858636</v>
+        <v>0.2089378119415125</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1510657865226314</v>
+        <v>0.2089378731895149</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1510657865226314</v>
+        <v>0.2089378731895149</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,44 +2059,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01970278619611145</v>
+        <v>0.02151814194872568</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0005270720553200902</v>
+        <v>0.01743691375436066</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.6162595102823802</v>
+        <v>0.6162581371943254</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.008509130320904593</v>
+        <v>-0.01917159626037312</v>
       </c>
       <c r="H25" t="n">
-        <v>0.284903326532133</v>
+        <v>0.3804744656189785</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06093821178152847</v>
+        <v>0.05716506641460264</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2048536969247522</v>
+        <v>0.1824285629996235</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1804384276015371</v>
+        <v>0.2643733902869356</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1804384276015371</v>
+        <v>0.2643733902869356</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.1804385178415407</v>
+        <v>0.264373527950941</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.180438425201537</v>
+        <v>0.2643733902869356</v>
       </c>
       <c r="R25" t="n">
-        <v>0.180438425201537</v>
+        <v>0.2643733902869356</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03066448452257938</v>
+        <v>0.03819838568793542</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01585456305759128</v>
+        <v>0.007725442863024937</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02557948844717953</v>
+        <v>-0.02557910204716407</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02735180166708256</v>
+        <v>0.05092345803549266</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4663403215976127</v>
+        <v>0.6526268354810734</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1791814078712563</v>
+        <v>-0.1916049620001984</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3642716055709869</v>
+        <v>-0.339730715615646</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5023666302066652</v>
+        <v>0.7251664219346569</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5023666302066652</v>
+        <v>0.7251664219346569</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.5023664345586574</v>
+        <v>0.7251661715666469</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5023666546866661</v>
+        <v>0.7251664219346569</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5023666546866661</v>
+        <v>0.7251664219346569</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,44 +2185,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04111807220472288</v>
+        <v>0.0440796975711879</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009404263426720242</v>
+        <v>-0.009126280473120675</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02706581388263255</v>
+        <v>0.02706350018654</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0008032021245781187</v>
+        <v>-0.0009624667966176972</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008930948613237944</v>
+        <v>-0.005285807539432301</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1277094179723767</v>
+        <v>-0.1377096537963861</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03864196195322489</v>
+        <v>0.008465876676874115</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003164275806571032</v>
+        <v>-0.01706678132267125</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003164275806571032</v>
+        <v>-0.01706678132267125</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.003164404158576166</v>
+        <v>-0.01706668945066758</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003164291070571642</v>
+        <v>-0.01706678132267125</v>
       </c>
       <c r="R27" t="n">
-        <v>0.003164291070571642</v>
+        <v>-0.01706678132267125</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,44 +2250,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.008208875176355006</v>
+        <v>0.00881284729651389</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005062383896044944</v>
+        <v>0.01313904259382564</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02143395618535824</v>
+        <v>0.02143524316140972</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0228533879489493</v>
+        <v>-0.00400388124080601</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.005792123367684933</v>
+        <v>0.00083322675332907</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03095252927010117</v>
+        <v>0.0279093602523744</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02597078022131287</v>
+        <v>0.01665196561025246</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.01212380832495233</v>
+        <v>-0.005922899468915978</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.01212380832495233</v>
+        <v>-0.005922899468915978</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.01212403056496122</v>
+        <v>-0.005922652172906087</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.01212399398895976</v>
+        <v>-0.005922899468915978</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.01212399398895976</v>
+        <v>-0.005922899468915978</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,44 +2315,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01104158924166357</v>
+        <v>0.01262153311286132</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01237435342980704</v>
+        <v>-0.00120621003123871</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02180006976800279</v>
+        <v>0.02179948282397931</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.004843519902815693</v>
+        <v>0.01079450126509361</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01267418901896756</v>
+        <v>0.01189809436392377</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01653484904539396</v>
+        <v>-0.02369163809966552</v>
       </c>
       <c r="J29" t="n">
-        <v>0.008040270575650382</v>
+        <v>0.006066082223963897</v>
       </c>
       <c r="K29" t="n">
-        <v>0.009089526891581073</v>
+        <v>0.008718691644747666</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009089526891581073</v>
+        <v>0.008718691644747666</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.009089405451576216</v>
+        <v>0.008718813372752533</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.009089603403584135</v>
+        <v>0.008718691644747666</v>
       </c>
       <c r="R29" t="n">
-        <v>0.009089603403584135</v>
+        <v>0.008718691644747666</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,44 +2380,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01693426886937075</v>
+        <v>-0.01947929588317183</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.00662970500443592</v>
+        <v>-0.01720307153048579</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.01994729878189195</v>
+        <v>-0.01994841526193661</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01436707410767874</v>
+        <v>0.016678323754823</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01036154815846192</v>
+        <v>-0.0003907562076302482</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01526969619478785</v>
+        <v>0.0004951165638046624</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0171535369593114</v>
+        <v>-0.01222676894916737</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01757926899117076</v>
+        <v>0.009411615640464624</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01757926899117076</v>
+        <v>0.009411615640464624</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.01757932726317309</v>
+        <v>0.009411711448468457</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01757928684717147</v>
+        <v>0.009411615640464624</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01757928684717147</v>
+        <v>0.009411615640464624</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,44 +2445,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004101762596070503</v>
+        <v>-0.005164667342586693</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04491201383080435</v>
+        <v>-0.001809425503016991</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01822367852094714</v>
+        <v>-0.01822439544897582</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00168506029731906</v>
+        <v>-0.004184473551572846</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002063645746545829</v>
+        <v>0.001969560654782426</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01416212591048503</v>
+        <v>0.02043743976149759</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02001429349797269</v>
+        <v>-0.009714468778026139</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001829488585179543</v>
+        <v>0.006549870501994819</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001829488585179543</v>
+        <v>0.006549870501994819</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.001829209129168365</v>
+        <v>0.006549620997984839</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001829602441184097</v>
+        <v>0.006549870501994819</v>
       </c>
       <c r="R31" t="n">
-        <v>0.001829602441184097</v>
+        <v>0.006549870501994819</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,44 +2510,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.005630048001201919</v>
+        <v>-0.003046023673840947</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01087424779672185</v>
+        <v>-0.0225759394033914</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.02264173117766925</v>
+        <v>0.0226435200417408</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.01291906670683643</v>
+        <v>0.01274726876825165</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004370231790809271</v>
+        <v>0.02833151959726078</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01887665787506631</v>
+        <v>0.007485624491424979</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006736384481865755</v>
+        <v>0.002603375088185326</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.001068035370721415</v>
+        <v>0.02546237909849516</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.001068035370721415</v>
+        <v>0.02546237909849516</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.001067493162699726</v>
+        <v>0.02546205183448207</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.001067790474711619</v>
+        <v>0.02546237909849516</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.001067790474711619</v>
+        <v>0.02546237909849516</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,44 +2575,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.005845386473815458</v>
+        <v>-0.003937455805498232</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01701364823101728</v>
+        <v>-0.01082878749563794</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.01791533889261355</v>
+        <v>-0.01791285556451422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005941944070311253</v>
+        <v>-0.008655648984421596</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02543527820141113</v>
+        <v>-0.02219871199194847</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01994306364572254</v>
+        <v>0.008157991142319646</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.007172422843878057</v>
+        <v>-0.0009174067708096566</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02374241518969661</v>
+        <v>-0.02072592121303685</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02374241518969661</v>
+        <v>-0.02072592121303685</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.02374214571768582</v>
+        <v>-0.02072607846104313</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02374214158968566</v>
+        <v>-0.02072592121303685</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02374214158968566</v>
+        <v>-0.02072592121303685</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,44 +2640,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001991861455674458</v>
+        <v>0.0007842515833700631</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02316274933972035</v>
+        <v>0.000825380603515067</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.001925364941014597</v>
+        <v>-0.001924636204985448</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02270161766965436</v>
+        <v>-0.02041284419486928</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.008679208571168343</v>
+        <v>-0.008613470840538833</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02131961586078463</v>
+        <v>0.02701419784856791</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01880330804973014</v>
+        <v>0.0191652337494473</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.00673204702128188</v>
+        <v>-0.006786465487458619</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.00673204702128188</v>
+        <v>-0.006786465487458619</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.006732079565283182</v>
+        <v>-0.006786620719464828</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.006731975501279019</v>
+        <v>-0.006786465487458619</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.006731975501279019</v>
+        <v>-0.006786465487458619</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.017051950090078</v>
+        <v>-0.01656034424641377</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01578244672615032</v>
+        <v>-0.005777601454693781</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.01676453356658134</v>
+        <v>-0.01676428895857155</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001226051669543573</v>
+        <v>0.0009400050315718697</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01210212394008496</v>
+        <v>-0.01820502322420093</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.009230492529219701</v>
+        <v>-0.01058423831136953</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0003756568064101825</v>
+        <v>-0.004449143526411365</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.00945541276221651</v>
+        <v>-0.01820419090416764</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.00945541276221651</v>
+        <v>-0.01820419090416764</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.009455215674208626</v>
+        <v>-0.01820405592816223</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.009455378778215151</v>
+        <v>-0.01820419090416764</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.009455378778215151</v>
+        <v>-0.01820419090416764</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02828742698749707</v>
+        <v>-0.02662069431282777</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.005332193800732674</v>
+        <v>-0.00747774747370779</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.002452506626100265</v>
+        <v>-0.002450818466032738</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002995189827844716</v>
+        <v>0.008831809370954215</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.007678083859123354</v>
+        <v>-0.008316525164661005</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01199655551986222</v>
+        <v>0.009515814428632577</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003161906540626697</v>
+        <v>-0.004584532045909722</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.005132513773300551</v>
+        <v>-0.008722319196892765</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.005132513773300551</v>
+        <v>-0.008722319196892765</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.005132266957290678</v>
+        <v>-0.008722418844896752</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.005132252653290106</v>
+        <v>-0.008722319196892765</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.005132252653290106</v>
+        <v>-0.008722319196892765</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002376746111069844</v>
+        <v>0.001136626701465068</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02087670774610832</v>
+        <v>-0.00931794946698741</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.01598134028725361</v>
+        <v>0.01597958684718347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01090424959356923</v>
+        <v>-0.01668792158730354</v>
       </c>
       <c r="H37" t="n">
-        <v>0.005191565391662615</v>
+        <v>-0.004427235921089436</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01502659452106378</v>
+        <v>0.01893353346134134</v>
       </c>
       <c r="J37" t="n">
-        <v>0.006424241759244567</v>
+        <v>-0.005673339002212207</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00012535450101418</v>
+        <v>-0.01181848021673921</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00012535450101418</v>
+        <v>-0.01181848021673921</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.0001251679730067189</v>
+        <v>-0.01181825423273017</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0001252168370086735</v>
+        <v>-0.01181848021673921</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0001252168370086735</v>
+        <v>-0.01181848021673921</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.008702792988111718</v>
+        <v>0.008024808224992328</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01451330018213969</v>
+        <v>-0.01479495282217837</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.01580731292029251</v>
+        <v>-0.01580615775224631</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00775873599321414</v>
+        <v>0.00694628016010064</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.006571462150858485</v>
+        <v>-0.01048908541156342</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02577822842312913</v>
+        <v>-0.01983745624949824</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01312867019120395</v>
+        <v>0.01647777499260509</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.003098301819932072</v>
+        <v>-0.00499692327187693</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.003098301819932072</v>
+        <v>-0.00499692327187693</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>-0.003097910811916432</v>
+        <v>-0.004997064583882583</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.003097973307918932</v>
+        <v>-0.00499692327187693</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.003097973307918932</v>
+        <v>-0.00499692327187693</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,44 +2965,44 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.0004700198588007943</v>
+        <v>7.730957109238283e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003361741916921731</v>
+        <v>-0.01762884272400572</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.009074138474965536</v>
+        <v>-0.009076043115041722</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.03045004498341599</v>
+        <v>0.007597076227041854</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008353948654157946</v>
+        <v>0.01225091809003672</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01505946434637857</v>
+        <v>-0.01922973273718931</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01049626901016542</v>
+        <v>0.0006967842625906996</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06079921577596863</v>
+        <v>0.08085289581011583</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06079921577596863</v>
+        <v>0.08085289581011583</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.06079931811197271</v>
+        <v>0.08085286816211472</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.06079899823995992</v>
+        <v>0.08085289581011583</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06079899823995992</v>
+        <v>0.08085289581011583</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -734,44 +734,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.003094476603779064</v>
+        <v>-0.002410305408412216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007043535938674062</v>
+        <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.02410860989234439</v>
+        <v>0.02410714118828564</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01277588610953037</v>
+        <v>0.008427503881872266</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01879537687981507</v>
+        <v>0.01295517805420712</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.002132200789288031</v>
+        <v>-0.001485532667421307</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005496826384436232</v>
+        <v>-0.001926273079679723</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01463630832945233</v>
+        <v>0.007988653855546153</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01463630832945233</v>
+        <v>0.007988653855546153</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.01463651962546078</v>
+        <v>0.00798864204754568</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01463630832945233</v>
+        <v>0.00798864204754568</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01463630832945233</v>
+        <v>0.00798864204754568</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,44 +795,44 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0129920701836828</v>
+        <v>0.01662915100116603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01071744197204767</v>
+        <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01003097099323884</v>
+        <v>-0.0100309150252366</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002025287801951856</v>
+        <v>0.01405557161724478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004932818405312735</v>
+        <v>-2.562412902496515e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0127843850233754</v>
+        <v>-0.004552376630095064</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.006543181274387552</v>
+        <v>-0.02196610505430364</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006192995479719818</v>
+        <v>0.0007284547491381899</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006192995479719818</v>
+        <v>0.0007284547491381899</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.006193050007721999</v>
+        <v>0.0007285975971439037</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.006192995479719818</v>
+        <v>0.0007285975971439037</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006192995479719818</v>
+        <v>0.0007285975971439037</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2491132314045292</v>
+        <v>0.2479113240284529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0007961513443614221</v>
+        <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.003469786410791456</v>
+        <v>-0.003469643370785734</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05740458960621781</v>
+        <v>0.01546285538112075</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0059509950220398</v>
+        <v>-0.004179382823175312</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9356191078887642</v>
+        <v>-0.5888158011206319</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002048730353466882</v>
+        <v>0.002266492585991697</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007996797631871905</v>
+        <v>-0.003354449414177976</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007996797631871905</v>
+        <v>-0.003354449414177976</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.007996582687863307</v>
+        <v>-0.003354578918183157</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007996797631871905</v>
+        <v>-0.003354578918183157</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007996797631871905</v>
+        <v>-0.003354578918183157</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.006286399931455997</v>
+        <v>-0.008119922340796892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002410459881886084</v>
+        <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.002926044693041787</v>
+        <v>-0.002930038293201531</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007565710643591212</v>
+        <v>0.002656101783522389</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009664074338562973</v>
+        <v>0.01233232081329283</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.008535375509415018</v>
+        <v>-0.006757231182289246</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007216019727652037</v>
+        <v>-0.0168550609872068</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008181723495268939</v>
+        <v>0.01134251056570042</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008181723495268939</v>
+        <v>0.01134251056570042</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.008181677895267114</v>
+        <v>0.01134242848569714</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008181723495268939</v>
+        <v>0.01134242848569714</v>
       </c>
       <c r="R7" t="n">
-        <v>0.008181723495268939</v>
+        <v>0.01134242848569714</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,44 +978,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02048095061123802</v>
+        <v>0.221296475059859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02100482078952759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.007064968122598724</v>
+        <v>-0.007070279994811198</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006748343884389227</v>
+        <v>-0.04548598998330902</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01800428097617124</v>
+        <v>-0.01414749906189996</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.008955220678208827</v>
+        <v>0.7556146272805849</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01650984595438131</v>
+        <v>0.02816753633208948</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01887993032319721</v>
+        <v>-0.01321297704051908</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01887993032319721</v>
+        <v>-0.01321297704051908</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.01887968638718745</v>
+        <v>-0.01321293105651724</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01887993032319721</v>
+        <v>-0.01321293105651724</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01887993032319721</v>
+        <v>-0.01321293105651724</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,44 +1043,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9181064200842566</v>
+        <v>0.8955423999496958</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02330559802864298</v>
+        <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.03249495681979827</v>
+        <v>-0.03249492168379686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01736720406307725</v>
+        <v>0.003782052653174692</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01606378086655123</v>
+        <v>-0.002781498351259934</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0143488775979551</v>
+        <v>0.005725968133038725</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01685766952564517</v>
+        <v>-0.008805230969932753</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01112733615709344</v>
+        <v>0.005160352046414082</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01112733615709344</v>
+        <v>0.005160352046414082</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01112753324510133</v>
+        <v>0.005160693710427748</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01112733615709344</v>
+        <v>0.005160693710427748</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01112733615709344</v>
+        <v>0.005160693710427748</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,44 +1108,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.007178912639156505</v>
+        <v>0.009201978992079158</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003341772439577051</v>
+        <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.00755815854232634</v>
+        <v>-0.007561088462443537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009374157626108215</v>
+        <v>-0.01817071478369605</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.002428503169140126</v>
+        <v>-0.00121234449649378</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02229700802788032</v>
+        <v>-0.01130141930005677</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0009724313818571396</v>
+        <v>0.006343301333421852</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001149868461994738</v>
+        <v>0.002541996869679874</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001149868461994738</v>
+        <v>0.002541996869679874</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.001150234702009388</v>
+        <v>0.002541948869677955</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001149868461994738</v>
+        <v>0.002541948869677955</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001149868461994738</v>
+        <v>0.002541948869677955</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,44 +1173,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.007449787305991491</v>
+        <v>0.01101641141665645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01261912627379046</v>
+        <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.002935212597408503</v>
+        <v>0.002931955797278232</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.002608056170345132</v>
+        <v>0.0002753860228708044</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002005448816217953</v>
+        <v>-0.000837520353500814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01172704318908173</v>
+        <v>0.01452357523694301</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01675067262371925</v>
+        <v>-0.0130663552152835</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001323712852948514</v>
+        <v>-0.001380234391209376</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001323712852948514</v>
+        <v>-0.001380234391209376</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.001324058164962326</v>
+        <v>-0.001380538135221525</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001323712852948514</v>
+        <v>-0.001380538135221525</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001323712852948514</v>
+        <v>-0.001380538135221525</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.0162755574510223</v>
+        <v>-0.01883193598527744</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01689287107576755</v>
+        <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01502072719282909</v>
+        <v>0.01502185884087435</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007456458694372631</v>
+        <v>0.01389774505531762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01039393155175726</v>
+        <v>0.02615543778221751</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0107147050045882</v>
+        <v>0.003410166184406647</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.001647999643272812</v>
+        <v>-0.003044355187859374</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006013147632525904</v>
+        <v>0.02526539054661562</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006013147632525904</v>
+        <v>0.02526539054661562</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.006012969264518771</v>
+        <v>0.02526574968262999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.006013147632525904</v>
+        <v>0.02526574968262999</v>
       </c>
       <c r="R12" t="n">
-        <v>0.006013147632525904</v>
+        <v>0.02526574968262999</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,44 +1299,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.276403726768149</v>
+        <v>-0.2726726470669059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0008614316052246115</v>
+        <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.0142041526001661</v>
+        <v>0.01420598044023922</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008995246337790671</v>
+        <v>0.02456416639210132</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01661883704875348</v>
+        <v>0.01045185939407437</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003252104866084194</v>
+        <v>-0.002560787142431485</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006522229465227157</v>
+        <v>-0.01432103049881515</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01665097996203919</v>
+        <v>0.008439734449589377</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01665097996203919</v>
+        <v>0.008439734449589377</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.01665084450603378</v>
+        <v>0.008439569137582764</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01665097996203919</v>
+        <v>0.008439569137582764</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01665097996203919</v>
+        <v>0.008439569137582764</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.005536670909466836</v>
+        <v>-0.01210410336416413</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01296310757659509</v>
+        <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02991290586851623</v>
+        <v>0.02991282657251306</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005587607351534195</v>
+        <v>-0.003376373144651114</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008308191596327662</v>
+        <v>0.01002015947280638</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003903662940146517</v>
+        <v>-0.02074939177397567</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01970125789113447</v>
+        <v>0.01779029625354491</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00444025352161014</v>
+        <v>0.004345839437833577</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00444025352161014</v>
+        <v>0.004345839437833577</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.00443995524959821</v>
+        <v>0.004345793165831726</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00444025352161014</v>
+        <v>0.004345793165831726</v>
       </c>
       <c r="R14" t="n">
-        <v>0.00444025352161014</v>
+        <v>0.004345793165831726</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003271386466855459</v>
+        <v>0.002095792883831715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01143851657580549</v>
+        <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.0003474748938989957</v>
+        <v>-0.000342450349698014</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003038191095453045</v>
+        <v>0.008139544385978191</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00863175903327036</v>
+        <v>2.115840084633603e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01495510207020408</v>
+        <v>0.00954259775770391</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01372208115998374</v>
+        <v>-0.01216551939079692</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01446486816259472</v>
+        <v>0.002791545615661824</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01446486816259472</v>
+        <v>0.002791545615661824</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.01446457363458294</v>
+        <v>0.002791692303667691</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01446486816259472</v>
+        <v>0.002791692303667691</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01446486816259472</v>
+        <v>0.002791692303667691</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,44 +1494,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.003184584991383399</v>
+        <v>-0.004875322083012884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04237660556566892</v>
+        <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.02691345026053801</v>
+        <v>0.02691509099660364</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01744706059645662</v>
+        <v>0.01537084327146577</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003117167932686717</v>
+        <v>0.004598861175954446</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02958231843129273</v>
+        <v>-0.01938521357540854</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01908569457704211</v>
+        <v>0.01717220233227662</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0009804526472181059</v>
+        <v>0.0006318644412745776</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0009804526472181059</v>
+        <v>0.0006318644412745776</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.0009803429192137166</v>
+        <v>0.0006317359932694397</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0009804526472181059</v>
+        <v>0.0006317359932694397</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.0009804526472181059</v>
+        <v>0.0006317359932694397</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06220061932002476</v>
+        <v>-0.06052235397289415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02223876627529953</v>
+        <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.009840614793624591</v>
+        <v>0.009837394473495777</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001407477955160014</v>
+        <v>-0.008527977967578471</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01578563669542547</v>
+        <v>0.02208790091551603</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01672264156490566</v>
+        <v>-0.008389187663567506</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003356098409874154</v>
+        <v>-0.002881456379091508</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01436288649451546</v>
+        <v>0.02075584239823369</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01436288649451546</v>
+        <v>0.02075584239823369</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.0143631900465276</v>
+        <v>0.02075610083024403</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01436288649451546</v>
+        <v>0.02075610083024403</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01436288649451546</v>
+        <v>0.02075610083024403</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,44 +1620,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01095411605416464</v>
+        <v>-0.01120763939230558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005934156125018485</v>
+        <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.02286788587471543</v>
+        <v>0.0228694599867784</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003143240020433884</v>
+        <v>-0.00342214344685942</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02406517622660705</v>
+        <v>0.02099024330360973</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.006887350931494036</v>
+        <v>-0.002236745849469834</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00467430376288164</v>
+        <v>-0.003042448627756756</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01809639461185578</v>
+        <v>0.01513298681331947</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01809639461185578</v>
+        <v>0.01513298681331947</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.01809643166785726</v>
+        <v>0.01513330169333207</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01809639461185578</v>
+        <v>0.01513330169333207</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01809639461185578</v>
+        <v>0.01513330169333207</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,44 +1685,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04436798385471935</v>
+        <v>-0.04187974986718999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03470776694905495</v>
+        <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.002407369728294789</v>
+        <v>-0.002406778464271139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00634671885560219</v>
+        <v>-0.01878025059188581</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.005887539691501587</v>
+        <v>-0.006016720368668815</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2195756567510262</v>
+        <v>0.1468543518901741</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005869570837080311</v>
+        <v>-0.003993153190927477</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.004297154091886163</v>
+        <v>-0.005150497742019909</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.004297154091886163</v>
+        <v>-0.005150497742019909</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.004297237707889508</v>
+        <v>-0.005150802926032117</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.004297154091886163</v>
+        <v>-0.005150802926032117</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.004297154091886163</v>
+        <v>-0.005150802926032117</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.005829657545186302</v>
+        <v>-0.004892699523707981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01171039935412517</v>
+        <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.3505030855721233</v>
+        <v>0.3505038338921533</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00548593846155984</v>
+        <v>0.006293533404717422</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1952968667878746</v>
+        <v>0.1992218349128733</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02201628097665123</v>
+        <v>0.01392162218886489</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1215995882546716</v>
+        <v>0.1254791436337894</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1279706092148244</v>
+        <v>0.1365583691423347</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1279706092148244</v>
+        <v>0.1365583691423347</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.12797075023883</v>
+        <v>0.1365587613023504</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1279706092148244</v>
+        <v>0.1365587613023504</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1279706092148244</v>
+        <v>0.1365587613023504</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02713790287751611</v>
+        <v>-0.02709333074773323</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004910407989048378</v>
+        <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.00602505902500236</v>
+        <v>-0.006015790704631627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003042333649709719</v>
+        <v>0.01877025004677343</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009151252110050084</v>
+        <v>-0.008140852549634101</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02878529961541198</v>
+        <v>0.0209991100559644</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01738319390675081</v>
+        <v>-0.01347824731745318</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.008923838756953548</v>
+        <v>-0.006913330740533228</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.008923838756953548</v>
+        <v>-0.006913330740533228</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.008924008004960319</v>
+        <v>-0.006913234932529397</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.008923838756953548</v>
+        <v>-0.006913234932529397</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.008923838756953548</v>
+        <v>-0.006913234932529397</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.002826404081056163</v>
+        <v>-0.02308232108329284</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005165712851008712</v>
+        <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.3980906594756263</v>
+        <v>0.3980910117956404</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02365196622080313</v>
+        <v>-0.005587674376789281</v>
       </c>
       <c r="H22" t="n">
-        <v>0.289481450651258</v>
+        <v>0.2917833803113352</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0126214350968574</v>
+        <v>-0.003335095717403828</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1187744271382029</v>
+        <v>0.1458604668267938</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2230661341386453</v>
+        <v>0.2285803686952147</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2230661341386453</v>
+        <v>0.2285803686952147</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.2230661058186442</v>
+        <v>0.2285801892712075</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2230661341386453</v>
+        <v>0.2285801892712075</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2230661341386453</v>
+        <v>0.2285801892712075</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,44 +1933,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002856764274270571</v>
+        <v>0.001153212718128509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02339182599563995</v>
+        <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.003350793542031741</v>
+        <v>-0.003351685094067403</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01068033198354748</v>
+        <v>0.0119144377770202</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0007771790710871627</v>
+        <v>-0.003841930041677202</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007780172087206882</v>
+        <v>0.002493587907743516</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01134816926850701</v>
+        <v>0.000358983667321937</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001474010266960411</v>
+        <v>-0.001225161073006443</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001474010266960411</v>
+        <v>-0.001225161073006443</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.001474034554961382</v>
+        <v>-0.001225026481001059</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001474010266960411</v>
+        <v>-0.001225026481001059</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001474010266960411</v>
+        <v>-0.001225026481001059</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.002533664165346566</v>
+        <v>-0.01292486029299441</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0008926292950134078</v>
+        <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5533171620046864</v>
+        <v>0.5533199458127978</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.000262290757709225</v>
+        <v>-0.003142694318073863</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3161173101806924</v>
+        <v>0.3102204332408173</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03588021791520871</v>
+        <v>0.03859340899973635</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3697493138701959</v>
+        <v>0.3661615855002812</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2089378731895149</v>
+        <v>0.2098574080742963</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2089378731895149</v>
+        <v>0.2098574080742963</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2089378119415125</v>
+        <v>0.2098574101862964</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2089378731895149</v>
+        <v>0.2098574101862964</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2089378731895149</v>
+        <v>0.2098574101862964</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,44 +2059,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02151814194872568</v>
+        <v>-0.006210352184414087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01743691375436066</v>
+        <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.6162581371943254</v>
+        <v>0.6162545852901833</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01917159626037312</v>
+        <v>-0.0009845377956871426</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3804744656189785</v>
+        <v>0.3893838405353535</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05716506641460264</v>
+        <v>0.02184277114571084</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1824285629996235</v>
+        <v>0.1924190734927642</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2643733902869356</v>
+        <v>0.2831639453745578</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2643733902869356</v>
+        <v>0.2831639453745578</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.264373527950941</v>
+        <v>0.2831640288945611</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2643733902869356</v>
+        <v>0.2831640288945611</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2643733902869356</v>
+        <v>0.2831640288945611</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03819838568793542</v>
+        <v>-0.007392877543715101</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007725442863024937</v>
+        <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02557910204716407</v>
+        <v>-0.02558061126322445</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05092345803549266</v>
+        <v>0.01215413800948136</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6526268354810734</v>
+        <v>0.6462449887937994</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1916049620001984</v>
+        <v>-0.1339716669908667</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.339730715615646</v>
+        <v>-0.328622453687775</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7251664219346569</v>
+        <v>0.7351474202218966</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7251664219346569</v>
+        <v>0.7351474202218966</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.7251661715666469</v>
+        <v>0.735147275165891</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7251664219346569</v>
+        <v>0.735147275165891</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7251664219346569</v>
+        <v>0.735147275165891</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,44 +2185,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0440796975711879</v>
+        <v>0.04868650879546035</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.009126280473120675</v>
+        <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02706350018654</v>
+        <v>0.02706317916252717</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0009624667966176972</v>
+        <v>-0.02648790171577966</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.005285807539432301</v>
+        <v>0.0003128221565128862</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1377096537963861</v>
+        <v>-0.0755475529419021</v>
       </c>
       <c r="J27" t="n">
-        <v>0.008465876676874115</v>
+        <v>0.008933435760833247</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01706678132267125</v>
+        <v>-0.007572767918910715</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.01706678132267125</v>
+        <v>-0.007572767918910715</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.01706668945066758</v>
+        <v>-0.007572917102916683</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.01706678132267125</v>
+        <v>-0.007572917102916683</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.01706678132267125</v>
+        <v>-0.007572917102916683</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,44 +2250,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.00881284729651389</v>
+        <v>0.01161838683273547</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01313904259382564</v>
+        <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02143524316140972</v>
+        <v>0.02143512959340518</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.00400388124080601</v>
+        <v>-0.006199170535416721</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00083322675332907</v>
+        <v>0.0009344299573771981</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0279093602523744</v>
+        <v>0.02860151912806077</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01665196561025246</v>
+        <v>0.01421262124498013</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.005922899468915978</v>
+        <v>-0.006997098519883939</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.005922899468915978</v>
+        <v>-0.006997098519883939</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.005922652172906087</v>
+        <v>-0.00699722274388891</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.005922899468915978</v>
+        <v>-0.00699722274388891</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.005922899468915978</v>
+        <v>-0.00699722274388891</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,44 +2315,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01262153311286132</v>
+        <v>0.007791436247657449</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.00120621003123871</v>
+        <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02179948282397931</v>
+        <v>0.02179887063195482</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01079450126509361</v>
+        <v>0.005111205723032239</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01189809436392377</v>
+        <v>0.02107682829907313</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02369163809966552</v>
+        <v>-0.02187073844282953</v>
       </c>
       <c r="J29" t="n">
-        <v>0.006066082223963897</v>
+        <v>-0.006382141543512387</v>
       </c>
       <c r="K29" t="n">
-        <v>0.008718691644747666</v>
+        <v>0.01966447797057911</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008718691644747666</v>
+        <v>0.01966447797057911</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.008718813372752533</v>
+        <v>0.01966419822656793</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008718691644747666</v>
+        <v>0.01966419822656793</v>
       </c>
       <c r="R29" t="n">
-        <v>0.008718691644747666</v>
+        <v>0.01966419822656793</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,44 +2380,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01947929588317183</v>
+        <v>-0.02216204997448199</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01720307153048579</v>
+        <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.01994841526193661</v>
+        <v>-0.01994772578990903</v>
       </c>
       <c r="G30" t="n">
-        <v>0.016678323754823</v>
+        <v>-0.00789457039972071</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0003907562076302482</v>
+        <v>-0.01533006714120268</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0004951165638046624</v>
+        <v>-0.01907816610712664</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01222676894916737</v>
+        <v>-0.007592032056633534</v>
       </c>
       <c r="K30" t="n">
-        <v>0.009411615640464624</v>
+        <v>-0.01068998941959958</v>
       </c>
       <c r="L30" t="n">
-        <v>0.009411615640464624</v>
+        <v>-0.01068998941959958</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.009411711448468457</v>
+        <v>-0.01068958468358339</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.009411615640464624</v>
+        <v>-0.01068958468358339</v>
       </c>
       <c r="R30" t="n">
-        <v>0.009411615640464624</v>
+        <v>-0.01068958468358339</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,44 +2445,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.005164667342586693</v>
+        <v>-0.002926723605068944</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001809425503016991</v>
+        <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01822439544897582</v>
+        <v>-0.01821992741679709</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.004184473551572846</v>
+        <v>-0.02492533022884811</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001969560654782426</v>
+        <v>-0.005519177980767119</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02043743976149759</v>
+        <v>0.01284117622564705</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.009714468778026139</v>
+        <v>-0.003396620054819678</v>
       </c>
       <c r="K31" t="n">
-        <v>0.006549870501994819</v>
+        <v>-0.00336086826243473</v>
       </c>
       <c r="L31" t="n">
-        <v>0.006549870501994819</v>
+        <v>-0.00336086826243473</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.006549620997984839</v>
+        <v>-0.003360812006432479</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006549870501994819</v>
+        <v>-0.003360812006432479</v>
       </c>
       <c r="R31" t="n">
-        <v>0.006549870501994819</v>
+        <v>-0.003360812006432479</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,44 +2510,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.003046023673840947</v>
+        <v>-0.004487914739516589</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0225759394033914</v>
+        <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.0226435200417408</v>
+        <v>0.02264340071373602</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01274726876825165</v>
+        <v>0.008666462921221705</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02833151959726078</v>
+        <v>0.01806763838670553</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007485624491424979</v>
+        <v>0.003065980538639221</v>
       </c>
       <c r="J32" t="n">
-        <v>0.002603375088185326</v>
+        <v>-0.03412197073258096</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02546237909849516</v>
+        <v>0.01381471879258875</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02546237909849516</v>
+        <v>0.01381471879258875</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.02546205183448207</v>
+        <v>0.01381455616858224</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02546237909849516</v>
+        <v>0.01381455616858224</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02546237909849516</v>
+        <v>0.01381455616858224</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,44 +2575,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.003937455805498232</v>
+        <v>-0.003020739960829598</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01082878749563794</v>
+        <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.01791285556451422</v>
+        <v>-0.0179124599484984</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.008655648984421596</v>
+        <v>0.02098863790319661</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02219871199194847</v>
+        <v>-0.01727934923517397</v>
       </c>
       <c r="I33" t="n">
-        <v>0.008157991142319646</v>
+        <v>0.000348786925951477</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0009174067708096566</v>
+        <v>-0.004453878239725543</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02072592121303685</v>
+        <v>-0.01486207355448294</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02072592121303685</v>
+        <v>-0.01486207355448294</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.02072607846104313</v>
+        <v>-0.01486207691448307</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02072592121303685</v>
+        <v>-0.01486207691448307</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02072592121303685</v>
+        <v>-0.01486207691448307</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,44 +2640,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0007842515833700631</v>
+        <v>0.003153202302128092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000825380603515067</v>
+        <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.001924636204985448</v>
+        <v>-0.001925510381020415</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02041284419486928</v>
+        <v>0.004259596470105209</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.008613470840538833</v>
+        <v>-0.01823253960930158</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02701419784856791</v>
+        <v>0.01849457651578306</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0191652337494473</v>
+        <v>-0.002844973161127836</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.006786465487458619</v>
+        <v>-0.01808168971526759</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.006786465487458619</v>
+        <v>-0.01808168971526759</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.006786620719464828</v>
+        <v>-0.0180818800832752</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.006786465487458619</v>
+        <v>-0.0180818800832752</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.006786465487458619</v>
+        <v>-0.0180818800832752</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01656034424641377</v>
+        <v>-0.01264970671398827</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.005777601454693781</v>
+        <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.01676428895857155</v>
+        <v>-0.01676761948670477</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0009400050315718697</v>
+        <v>-0.01955361545231445</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01820502322420093</v>
+        <v>-0.02354279393371176</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01058423831136953</v>
+        <v>-0.001149655533986221</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.004449143526411365</v>
+        <v>0.005983699954066667</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01820419090416764</v>
+        <v>-0.0232766848990674</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01820419090416764</v>
+        <v>-0.0232766848990674</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.01820405592816223</v>
+        <v>-0.02327706448308258</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01820419090416764</v>
+        <v>-0.02327706448308258</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01820419090416764</v>
+        <v>-0.02327706448308258</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02662069431282777</v>
+        <v>-0.02566697353867894</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.00747774747370779</v>
+        <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.002450818466032738</v>
+        <v>-0.002450105570004222</v>
       </c>
       <c r="G36" t="n">
-        <v>0.008831809370954215</v>
+        <v>0.005868263924909267</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.008316525164661005</v>
+        <v>-0.01235812158232486</v>
       </c>
       <c r="I36" t="n">
-        <v>0.009515814428632577</v>
+        <v>0.00370918901236756</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.004584532045909722</v>
+        <v>0.002022295404848028</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.008722319196892765</v>
+        <v>-0.01209946541197861</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.008722319196892765</v>
+        <v>-0.01209946541197861</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.008722418844896752</v>
+        <v>-0.01209935731597429</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.008722319196892765</v>
+        <v>-0.01209935731597429</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.008722319196892765</v>
+        <v>-0.01209935731597429</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.001136626701465068</v>
+        <v>0.004163627590545103</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00931794946698741</v>
+        <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.01597958684718347</v>
+        <v>0.01598070534322821</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01668792158730354</v>
+        <v>-0.03468819804975397</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.004427235921089436</v>
+        <v>0.007038777209551087</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01893353346134134</v>
+        <v>0.02378852783154111</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.005673339002212207</v>
+        <v>0.01939343029183199</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01181848021673921</v>
+        <v>0.002200879192035167</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01181848021673921</v>
+        <v>0.002200879192035167</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.01181825423273017</v>
+        <v>0.00220102626404105</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01181848021673921</v>
+        <v>0.00220102626404105</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.01181848021673921</v>
+        <v>0.00220102626404105</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.008024808224992328</v>
+        <v>0.01611906909276276</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01479495282217837</v>
+        <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.01580615775224631</v>
+        <v>-0.0158063651122546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00694628016010064</v>
+        <v>-0.02423326536912061</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01048908541156342</v>
+        <v>-0.02338207303128292</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01983745624949824</v>
+        <v>0.006406489600259583</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01647777499260509</v>
+        <v>0.02244718944819752</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.00499692327187693</v>
+        <v>-0.02131020709240828</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.00499692327187693</v>
+        <v>-0.02131020709240828</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>-0.004997064583882583</v>
+        <v>-0.02131057678842307</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.00499692327187693</v>
+        <v>-0.02131057678842307</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.00499692327187693</v>
+        <v>-0.02131057678842307</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,44 +2965,44 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.730957109238283e-05</v>
+        <v>-0.000179461927178477</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01762884272400572</v>
+        <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.009076043115041722</v>
+        <v>-0.009070784810831392</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007597076227041854</v>
+        <v>0.00769727098579494</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01225091809003672</v>
+        <v>0.01830573586822943</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01922973273718931</v>
+        <v>-0.004009424704376987</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0006967842625906996</v>
+        <v>-0.001383286202453997</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08085289581011583</v>
+        <v>0.08395464067018561</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08085289581011583</v>
+        <v>0.08395464067018561</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.08085286816211472</v>
+        <v>0.08395430668617225</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.08085289581011583</v>
+        <v>0.08395430668617225</v>
       </c>
       <c r="R39" t="n">
-        <v>0.08085289581011583</v>
+        <v>0.08395430668617225</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -730,48 +730,48 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.002410305408412216</v>
+        <v>-0.0006681853707274148</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.02410714118828564</v>
+        <v>0.02410534973221399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008427503881872266</v>
+        <v>0.02288595528069567</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01295517805420712</v>
+        <v>0.008884484227379369</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.001485532667421307</v>
+        <v>-0.001911920620476825</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.001926273079679723</v>
+        <v>0.001160731505400256</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007988653855546153</v>
+        <v>0.00289635227585409</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007988653855546153</v>
+        <v>0.00289635227585409</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.00798864204754568</v>
+        <v>0.002896726291869051</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00798864204754568</v>
+        <v>0.00289635227585409</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00798864204754568</v>
+        <v>0.00289635227585409</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -791,48 +791,48 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01662915100116603</v>
+        <v>0.01729665985986639</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.0100309150252366</v>
+        <v>-0.01002674315306972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01405557161724478</v>
+        <v>-0.008918765566002573</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.562412902496515e-05</v>
+        <v>0.002722957068918282</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.004552376630095064</v>
+        <v>-0.00405029901001196</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.02196610505430364</v>
+        <v>-0.01728981875017755</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007284547491381899</v>
+        <v>0.003797444887897794</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007284547491381899</v>
+        <v>0.003797444887897794</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.0007285975971439037</v>
+        <v>0.003797416183896647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0007285975971439037</v>
+        <v>0.003797444887897794</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0007285975971439037</v>
+        <v>0.003797444887897794</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2479113240284529</v>
+        <v>0.2433036673321466</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.003469643370785734</v>
+        <v>-0.003472578666903146</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01546285538112075</v>
+        <v>0.01735074117921616</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004179382823175312</v>
+        <v>-0.00295087375003495</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5888158011206319</v>
+        <v>-0.5885654806306191</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002266492585991697</v>
+        <v>-0.001304520025501876</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.003354449414177976</v>
+        <v>-0.00236713900668556</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.003354449414177976</v>
+        <v>-0.00236713900668556</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.003354578918183157</v>
+        <v>-0.002367338398693535</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.003354578918183157</v>
+        <v>-0.00236713900668556</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.003354578918183157</v>
+        <v>-0.00236713900668556</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.008119922340796892</v>
+        <v>-0.007819392408775695</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.002930038293201531</v>
+        <v>-0.002924272820970913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002656101783522389</v>
+        <v>0.02799694970735269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01233232081329283</v>
+        <v>0.009684896547395861</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.006757231182289246</v>
+        <v>-0.007649139665965586</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0168550609872068</v>
+        <v>-0.01205663616731911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01134251056570042</v>
+        <v>0.008044670145786805</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01134251056570042</v>
+        <v>0.008044670145786805</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.01134242848569714</v>
+        <v>0.008044483041779321</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01134242848569714</v>
+        <v>0.008044670145786805</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01134242848569714</v>
+        <v>0.008044670145786805</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,44 +978,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.221296475059859</v>
+        <v>0.2188476969779079</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.007070279994811198</v>
+        <v>-0.007069025082761003</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04548598998330902</v>
+        <v>0.009776391440341394</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01414749906189996</v>
+        <v>-0.01722454532898181</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7556146272805849</v>
+        <v>0.7554506862500273</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02816753633208948</v>
+        <v>0.01917917215263128</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01321297704051908</v>
+        <v>-0.01676314233452569</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01321297704051908</v>
+        <v>-0.01676314233452569</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.01321293105651724</v>
+        <v>-0.01676305219052209</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01321293105651724</v>
+        <v>-0.01676314233452569</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01321293105651724</v>
+        <v>-0.01676314233452569</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,44 +1043,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8955423999496958</v>
+        <v>0.8911531431661256</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.03249492168379686</v>
+        <v>-0.03249455534778221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003782052653174692</v>
+        <v>0.01524903474905318</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002781498351259934</v>
+        <v>0.0004843487233739488</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005725968133038725</v>
+        <v>0.006206909240276368</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.008805230969932753</v>
+        <v>-0.02406205753175257</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005160352046414082</v>
+        <v>0.008206588456263536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005160352046414082</v>
+        <v>0.008206588456263536</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.005160693710427748</v>
+        <v>0.008206513864260554</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005160693710427748</v>
+        <v>0.008206588456263536</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005160693710427748</v>
+        <v>0.008206588456263536</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,44 +1108,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.009201978992079158</v>
+        <v>0.01133039296521572</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.007561088462443537</v>
+        <v>-0.007559568686382747</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01817071478369605</v>
+        <v>-0.01937141810430177</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.00121234449649378</v>
+        <v>0.001187124623484985</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01130141930005677</v>
+        <v>-0.01154474657378986</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006343301333421852</v>
+        <v>0.007699948753845913</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002541996869679874</v>
+        <v>0.004919613316784532</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002541996869679874</v>
+        <v>0.004919613316784532</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.002541948869677955</v>
+        <v>0.0049193325167733</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002541948869677955</v>
+        <v>0.004919613316784532</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002541948869677955</v>
+        <v>0.004919613316784532</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,44 +1173,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01101641141665645</v>
+        <v>-0.09596302972652118</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.002931955797278232</v>
+        <v>0.002934706389388255</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002753860228708044</v>
+        <v>-0.01184822714785509</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.000837520353500814</v>
+        <v>-0.001247224081888963</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01452357523694301</v>
+        <v>0.014520700132828</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0130663552152835</v>
+        <v>-0.02042776675098209</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001380234391209376</v>
+        <v>-0.002300818172032726</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001380234391209376</v>
+        <v>-0.002300818172032726</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.001380538135221525</v>
+        <v>-0.002300561564022462</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.001380538135221525</v>
+        <v>-0.002300818172032726</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001380538135221525</v>
+        <v>-0.002300818172032726</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.01883193598527744</v>
+        <v>-0.02129665813186632</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01502185884087435</v>
+        <v>0.01502385708095428</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01389774505531762</v>
+        <v>0.003505860407861595</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02615543778221751</v>
+        <v>0.02695768322230733</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003410166184406647</v>
+        <v>0.003732120821284832</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003044355187859374</v>
+        <v>-0.003393320927193274</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02526539054661562</v>
+        <v>0.02673134689325387</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02526539054661562</v>
+        <v>0.02673134689325387</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.02526574968262999</v>
+        <v>0.02673143828525753</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02526574968262999</v>
+        <v>0.02673134689325387</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02526574968262999</v>
+        <v>0.02673134689325387</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,44 +1299,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2726726470669059</v>
+        <v>-0.2681713824708552</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.01420598044023922</v>
+        <v>0.01420572344822894</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02456416639210132</v>
+        <v>0.008682081177865834</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01045185939407437</v>
+        <v>0.00782580079303203</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.002560787142431485</v>
+        <v>-0.003170704446828178</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01432103049881515</v>
+        <v>-0.01252958638596702</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008439734449589377</v>
+        <v>0.005262552306502092</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008439734449589377</v>
+        <v>0.005262552306502092</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.008439569137582764</v>
+        <v>0.005262638898505556</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008439569137582764</v>
+        <v>0.005262552306502092</v>
       </c>
       <c r="R13" t="n">
-        <v>0.008439569137582764</v>
+        <v>0.005262552306502092</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01210410336416413</v>
+        <v>-0.01403509323340373</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02991282657251306</v>
+        <v>0.02991486225259448</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.003376373144651114</v>
+        <v>-0.006949084334320631</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01002015947280638</v>
+        <v>0.01109748533989941</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02074939177397567</v>
+        <v>-0.02021331536853261</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01779029625354491</v>
+        <v>0.01442558226879501</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004345839437833577</v>
+        <v>0.006481325059253001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004345839437833577</v>
+        <v>0.006481325059253001</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.004345793165831726</v>
+        <v>0.006481067971242718</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004345793165831726</v>
+        <v>0.006481325059253001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.004345793165831726</v>
+        <v>0.006481325059253001</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002095792883831715</v>
+        <v>0.002995890743835629</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.000342450349698014</v>
+        <v>-0.000344571853782874</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008139544385978191</v>
+        <v>-0.008511692375196651</v>
       </c>
       <c r="H15" t="n">
-        <v>2.115840084633603e-06</v>
+        <v>0.001158434926337397</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00954259775770391</v>
+        <v>0.01027275785091031</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01216551939079692</v>
+        <v>-0.01063410002316773</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002791545615661824</v>
+        <v>0.004229931337197253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002791545615661824</v>
+        <v>0.004229931337197253</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.002791692303667691</v>
+        <v>0.004229785705191428</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002791692303667691</v>
+        <v>0.004229931337197253</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002791692303667691</v>
+        <v>0.004229931337197253</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,44 +1494,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.004875322083012884</v>
+        <v>-0.003879717659188706</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.02691509099660364</v>
+        <v>0.02691384578055383</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01537084327146577</v>
+        <v>0.0006906779000201304</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004598861175954446</v>
+        <v>0.003988878687555147</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01938521357540854</v>
+        <v>-0.02034351729374069</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01717220233227662</v>
+        <v>0.02553692654285259</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006318644412745776</v>
+        <v>0.000186874375474975</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006318644412745776</v>
+        <v>0.000186874375474975</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.0006317359932694397</v>
+        <v>0.0001868642954745718</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0006317359932694397</v>
+        <v>0.000186874375474975</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0006317359932694397</v>
+        <v>0.000186874375474975</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06052235397289415</v>
+        <v>-0.06074981206199248</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.009837394473495777</v>
+        <v>0.009835595145423804</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.008527977967578471</v>
+        <v>-0.003726575456436466</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02208790091551603</v>
+        <v>0.0211681849747274</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.008389187663567506</v>
+        <v>-0.008686357019454281</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.002881456379091508</v>
+        <v>-0.001870247865377246</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02075584239823369</v>
+        <v>0.01959263348770534</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02075584239823369</v>
+        <v>0.01959263348770534</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.02075610083024403</v>
+        <v>0.0195928226077129</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02075610083024403</v>
+        <v>0.01959263348770534</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02075610083024403</v>
+        <v>0.01959263348770534</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,44 +1620,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01120763939230558</v>
+        <v>-0.009751767270070689</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.0228694599867784</v>
+        <v>0.02286893745875749</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00342214344685942</v>
+        <v>0.01327801812302353</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02099024330360973</v>
+        <v>0.02100154672806186</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.002236745849469834</v>
+        <v>-0.001756680454267218</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.003042448627756756</v>
+        <v>-0.01130957886122691</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01513298681331947</v>
+        <v>0.01536081642243266</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01513298681331947</v>
+        <v>0.01536081642243266</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.01513330169333207</v>
+        <v>0.01536110019844401</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01513330169333207</v>
+        <v>0.01536081642243266</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01513330169333207</v>
+        <v>0.01536081642243266</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,44 +1685,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04187974986718999</v>
+        <v>-0.04254299219771968</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.002406778464271139</v>
+        <v>-0.002406126432245057</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01878025059188581</v>
+        <v>0.02369226968256649</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.006016720368668815</v>
+        <v>-0.01593266636530665</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1468543518901741</v>
+        <v>0.1482333326173333</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.003993153190927477</v>
+        <v>0.005008087722175696</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.005150497742019909</v>
+        <v>-0.01623791680951667</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.005150497742019909</v>
+        <v>-0.01623791680951667</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.005150802926032117</v>
+        <v>-0.01623783338551333</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.005150802926032117</v>
+        <v>-0.01623791680951667</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.005150802926032117</v>
+        <v>-0.01623791680951667</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.004892699523707981</v>
+        <v>-0.005542018397680736</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.3505038338921533</v>
+        <v>0.3505041706601668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006293533404717422</v>
+        <v>-0.009927536149969678</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1992218349128733</v>
+        <v>0.197134776397391</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01392162218886489</v>
+        <v>0.01546145476245819</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1254791436337894</v>
+        <v>0.1241066084966628</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1365583691423347</v>
+        <v>0.1390542791941711</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1365583691423347</v>
+        <v>0.1390542791941711</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.1365587613023504</v>
+        <v>0.1390542533701701</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1365587613023504</v>
+        <v>0.1390542791941711</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1365587613023504</v>
+        <v>0.1390542791941711</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02709333074773323</v>
+        <v>-0.02354275034971001</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.006015790704631627</v>
+        <v>-0.006020831376833255</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01877025004677343</v>
+        <v>-0.01511097494778777</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.008140852549634101</v>
+        <v>-0.01391797534071901</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0209991100559644</v>
+        <v>0.02045860929834437</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01347824731745318</v>
+        <v>-0.01839977575671697</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.006913330740533228</v>
+        <v>-0.01399419339176773</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.006913330740533228</v>
+        <v>-0.01399419339176773</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.006913234932529397</v>
+        <v>-0.01399390529575621</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.006913234932529397</v>
+        <v>-0.01399419339176773</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.006913234932529397</v>
+        <v>-0.01399419339176773</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02308232108329284</v>
+        <v>-0.02344811095392444</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.3980910117956404</v>
+        <v>0.3980900714756028</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005587674376789281</v>
+        <v>0.001385994261933735</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2917833803113352</v>
+        <v>0.294569274982771</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003335095717403828</v>
+        <v>-0.003436983977479359</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1458604668267938</v>
+        <v>0.1398387542470748</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2285803686952147</v>
+        <v>0.2364286049771441</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2285803686952147</v>
+        <v>0.2364286049771441</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.2285801892712075</v>
+        <v>0.2364284836331393</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2285801892712075</v>
+        <v>0.2364286049771441</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2285801892712075</v>
+        <v>0.2364286049771441</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,44 +1933,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001153212718128509</v>
+        <v>0.003955814078232563</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.003351685094067403</v>
+        <v>-0.003351565574062622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0119144377770202</v>
+        <v>0.00817359091248631</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.003841930041677202</v>
+        <v>-0.007707162356286493</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002493587907743516</v>
+        <v>0.001957895214315808</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000358983667321937</v>
+        <v>0.0008128156777972867</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001225161073006443</v>
+        <v>-0.006122207572888302</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.001225161073006443</v>
+        <v>-0.006122207572888302</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.001225026481001059</v>
+        <v>-0.006122339188893567</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.001225026481001059</v>
+        <v>-0.006122207572888302</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.001225026481001059</v>
+        <v>-0.006122207572888302</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01292486029299441</v>
+        <v>-0.01106454572258183</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5533199458127978</v>
+        <v>0.5533159046926361</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003142694318073863</v>
+        <v>0.01308583778498879</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3102204332408173</v>
+        <v>0.2990341983933679</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03859340899973635</v>
+        <v>0.03864930221797208</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3661615855002812</v>
+        <v>0.3768337718563221</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2098574080742963</v>
+        <v>0.2050444410657776</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2098574080742963</v>
+        <v>0.2050444410657776</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2098574101862964</v>
+        <v>0.2050443918177756</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2098574101862964</v>
+        <v>0.2050444410657776</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2098574101862964</v>
+        <v>0.2050444410657776</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,44 +2059,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.006210352184414087</v>
+        <v>-0.00930946530037861</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.6162545852901833</v>
+        <v>0.6162587637863505</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0009845377956871426</v>
+        <v>0.0008190012659354562</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3893838405353535</v>
+        <v>0.3855772984950919</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02184277114571084</v>
+        <v>0.02187040129081605</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1924190734927642</v>
+        <v>0.1890754440452668</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2831639453745578</v>
+        <v>0.2869557150302285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2831639453745578</v>
+        <v>0.2869557150302285</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.2831640288945611</v>
+        <v>0.2869555813982232</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2831640288945611</v>
+        <v>0.2869557150302285</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2831640288945611</v>
+        <v>0.2869557150302285</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.007392877543715101</v>
+        <v>-0.01576565055062602</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02558061126322445</v>
+        <v>-0.02557678067107122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01215413800948136</v>
+        <v>0.009124235600322907</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6462449887937994</v>
+        <v>0.6581693132387725</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1339716669908667</v>
+        <v>-0.1355832452633298</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.328622453687775</v>
+        <v>-0.3395942132460963</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7351474202218966</v>
+        <v>0.7332600057144001</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7351474202218966</v>
+        <v>0.7332600057144001</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.735147275165891</v>
+        <v>0.733260176114407</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.735147275165891</v>
+        <v>0.7332600057144001</v>
       </c>
       <c r="R26" t="n">
-        <v>0.735147275165891</v>
+        <v>0.7332600057144001</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,44 +2185,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04868650879546035</v>
+        <v>0.05059019194360768</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02706317916252717</v>
+        <v>0.02706549900261996</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02648790171577966</v>
+        <v>-0.01924817912109101</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0003128221565128862</v>
+        <v>0.004185481607419264</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0755475529419021</v>
+        <v>-0.07464015668160626</v>
       </c>
       <c r="J27" t="n">
-        <v>0.008933435760833247</v>
+        <v>0.0129752928110799</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.007572767918910715</v>
+        <v>-0.002841603569664143</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.007572767918910715</v>
+        <v>-0.002841603569664143</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.007572917102916683</v>
+        <v>-0.002841724817668992</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.007572917102916683</v>
+        <v>-0.002841603569664143</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.007572917102916683</v>
+        <v>-0.002841603569664143</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,44 +2250,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01161838683273547</v>
+        <v>0.01058626333545053</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02143512959340518</v>
+        <v>0.02143396175335847</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.006199170535416721</v>
+        <v>0.007968485975186557</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0009344299573771981</v>
+        <v>-0.002052865714114628</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02860151912806077</v>
+        <v>0.02685526139421045</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01421262124498013</v>
+        <v>0.01399338539644331</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.006997098519883939</v>
+        <v>-0.010296125019845</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.006997098519883939</v>
+        <v>-0.010296125019845</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.00699722274388891</v>
+        <v>-0.01029582069983283</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.00699722274388891</v>
+        <v>-0.010296125019845</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.00699722274388891</v>
+        <v>-0.010296125019845</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,44 +2315,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007791436247657449</v>
+        <v>0.009439466201578647</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02179887063195482</v>
+        <v>0.02179788125591525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005111205723032239</v>
+        <v>-0.04295947843051287</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02107682829907313</v>
+        <v>0.01853357738134309</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02187073844282953</v>
+        <v>-0.02224520546580822</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.006382141543512387</v>
+        <v>-0.005214223733790223</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01966447797057911</v>
+        <v>0.01704644064985763</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01966447797057911</v>
+        <v>0.01704644064985763</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.01966419822656793</v>
+        <v>0.01704656237786249</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01966419822656793</v>
+        <v>0.01704644064985763</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01966419822656793</v>
+        <v>0.01704644064985763</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,44 +2380,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02216204997448199</v>
+        <v>-0.0227980050719202</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.01994772578990903</v>
+        <v>-0.01994875490995019</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00789457039972071</v>
+        <v>-0.01248916629311433</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01533006714120268</v>
+        <v>-0.01191969570878783</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01907816610712664</v>
+        <v>-0.01864542333781693</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.007592032056633534</v>
+        <v>-0.005416386161180863</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.01068998941959958</v>
+        <v>-0.006450247362009894</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.01068998941959958</v>
+        <v>-0.006450247362009894</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.01068958468358339</v>
+        <v>-0.006450349698013988</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.01068958468358339</v>
+        <v>-0.006450247362009894</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.01068958468358339</v>
+        <v>-0.006450247362009894</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,44 +2445,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.002926723605068944</v>
+        <v>-0.002717931084717243</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01821992741679709</v>
+        <v>-0.01822038149681526</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.02492533022884811</v>
+        <v>0.02040151062196752</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.005519177980767119</v>
+        <v>-0.01047613443504538</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01284117622564705</v>
+        <v>0.01300219549608782</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.003396620054819678</v>
+        <v>-0.01080622457686592</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.00336086826243473</v>
+        <v>-0.008079932867197314</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.00336086826243473</v>
+        <v>-0.008079932867197314</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.003360812006432479</v>
+        <v>-0.008080152995206119</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.003360812006432479</v>
+        <v>-0.008079932867197314</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.003360812006432479</v>
+        <v>-0.008079932867197314</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,44 +2510,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.004487914739516589</v>
+        <v>-0.004384395919375836</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.02264340071373602</v>
+        <v>0.02264451469778059</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008666462921221705</v>
+        <v>-0.00152127444552721</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01806763838670553</v>
+        <v>0.0156421650736866</v>
       </c>
       <c r="I32" t="n">
-        <v>0.003065980538639221</v>
+        <v>0.003004189368167575</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.03412197073258096</v>
+        <v>-0.02547246292322045</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01381471879258875</v>
+        <v>0.01139910477596419</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01381471879258875</v>
+        <v>0.01139910477596419</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.01381455616858224</v>
+        <v>0.01139871578394863</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01381455616858224</v>
+        <v>0.01139910477596419</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01381455616858224</v>
+        <v>0.01139910477596419</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,44 +2575,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.003020739960829598</v>
+        <v>-0.00174749200589968</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.0179124599484984</v>
+        <v>-0.0179081276603251</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02098863790319661</v>
+        <v>-0.0237182471695589</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.01727934923517397</v>
+        <v>-0.01394812692592507</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000348786925951477</v>
+        <v>0.0007700164148006565</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.004453878239725543</v>
+        <v>-0.0006557109969453805</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01486207355448294</v>
+        <v>-0.01130325827613033</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01486207355448294</v>
+        <v>-0.01130325827613033</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01486207691448307</v>
+        <v>-0.01130339402013576</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01486207691448307</v>
+        <v>-0.01130325827613033</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01486207691448307</v>
+        <v>-0.01130325827613033</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,44 +2640,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003153202302128092</v>
+        <v>0.003381917223276688</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.001925510381020415</v>
+        <v>-0.001925264429010577</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004259596470105209</v>
+        <v>0.008052227041215445</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01823253960930158</v>
+        <v>-0.01655836482233459</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01849457651578306</v>
+        <v>0.01828572149942886</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.002844973161127836</v>
+        <v>0.003103905246886437</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01808168971526759</v>
+        <v>-0.01619216359168654</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.01808168971526759</v>
+        <v>-0.01619216359168654</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.0180818800832752</v>
+        <v>-0.01619207575168303</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.0180818800832752</v>
+        <v>-0.01619216359168654</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.0180818800832752</v>
+        <v>-0.01619216359168654</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01264970671398827</v>
+        <v>-0.01143629114545164</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.01676761948670477</v>
+        <v>-0.01676611295864452</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01955361545231445</v>
+        <v>0.005340331983716305</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02354279393371176</v>
+        <v>-0.0257403927096157</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.001149655533986221</v>
+        <v>-0.001109315180372607</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005983699954066667</v>
+        <v>-0.006387062615872656</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0232766848990674</v>
+        <v>-0.02654419613376784</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0232766848990674</v>
+        <v>-0.02654419613376784</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.02327706448308258</v>
+        <v>-0.02654458656578346</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.02327706448308258</v>
+        <v>-0.02654419613376784</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02327706448308258</v>
+        <v>-0.02654419613376784</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02566697353867894</v>
+        <v>-0.02586527671461106</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.002450105570004222</v>
+        <v>-0.002448844417953776</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005868263924909267</v>
+        <v>0.005090840782832197</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01235812158232486</v>
+        <v>-0.003374734310989372</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00370918901236756</v>
+        <v>0.00368766427550657</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002022295404848028</v>
+        <v>0.007700598865882543</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01209946541197861</v>
+        <v>-0.002191288215651528</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01209946541197861</v>
+        <v>-0.002191288215651528</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.01209935731597429</v>
+        <v>-0.00219099099963964</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.01209935731597429</v>
+        <v>-0.002191288215651528</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01209935731597429</v>
+        <v>-0.002191288215651528</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004163627590545103</v>
+        <v>0.001144750413790017</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.01598070534322821</v>
+        <v>0.01598236835129473</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03468819804975397</v>
+        <v>-0.01549253603189825</v>
       </c>
       <c r="H37" t="n">
-        <v>0.007038777209551087</v>
+        <v>0.009960783278431329</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02378852783154111</v>
+        <v>0.0236321575532863</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01939343029183199</v>
+        <v>0.0159132561446165</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002200879192035167</v>
+        <v>0.006338974333558972</v>
       </c>
       <c r="L37" t="n">
-        <v>0.002200879192035167</v>
+        <v>0.006338974333558972</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.00220102626404105</v>
+        <v>0.00633894850955794</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.00220102626404105</v>
+        <v>0.006338974333558972</v>
       </c>
       <c r="R37" t="n">
-        <v>0.00220102626404105</v>
+        <v>0.006338974333558972</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01611906909276276</v>
+        <v>0.01507885279515411</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.0158063651122546</v>
+        <v>-0.0158089625843585</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.02423326536912061</v>
+        <v>0.01178176322239073</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.02338207303128292</v>
+        <v>-0.0193691601667664</v>
       </c>
       <c r="I38" t="n">
-        <v>0.006406489600259583</v>
+        <v>0.007294084227763368</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02244718944819752</v>
+        <v>0.01057697569994912</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.02131020709240828</v>
+        <v>-0.01674016310160652</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.02131020709240828</v>
+        <v>-0.01674016310160652</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>-0.02131057678842307</v>
+        <v>-0.01673988585359543</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.02131057678842307</v>
+        <v>-0.01674016310160652</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.02131057678842307</v>
+        <v>-0.01674016310160652</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,44 +2965,44 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.000179461927178477</v>
+        <v>-0.0008256807690272306</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.009070784810831392</v>
+        <v>-0.009073472042938879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00769727098579494</v>
+        <v>0.01040129318931834</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01830573586822943</v>
+        <v>0.01569977889999115</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.004009424704376987</v>
+        <v>-0.004034612993384519</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.001383286202453997</v>
+        <v>0.006660743079292908</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08395464067018561</v>
+        <v>0.07965962296238491</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08395464067018561</v>
+        <v>0.07965962296238491</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.08395430668617225</v>
+        <v>0.07965975457839017</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.08395430668617225</v>
+        <v>0.07965962296238491</v>
       </c>
       <c r="R39" t="n">
-        <v>0.08395430668617225</v>
+        <v>0.07965962296238491</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -734,44 +734,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0006681853707274148</v>
+        <v>-0.0006534905541396221</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.02410534973221399</v>
+        <v>0.0241052050602082</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02288595528069567</v>
+        <v>0.02099172577738714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008884484227379369</v>
+        <v>0.008258777322351092</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.001911920620476825</v>
+        <v>-0.001761978886479155</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001160731505400256</v>
+        <v>-0.000789853580617249</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00289635227585409</v>
+        <v>0.002133184405327376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00289635227585409</v>
+        <v>0.002133184405327376</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.002896726291869051</v>
+        <v>0.002133558421342337</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00289635227585409</v>
+        <v>0.002133184405327376</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00289635227585409</v>
+        <v>0.002133184405327376</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,44 +795,44 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01729665985986639</v>
+        <v>0.01721364798454592</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01002674315306972</v>
+        <v>-0.01002676168107047</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.008918765566002573</v>
+        <v>-0.006009333915154903</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002722957068918282</v>
+        <v>0.003180752095230084</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00405029901001196</v>
+        <v>-0.003969238238769528</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01728981875017755</v>
+        <v>-0.01696010323004231</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003797444887897794</v>
+        <v>0.0042884200115368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003797444887897794</v>
+        <v>0.0042884200115368</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.003797416183896647</v>
+        <v>0.004288391307535652</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003797444887897794</v>
+        <v>0.0042884200115368</v>
       </c>
       <c r="R5" t="n">
-        <v>0.003797444887897794</v>
+        <v>0.0042884200115368</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2433036673321466</v>
+        <v>0.2432643988185759</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.003472578666903146</v>
+        <v>-0.003473258922930356</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01735074117921616</v>
+        <v>0.01864871897649635</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00295087375003495</v>
+        <v>-0.002852565906102636</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5885654806306191</v>
+        <v>-0.5885927443437097</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.001304520025501876</v>
+        <v>-0.0007627357390854163</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00236713900668556</v>
+        <v>-0.002208022936320917</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00236713900668556</v>
+        <v>-0.002208022936320917</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.002367338398693535</v>
+        <v>-0.002208222328328893</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.00236713900668556</v>
+        <v>-0.002208022936320917</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.00236713900668556</v>
+        <v>-0.002208022936320917</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.007819392408775695</v>
+        <v>-0.007751181238047248</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.002924272820970913</v>
+        <v>-0.002924293364971734</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02799694970735269</v>
+        <v>0.02805136685173598</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009684896547395861</v>
+        <v>0.009433728089349122</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.007649139665965586</v>
+        <v>-0.00765991950639678</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01205663616731911</v>
+        <v>-0.0116821236838998</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008044670145786805</v>
+        <v>0.007793920919756836</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008044670145786805</v>
+        <v>0.007793920919756836</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.008044483041779321</v>
+        <v>0.007793733815749351</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008044670145786805</v>
+        <v>0.007793920919756836</v>
       </c>
       <c r="R7" t="n">
-        <v>0.008044670145786805</v>
+        <v>0.007793920919756836</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,44 +978,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2188476969779079</v>
+        <v>0.2189523275740931</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.007069025082761003</v>
+        <v>-0.007068701946748077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009776391440341394</v>
+        <v>0.009616142361788408</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01722454532898181</v>
+        <v>-0.01752517356500694</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7554506862500273</v>
+        <v>0.7554135863765434</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01917917215263128</v>
+        <v>0.02067140881568654</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01676314233452569</v>
+        <v>-0.01703478375339135</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01676314233452569</v>
+        <v>-0.01703478375339135</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.01676305219052209</v>
+        <v>-0.01703469360938774</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01676314233452569</v>
+        <v>-0.01703478375339135</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01676314233452569</v>
+        <v>-0.01703478375339135</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,44 +1043,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8911531431661256</v>
+        <v>0.8911103563484142</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.03249455534778221</v>
+        <v>-0.03249428280377131</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01524903474905318</v>
+        <v>0.01546060826996114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004843487233739488</v>
+        <v>0.001013259688530387</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006206909240276368</v>
+        <v>0.006250198426007936</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02406205753175257</v>
+        <v>-0.02303730619733135</v>
       </c>
       <c r="K9" t="n">
-        <v>0.008206588456263536</v>
+        <v>0.008822814880912595</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008206588456263536</v>
+        <v>0.008822814880912595</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.008206513864260554</v>
+        <v>0.008822740288909609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.008206588456263536</v>
+        <v>0.008822814880912595</v>
       </c>
       <c r="R9" t="n">
-        <v>0.008206588456263536</v>
+        <v>0.008822814880912595</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,44 +1108,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01133039296521572</v>
+        <v>0.01135083031003321</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.007559568686382747</v>
+        <v>-0.00755986225439449</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01937141810430177</v>
+        <v>-0.01735172917502395</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001187124623484985</v>
+        <v>0.0008117098884683954</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01154474657378986</v>
+        <v>-0.01153890698955628</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007699948753845913</v>
+        <v>0.00727120111473561</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004919613316784532</v>
+        <v>0.004482879443315177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004919613316784532</v>
+        <v>0.004482879443315177</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.0049193325167733</v>
+        <v>0.004482598643303946</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004919613316784532</v>
+        <v>0.004482879443315177</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004919613316784532</v>
+        <v>0.004482879443315177</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,44 +1173,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.09596302972652118</v>
+        <v>-0.09596346950253878</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.002934706389388255</v>
+        <v>0.002934208053368322</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01184822714785509</v>
+        <v>-0.01224705408482425</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.001247224081888963</v>
+        <v>-0.001153063726122549</v>
       </c>
       <c r="I11" t="n">
-        <v>0.014520700132828</v>
+        <v>0.01450406525216261</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02042776675098209</v>
+        <v>-0.02009277713500079</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.002300818172032726</v>
+        <v>-0.002244429113777164</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.002300818172032726</v>
+        <v>-0.002244429113777164</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.002300561564022462</v>
+        <v>-0.0022441725057669</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.002300818172032726</v>
+        <v>-0.002244429113777164</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.002300818172032726</v>
+        <v>-0.002244429113777164</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.02129665813186632</v>
+        <v>-0.02128444664337786</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01502385708095428</v>
+        <v>0.01502298607291944</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003505860407861595</v>
+        <v>0.002959375426611365</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02695768322230733</v>
+        <v>0.02643898473755939</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003732120821284832</v>
+        <v>0.003777893911115756</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003393320927193274</v>
+        <v>-0.002306899570312143</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02673134689325387</v>
+        <v>0.02619803903192156</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02673134689325387</v>
+        <v>0.02619803903192156</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.02673143828525753</v>
+        <v>0.02619813042392521</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02673134689325387</v>
+        <v>0.02619803903192156</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02673134689325387</v>
+        <v>0.02619803903192156</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,44 +1299,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2681713824708552</v>
+        <v>-0.2682656661866266</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.01420572344822894</v>
+        <v>0.01420598495223939</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008682081177865834</v>
+        <v>0.008625373901338135</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00782580079303203</v>
+        <v>0.008068181410727255</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003170704446828178</v>
+        <v>-0.003100682620027304</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01252958638596702</v>
+        <v>-0.01174881445566703</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005262552306502092</v>
+        <v>0.005648018913920756</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005262552306502092</v>
+        <v>0.005648018913920756</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.005262638898505556</v>
+        <v>0.00564810550592422</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.005262552306502092</v>
+        <v>0.005648018913920756</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005262552306502092</v>
+        <v>0.005648018913920756</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01403509323340373</v>
+        <v>-0.01409675979587039</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02991486225259448</v>
+        <v>0.02991482318059292</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006949084334320631</v>
+        <v>-0.005794004959705288</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01109748533989941</v>
+        <v>0.01125094557003782</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02021331536853261</v>
+        <v>-0.02020150592806023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01442558226879501</v>
+        <v>0.01533305909013384</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006481325059253001</v>
+        <v>0.006768181422727256</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006481325059253001</v>
+        <v>0.006768181422727256</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.006481067971242718</v>
+        <v>0.006767924334716972</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006481325059253001</v>
+        <v>0.006768181422727256</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006481325059253001</v>
+        <v>0.006768181422727256</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002995890743835629</v>
+        <v>0.003174316350972654</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.000344571853782874</v>
+        <v>-0.0003445021577800863</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.008511692375196651</v>
+        <v>-0.00918918964037102</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001158434926337397</v>
+        <v>9.406425976257038e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01027275785091031</v>
+        <v>0.01023161532126461</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01063410002316773</v>
+        <v>-0.01101043166195726</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004229931337197253</v>
+        <v>0.003023833752953349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004229931337197253</v>
+        <v>0.003023833752953349</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.004229785705191428</v>
+        <v>0.003023688120947525</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004229931337197253</v>
+        <v>0.003023833752953349</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004229931337197253</v>
+        <v>0.003023833752953349</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,44 +1494,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.003879717659188706</v>
+        <v>-0.003710792596431704</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.02691384578055383</v>
+        <v>0.0269144649805786</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006906779000201304</v>
+        <v>-0.0002872024943478316</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003988878687555147</v>
+        <v>0.00321989801679592</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02034351729374069</v>
+        <v>-0.02044243694569747</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02553692654285259</v>
+        <v>0.02522355795282834</v>
       </c>
       <c r="K16" t="n">
-        <v>0.000186874375474975</v>
+        <v>-0.00068505900340236</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000186874375474975</v>
+        <v>-0.00068505900340236</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.0001868642954745718</v>
+        <v>-0.0006850690834027633</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.000186874375474975</v>
+        <v>-0.00068505900340236</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000186874375474975</v>
+        <v>-0.00068505900340236</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06074981206199248</v>
+        <v>-0.06078425398337015</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.009835595145423804</v>
+        <v>0.009835342857413713</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.003726575456436466</v>
+        <v>-0.00556222927608233</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0211681849747274</v>
+        <v>0.02125137109005484</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.008686357019454281</v>
+        <v>-0.00868152802726112</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.001870247865377246</v>
+        <v>-0.0001057176059717761</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01959263348770534</v>
+        <v>0.01981634892065395</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01959263348770534</v>
+        <v>0.01981634892065395</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.0195928226077129</v>
+        <v>0.01981653804066152</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01959263348770534</v>
+        <v>0.01981634892065395</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01959263348770534</v>
+        <v>0.01981634892065395</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,44 +1620,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.009751767270070689</v>
+        <v>-0.0097852575434103</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.02286893745875749</v>
+        <v>0.02286863467474538</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01327801812302353</v>
+        <v>0.01410551861128969</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02100154672806186</v>
+        <v>0.02111725966069038</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001756680454267218</v>
+        <v>-0.001753189606127584</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01130957886122691</v>
+        <v>-0.01218660299239683</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01536081642243266</v>
+        <v>0.01545391194615648</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01536081642243266</v>
+        <v>0.01545391194615648</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.01536110019844401</v>
+        <v>0.01545419572216783</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01536081642243266</v>
+        <v>0.01545391194615648</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01536081642243266</v>
+        <v>0.01545391194615648</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,44 +1685,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04254299219771968</v>
+        <v>-0.04249335894773435</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.002406126432245057</v>
+        <v>-0.002405825952233038</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02369226968256649</v>
+        <v>0.02521118545621363</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01593266636530665</v>
+        <v>-0.01653340722133629</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1482333326173333</v>
+        <v>0.1482152296086092</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005008087722175696</v>
+        <v>0.00626713072201768</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.01623791680951667</v>
+        <v>-0.01686415229056609</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01623791680951667</v>
+        <v>-0.01686415229056609</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01623783338551333</v>
+        <v>-0.01686406886656276</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01623791680951667</v>
+        <v>-0.01686415229056609</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01623791680951667</v>
+        <v>-0.01686415229056609</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.005542018397680736</v>
+        <v>-0.005521406428856256</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.3505041706601668</v>
+        <v>0.35050425005217</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009927536149969678</v>
+        <v>-0.01038998632941665</v>
       </c>
       <c r="H20" t="n">
-        <v>0.197134776397391</v>
+        <v>0.1968241471689659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01546145476245819</v>
+        <v>0.01547294874691795</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1241066084966628</v>
+        <v>0.1245394486829844</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1390542791941711</v>
+        <v>0.1386988842039553</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1390542791941711</v>
+        <v>0.1386988842039553</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.1390542533701701</v>
+        <v>0.1386988583799543</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1390542791941711</v>
+        <v>0.1386988842039553</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1390542791941711</v>
+        <v>0.1386988842039553</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02354275034971001</v>
+        <v>-0.0236986600199464</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.006020831376833255</v>
+        <v>-0.00602093524883741</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01511097494778777</v>
+        <v>-0.01407093734056651</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01391797534071901</v>
+        <v>-0.01290837853233514</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02045860929834437</v>
+        <v>0.02051052984442119</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01839977575671697</v>
+        <v>-0.01890932982015022</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01399419339176773</v>
+        <v>-0.01288491987539679</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01399419339176773</v>
+        <v>-0.01288491987539679</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01399390529575621</v>
+        <v>-0.01288463177938527</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01399419339176773</v>
+        <v>-0.01288491987539679</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01399419339176773</v>
+        <v>-0.01288491987539679</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02344811095392444</v>
+        <v>-0.02348123277924931</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.3980900714756028</v>
+        <v>0.3980895355075814</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001385994261933735</v>
+        <v>0.0009070554008741942</v>
       </c>
       <c r="H22" t="n">
-        <v>0.294569274982771</v>
+        <v>0.294432451073298</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003436983977479359</v>
+        <v>-0.003371125190845007</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1398387542470748</v>
+        <v>0.1397913867605358</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2364286049771441</v>
+        <v>0.2362569184742767</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2364286049771441</v>
+        <v>0.2362569184742767</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.2364284836331393</v>
+        <v>0.2362567971302718</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2364286049771441</v>
+        <v>0.2362569184742767</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2364286049771441</v>
+        <v>0.2362569184742767</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,44 +1933,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003955814078232563</v>
+        <v>0.003801288824051552</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.003351565574062622</v>
+        <v>-0.003351487622059505</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00817359091248631</v>
+        <v>0.009843300848106289</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.007707162356286493</v>
+        <v>-0.006310804188432167</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001957895214315808</v>
+        <v>0.002019154352766174</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0008128156777972867</v>
+        <v>0.0006343181638313644</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.006122207572888302</v>
+        <v>-0.004675496251019849</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.006122207572888302</v>
+        <v>-0.004675496251019849</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.006122339188893567</v>
+        <v>-0.004675627867025114</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.006122207572888302</v>
+        <v>-0.004675496251019849</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.006122207572888302</v>
+        <v>-0.004675496251019849</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01106454572258183</v>
+        <v>-0.01107088153083526</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5533159046926361</v>
+        <v>0.5533164406606577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01308583778498879</v>
+        <v>0.01191562680639454</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2990341983933679</v>
+        <v>0.2994410377696415</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03864930221797208</v>
+        <v>0.03865452481018099</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3768337718563221</v>
+        <v>0.377488227851555</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2050444410657776</v>
+        <v>0.2054997164759887</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2050444410657776</v>
+        <v>0.2054997164759887</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2050443918177756</v>
+        <v>0.2054996672279867</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2050444410657776</v>
+        <v>0.2054997164759887</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2050444410657776</v>
+        <v>0.2054997164759887</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,44 +2059,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.00930946530037861</v>
+        <v>-0.009146520173860806</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.6162587637863505</v>
+        <v>0.6162585891623434</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008190012659354562</v>
+        <v>-0.0004549715111395828</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3855772984950919</v>
+        <v>0.3849918225996729</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02187040129081605</v>
+        <v>0.02183447972137919</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1890754440452668</v>
+        <v>0.1882592608103891</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2869557150302285</v>
+        <v>0.2861765360870613</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2869557150302285</v>
+        <v>0.2861765360870613</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.2869555813982232</v>
+        <v>0.2861764024550561</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2869557150302285</v>
+        <v>0.2861765360870613</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2869557150302285</v>
+        <v>0.2861765360870613</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.01576565055062602</v>
+        <v>-0.01575352181414087</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02557678067107122</v>
+        <v>-0.025576700031068</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009124235600322907</v>
+        <v>0.01281847763029495</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6581693132387725</v>
+        <v>0.6583147999965919</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1355832452633298</v>
+        <v>-0.1356152065446083</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3395942132460963</v>
+        <v>-0.3388163981630607</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7332600057144001</v>
+        <v>0.7334103290484131</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7332600057144001</v>
+        <v>0.7334103290484131</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.733260176114407</v>
+        <v>0.7334104994484199</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7332600057144001</v>
+        <v>0.7334103290484131</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7332600057144001</v>
+        <v>0.7334103290484131</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,44 +2185,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.05059019194360768</v>
+        <v>0.05076740449469617</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02706549900261996</v>
+        <v>0.02706555967462238</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01924817912109101</v>
+        <v>-0.01877081504727223</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004185481607419264</v>
+        <v>0.003592800335712013</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.07464015668160626</v>
+        <v>-0.07470841239633648</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0129752928110799</v>
+        <v>0.01263510690573192</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.002841603569664143</v>
+        <v>-0.003643588465743538</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.002841603569664143</v>
+        <v>-0.003643588465743538</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.002841724817668992</v>
+        <v>-0.003643709713748388</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.002841603569664143</v>
+        <v>-0.003643588465743538</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.002841603569664143</v>
+        <v>-0.003643588465743538</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,44 +2250,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01058626333545053</v>
+        <v>0.01074064785362591</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02143396175335847</v>
+        <v>0.02143379452135178</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007968485975186557</v>
+        <v>0.006832504215453787</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.002052865714114628</v>
+        <v>-0.00281468401658736</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02685526139421045</v>
+        <v>0.02677245227089809</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01399338539644331</v>
+        <v>0.01364951654703389</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.010296125019845</v>
+        <v>-0.01114558143782326</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.010296125019845</v>
+        <v>-0.01114558143782326</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.01029582069983283</v>
+        <v>-0.01114527711781108</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.010296125019845</v>
+        <v>-0.01114558143782326</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.010296125019845</v>
+        <v>-0.01114558143782326</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,44 +2315,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.009439466201578647</v>
+        <v>0.009468472122738884</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02179788125591525</v>
+        <v>0.02179829280793171</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04295947843051287</v>
+        <v>-0.04271249683920766</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01853357738134309</v>
+        <v>0.01875832702233308</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02224520546580822</v>
+        <v>-0.02225681810627272</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.005214223733790223</v>
+        <v>-0.005306630843760963</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01704644064985763</v>
+        <v>0.01731549986061999</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01704644064985763</v>
+        <v>0.01731549986061999</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.01704656237786249</v>
+        <v>0.01731562158862486</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01704644064985763</v>
+        <v>0.01731549986061999</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01704644064985763</v>
+        <v>0.01731549986061999</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,44 +2380,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.0227980050719202</v>
+        <v>-0.02290926802037072</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.01994875490995019</v>
+        <v>-0.01994875318195012</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01248916629311433</v>
+        <v>-0.01143890047660482</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01191969570878783</v>
+        <v>-0.01115794527831781</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01864542333781693</v>
+        <v>-0.01861236679249467</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.005416386161180863</v>
+        <v>-0.00658085912373957</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.006450247362009894</v>
+        <v>-0.00564921728196869</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.006450247362009894</v>
+        <v>-0.00564921728196869</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.006450349698013988</v>
+        <v>-0.005649319617972784</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.006450247362009894</v>
+        <v>-0.00564921728196869</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.006450247362009894</v>
+        <v>-0.00564921728196869</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,44 +2445,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.002717931084717243</v>
+        <v>-0.002869503186780128</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01822038149681526</v>
+        <v>-0.0182200801528032</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02040151062196752</v>
+        <v>0.02095970040459779</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01047613443504538</v>
+        <v>-0.009698423331936932</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01300219549608782</v>
+        <v>0.01306381972255279</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01080622457686592</v>
+        <v>-0.01200780235829674</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.008079932867197314</v>
+        <v>-0.007260538658421546</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.008079932867197314</v>
+        <v>-0.007260538658421546</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.008080152995206119</v>
+        <v>-0.007260758786430351</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.008079932867197314</v>
+        <v>-0.007260538658421546</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.008079932867197314</v>
+        <v>-0.007260538658421546</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,44 +2510,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.004384395919375836</v>
+        <v>-0.004335633101425323</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.02264451469778059</v>
+        <v>0.02264453188178127</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.00152127444552721</v>
+        <v>-0.001894475833282516</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0156421650736866</v>
+        <v>0.01588501167540047</v>
       </c>
       <c r="I32" t="n">
-        <v>0.003004189368167575</v>
+        <v>0.002964138550565541</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.02547246292322045</v>
+        <v>-0.02665446308965731</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01139910477596419</v>
+        <v>0.01157957623918305</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01139910477596419</v>
+        <v>0.01157957623918305</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.01139871578394863</v>
+        <v>0.01157918724716749</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01139910477596419</v>
+        <v>0.01157957623918305</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01139910477596419</v>
+        <v>0.01157957623918305</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,44 +2575,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.00174749200589968</v>
+        <v>-0.001802114088084563</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.0179081276603251</v>
+        <v>-0.01790828567633142</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0237182471695589</v>
+        <v>-0.02326352763570837</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.01394812692592507</v>
+        <v>-0.01393075409323016</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0007700164148006565</v>
+        <v>0.0008232191369287653</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0006557109969453805</v>
+        <v>-0.001365172301115853</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01130325827613033</v>
+        <v>-0.01130564666022586</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01130325827613033</v>
+        <v>-0.01130564666022586</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01130339402013576</v>
+        <v>-0.0113057824042313</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01130325827613033</v>
+        <v>-0.01130564666022586</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01130325827613033</v>
+        <v>-0.01130564666022586</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,44 +2640,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003381917223276688</v>
+        <v>0.003409554376382175</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.001925264429010577</v>
+        <v>-0.001925130221005208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008052227041215445</v>
+        <v>0.005719438137244396</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01655836482233459</v>
+        <v>-0.01704958772198351</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01828572149942886</v>
+        <v>0.01829207852368314</v>
       </c>
       <c r="J34" t="n">
-        <v>0.003103905246886437</v>
+        <v>0.002382935750607275</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01619216359168654</v>
+        <v>-0.01675594665423786</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.01619216359168654</v>
+        <v>-0.01675594665423786</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.01619207575168303</v>
+        <v>-0.01675585881423435</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01619216359168654</v>
+        <v>-0.01675594665423786</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01619216359168654</v>
+        <v>-0.01675594665423786</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01143629114545164</v>
+        <v>-0.01135142551005702</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.01676611295864452</v>
+        <v>-0.01676581151863246</v>
       </c>
       <c r="G35" t="n">
-        <v>0.005340331983716305</v>
+        <v>0.004462537956608609</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0257403927096157</v>
+        <v>-0.02685510779420431</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.001109315180372607</v>
+        <v>-0.00108580775543231</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.006387062615872656</v>
+        <v>-0.006388792584890116</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.02654419613376784</v>
+        <v>-0.02772655378106215</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.02654419613376784</v>
+        <v>-0.02772655378106215</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.02654458656578346</v>
+        <v>-0.02772694421307777</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.02654419613376784</v>
+        <v>-0.02772655378106215</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02654419613376784</v>
+        <v>-0.02772655378106215</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02586527671461106</v>
+        <v>-0.02592369070094763</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.002448844417953776</v>
+        <v>-0.002448612961944518</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005090840782832197</v>
+        <v>0.005587233357543491</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.003374734310989372</v>
+        <v>-0.00265457300218292</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00368766427550657</v>
+        <v>0.00366704376268175</v>
       </c>
       <c r="J36" t="n">
-        <v>0.007700598865882543</v>
+        <v>0.008378481545283667</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002191288215651528</v>
+        <v>-0.001383704983348199</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.002191288215651528</v>
+        <v>-0.001383704983348199</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.00219099099963964</v>
+        <v>-0.001383407767336311</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.002191288215651528</v>
+        <v>-0.001383704983348199</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.002191288215651528</v>
+        <v>-0.001383704983348199</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.001144750413790017</v>
+        <v>0.001102603148104126</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.01598236835129473</v>
+        <v>0.01598176566327062</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01549253603189825</v>
+        <v>-0.01641340824481586</v>
       </c>
       <c r="H37" t="n">
-        <v>0.009960783278431329</v>
+        <v>0.01059903075996123</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0236321575532863</v>
+        <v>0.02358394779135791</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0159132561446165</v>
+        <v>0.01487346045617203</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006338974333558972</v>
+        <v>0.006932684533307381</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006338974333558972</v>
+        <v>0.006932684533307381</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.00633894850955794</v>
+        <v>0.006932658709306347</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.006338974333558972</v>
+        <v>0.006932684533307381</v>
       </c>
       <c r="R37" t="n">
-        <v>0.006338974333558972</v>
+        <v>0.006932684533307381</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01507885279515411</v>
+        <v>0.01508249167529966</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.0158089625843585</v>
+        <v>-0.01580860479234419</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01178176322239073</v>
+        <v>0.01104041819758974</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0193691601667664</v>
+        <v>-0.01908262069930483</v>
       </c>
       <c r="I38" t="n">
-        <v>0.007294084227763368</v>
+        <v>0.007298156931926277</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01057697569994912</v>
+        <v>0.0105972968386201</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01674016310160652</v>
+        <v>-0.01650060862802434</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.01674016310160652</v>
+        <v>-0.01650060862802434</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>-0.01673988585359543</v>
+        <v>-0.01650033138001325</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.01674016310160652</v>
+        <v>-0.01650060862802434</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.01674016310160652</v>
+        <v>-0.01650060862802434</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,44 +2965,44 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.0008256807690272306</v>
+        <v>-0.0006940156117606243</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.009073472042938879</v>
+        <v>-0.009074000042960001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01040129318931834</v>
+        <v>0.01004554062978933</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01569977889999115</v>
+        <v>0.01485074133002965</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.004034612993384519</v>
+        <v>-0.004044319169772766</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006660743079292908</v>
+        <v>0.006603249349004348</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07965962296238491</v>
+        <v>0.07868071610722863</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07965962296238491</v>
+        <v>0.07868071610722863</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.07965975457839017</v>
+        <v>0.0786808477232339</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.07965962296238491</v>
+        <v>0.07868071610722863</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07965962296238491</v>
+        <v>0.07868071610722863</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
